--- a/stores.xlsx
+++ b/stores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YUMIN\Desktop\B0KT2A_RSVN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F6EA6EA-565C-4B81-B69B-C71F465AC61D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC740111-0F8C-4F63-A72A-6C04BC84D67C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ABFC3117-FCCB-4FF3-804A-FE19451A2004}"/>
+    <workbookView xWindow="30330" yWindow="1605" windowWidth="28665" windowHeight="15345" xr2:uid="{ABFC3117-FCCB-4FF3-804A-FE19451A2004}"/>
   </bookViews>
   <sheets>
     <sheet name="stores" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="645">
   <si>
     <t>룸익스케이프 WHITE</t>
   </si>
@@ -228,9 +228,6 @@
     <t>제로월드 김포본점</t>
   </si>
   <si>
-    <t>김제월,제로호텔,탈옥,특별수용소,어느겨울밤,어겨밤,인형괴담,인괴,성역전설,최면,복희네 사진관 SE,피노키오대탈출,검은사원,해리포터의모험SE,FEAR,피어</t>
-  </si>
-  <si>
     <t>제로월드X롯데월드</t>
   </si>
   <si>
@@ -2215,6 +2212,14 @@
   </si>
   <si>
     <t>ecs_ss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김제월,제로호텔,탈옥,특별수용소,어느겨울밤,어겨밤,인형괴담,김인괴,성역전설,최면,복희네사진관 SE,피노키오대탈출,검은사원,해리포터의모험SE,FEAR,피어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검은집,기억상실,사계,폐쇄병동,피노키오대탈출,해리포터의모험,마법모자의위기,홈어웨이</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2604,8 +2609,8 @@
   <dimension ref="A1:H182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E126" sqref="E126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2619,7 +2624,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>12</v>
@@ -2645,34 +2650,34 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2" s="3">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="C2" s="3">
-        <v>6</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>346</v>
       </c>
       <c r="F2" s="3">
         <v>0</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C3" s="3">
         <v>7</v>
@@ -2681,22 +2686,22 @@
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F3" s="3">
         <v>0</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C4" s="3">
         <v>8</v>
@@ -2705,22 +2710,22 @@
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F4" s="3">
         <v>0</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C5" s="3">
         <v>7</v>
@@ -2729,22 +2734,22 @@
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F5" s="3">
         <v>0</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C6" s="3">
         <v>7</v>
@@ -2753,22 +2758,22 @@
         <v>0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F6" s="3">
         <v>0</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C7" s="3">
         <v>13</v>
@@ -2777,22 +2782,22 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F7" s="3">
         <v>0</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C8" s="3">
         <v>13</v>
@@ -2801,22 +2806,22 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C9" s="3">
         <v>9</v>
@@ -2825,22 +2830,22 @@
         <v>0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C10" s="3">
         <v>9</v>
@@ -2849,22 +2854,22 @@
         <v>0</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C11" s="3">
         <v>9</v>
@@ -2873,22 +2878,22 @@
         <v>0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F11" s="3">
         <v>0</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C12" s="3">
         <v>6</v>
@@ -2897,46 +2902,46 @@
         <v>0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F12" s="3">
         <v>0</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C13" s="3">
+        <v>6</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="C13" s="3">
-        <v>6</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>251</v>
       </c>
       <c r="F13" s="3">
         <v>0</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C14" s="3">
         <v>13</v>
@@ -2945,22 +2950,22 @@
         <v>0</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C15" s="3">
         <v>27</v>
@@ -2969,22 +2974,22 @@
         <v>0</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C16" s="3">
         <v>7</v>
@@ -2993,22 +2998,22 @@
         <v>0</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F16" s="3">
         <v>0</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C17" s="3">
         <v>27</v>
@@ -3017,22 +3022,22 @@
         <v>0</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C18" s="3">
         <v>7</v>
@@ -3041,22 +3046,22 @@
         <v>0</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C19" s="3">
         <v>28</v>
@@ -3065,22 +3070,22 @@
         <v>0</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F19" s="3">
         <v>0</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C20" s="3">
         <v>30</v>
@@ -3089,22 +3094,22 @@
         <v>0</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C21" s="3">
         <v>28</v>
@@ -3113,22 +3118,22 @@
         <v>0</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C22" s="3">
         <v>28</v>
@@ -3137,22 +3142,22 @@
         <v>0</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C23" s="3">
         <v>6</v>
@@ -3161,21 +3166,21 @@
         <v>0</v>
       </c>
       <c r="E23" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>588</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C24" s="3">
         <v>6</v>
@@ -3184,45 +3189,45 @@
         <v>0</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C25" s="3">
+        <v>6</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="C25" s="3">
-        <v>6</v>
-      </c>
-      <c r="D25" s="4">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="F25" s="3">
         <v>0</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C26" s="3">
         <v>6</v>
@@ -3231,22 +3236,22 @@
         <v>0</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C27" s="3">
         <v>6</v>
@@ -3255,46 +3260,46 @@
         <v>0</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C28" s="3">
+        <v>6</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="C28" s="3">
-        <v>6</v>
-      </c>
-      <c r="D28" s="4">
-        <v>0</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="F28" s="3">
         <v>0</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C29" s="3">
         <v>37</v>
@@ -3303,94 +3308,94 @@
         <v>0</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C30" s="3">
+        <v>6</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="C30" s="3">
-        <v>6</v>
-      </c>
-      <c r="D30" s="4">
-        <v>0</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="F30" s="3">
         <v>0</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C31" s="3">
+        <v>6</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="C31" s="3">
-        <v>6</v>
-      </c>
-      <c r="D31" s="4">
-        <v>0</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="F31" s="3">
         <v>0</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C32" s="3">
+        <v>6</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="C32" s="3">
-        <v>6</v>
-      </c>
-      <c r="D32" s="4">
-        <v>0</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C33" s="3">
         <v>37</v>
@@ -3399,22 +3404,22 @@
         <v>0</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C34" s="3">
         <v>37</v>
@@ -3423,43 +3428,43 @@
         <v>0</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F34" s="3">
         <v>0</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C35" s="3">
+        <v>6</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="C35" s="3">
-        <v>6</v>
-      </c>
-      <c r="D35" s="4">
-        <v>0</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>8</v>
@@ -3478,15 +3483,15 @@
       </c>
       <c r="G36" s="1"/>
       <c r="H36" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C37" s="3">
         <v>14</v>
@@ -3495,22 +3500,22 @@
         <v>0</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F37" s="3">
         <v>0</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C38" s="3">
         <v>15</v>
@@ -3519,22 +3524,22 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F38" s="3">
         <v>0</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C39" s="3">
         <v>7</v>
@@ -3543,46 +3548,46 @@
         <v>0.97916666666666663</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F39" s="3">
         <v>0</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C40" s="3">
+        <v>6</v>
+      </c>
+      <c r="D40" s="4">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="C40" s="3">
-        <v>6</v>
-      </c>
-      <c r="D40" s="4">
-        <v>0</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="F40" s="3">
         <v>0</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C41" s="1">
         <v>13</v>
@@ -3591,44 +3596,44 @@
         <v>0</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F41" s="1">
         <v>0</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F42" s="3">
         <v>1</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C43" s="3">
         <v>7</v>
@@ -3637,22 +3642,22 @@
         <v>0.875</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C44" s="3">
         <v>6</v>
@@ -3661,22 +3666,22 @@
         <v>0</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F44" s="3">
         <v>0</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C45" s="3">
         <v>55</v>
@@ -3685,22 +3690,22 @@
         <v>0</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C46" s="3">
         <v>6</v>
@@ -3709,19 +3714,19 @@
         <v>0</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>2</v>
@@ -3740,12 +3745,12 @@
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>6</v>
@@ -3764,12 +3769,12 @@
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>4</v>
@@ -3788,12 +3793,12 @@
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>0</v>
@@ -3812,15 +3817,15 @@
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C51" s="3">
         <v>7</v>
@@ -3829,18 +3834,18 @@
         <v>0</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F51" s="3">
         <v>0</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B52" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C52" s="3">
         <v>30</v>
@@ -3849,18 +3854,18 @@
         <v>0</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B53" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C53" s="3">
         <v>30</v>
@@ -3869,18 +3874,18 @@
         <v>0</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F53" s="3">
         <v>0</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B54" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C54" s="3">
         <v>30</v>
@@ -3889,18 +3894,18 @@
         <v>0</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F54" s="3">
         <v>0</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B55" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C55" s="3">
         <v>15</v>
@@ -3909,18 +3914,18 @@
         <v>0</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F55" s="3">
         <v>0</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B56" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C56" s="3">
         <v>15</v>
@@ -3929,18 +3934,18 @@
         <v>0</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F56" s="3">
         <v>0</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B57" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C57" s="3">
         <v>30</v>
@@ -3949,18 +3954,18 @@
         <v>0</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B58" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C58" s="3">
         <v>30</v>
@@ -3969,21 +3974,21 @@
         <v>0</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C59" s="3">
         <v>30</v>
@@ -3992,18 +3997,18 @@
         <v>0</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B60" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C60" s="3">
         <v>15</v>
@@ -4012,18 +4017,18 @@
         <v>0</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F60" s="3">
         <v>0</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B61" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C61" s="3">
         <v>30</v>
@@ -4032,18 +4037,18 @@
         <v>0</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B62" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C62" s="3">
         <v>15</v>
@@ -4052,18 +4057,18 @@
         <v>0</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B63" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C63" s="3">
         <v>7</v>
@@ -4072,18 +4077,18 @@
         <v>0</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F63" s="3">
         <v>0</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B64" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C64" s="3">
         <v>7</v>
@@ -4092,18 +4097,18 @@
         <v>0</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F64" s="3">
         <v>0</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B65" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C65" s="3">
         <v>14</v>
@@ -4112,18 +4117,18 @@
         <v>0</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F65" s="3">
         <v>0</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B66" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C66" s="3">
         <v>30</v>
@@ -4132,18 +4137,18 @@
         <v>0</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F66" s="3">
         <v>0</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B67" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C67" s="3">
         <v>30</v>
@@ -4152,18 +4157,18 @@
         <v>0</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F67" s="3">
         <v>0</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B68" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C68" s="3">
         <v>30</v>
@@ -4172,18 +4177,18 @@
         <v>0</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F68" s="3">
         <v>0</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B69" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C69" s="3">
         <v>30</v>
@@ -4192,18 +4197,18 @@
         <v>0</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F69" s="3">
         <v>0</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B70" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C70" s="3">
         <v>30</v>
@@ -4212,18 +4217,18 @@
         <v>0</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B71" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C71" s="3">
         <v>15</v>
@@ -4232,21 +4237,21 @@
         <v>0</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F71" s="3">
         <v>0</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C72" s="3">
         <v>7</v>
@@ -4255,22 +4260,22 @@
         <v>0</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F72" s="3">
         <v>0</v>
       </c>
       <c r="G72" s="1"/>
       <c r="H72" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C73" s="3">
         <v>7</v>
@@ -4279,22 +4284,22 @@
         <v>0</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F73" s="3">
         <v>0</v>
       </c>
       <c r="G73" s="1"/>
       <c r="H73" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C74" s="3">
         <v>7</v>
@@ -4303,22 +4308,22 @@
         <v>0</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F74" s="3">
         <v>0</v>
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C75" s="3">
         <v>7</v>
@@ -4327,22 +4332,22 @@
         <v>0</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F75" s="3">
         <v>0</v>
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C76" s="3">
         <v>7</v>
@@ -4351,22 +4356,22 @@
         <v>0</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F76" s="3">
         <v>0</v>
       </c>
       <c r="G76" s="1"/>
       <c r="H76" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C77" s="3">
         <v>7</v>
@@ -4375,22 +4380,22 @@
         <v>0</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F77" s="3">
         <v>0</v>
       </c>
       <c r="G77" s="1"/>
       <c r="H77" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C78" s="3">
         <v>7</v>
@@ -4399,22 +4404,22 @@
         <v>0</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F78" s="3">
         <v>0</v>
       </c>
       <c r="G78" s="1"/>
       <c r="H78" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C79" s="3">
         <v>7</v>
@@ -4423,46 +4428,46 @@
         <v>0</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F79" s="3">
         <v>0</v>
       </c>
       <c r="G79" s="1"/>
       <c r="H79" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B80" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C80" s="3">
+        <v>6</v>
+      </c>
+      <c r="D80" s="4">
+        <v>0</v>
+      </c>
+      <c r="E80" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="C80" s="3">
-        <v>6</v>
-      </c>
-      <c r="D80" s="4">
-        <v>0</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>265</v>
       </c>
       <c r="F80" s="3">
         <v>0</v>
       </c>
       <c r="G80" s="1"/>
       <c r="H80" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>542</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>543</v>
       </c>
       <c r="C81" s="3">
         <v>7</v>
@@ -4471,22 +4476,22 @@
         <v>0</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F81" s="3">
         <v>0</v>
       </c>
       <c r="G81" s="1"/>
       <c r="H81" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C82" s="1">
         <v>76</v>
@@ -4495,20 +4500,20 @@
         <v>0</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C83" s="3">
         <v>14</v>
@@ -4517,19 +4522,19 @@
         <v>0</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
       </c>
       <c r="G83" s="1"/>
       <c r="H83" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>48</v>
@@ -4548,12 +4553,12 @@
       </c>
       <c r="G84" s="1"/>
       <c r="H84" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>50</v>
@@ -4572,15 +4577,15 @@
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C86" s="3">
         <v>6</v>
@@ -4589,19 +4594,19 @@
         <v>0</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F86" s="3">
         <v>0</v>
       </c>
       <c r="G86" s="1"/>
       <c r="H86" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>44</v>
@@ -4620,12 +4625,12 @@
       </c>
       <c r="G87" s="1"/>
       <c r="H87" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>52</v>
@@ -4644,12 +4649,12 @@
       </c>
       <c r="G88" s="1"/>
       <c r="H88" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>54</v>
@@ -4668,15 +4673,15 @@
       </c>
       <c r="G89" s="1"/>
       <c r="H89" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C90" s="3">
         <v>6</v>
@@ -4685,22 +4690,22 @@
         <v>0</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F90" s="3">
         <v>0</v>
       </c>
       <c r="G90" s="1"/>
       <c r="H90" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C91" s="3">
         <v>6</v>
@@ -4709,19 +4714,19 @@
         <v>0</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
       <c r="G91" s="1"/>
       <c r="H91" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>56</v>
@@ -4740,12 +4745,12 @@
       </c>
       <c r="G92" s="1"/>
       <c r="H92" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>58</v>
@@ -4757,22 +4762,22 @@
         <v>0.875</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F93" s="3">
         <v>0</v>
       </c>
       <c r="G93" s="1"/>
       <c r="H93" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C94" s="3">
         <v>6</v>
@@ -4781,19 +4786,19 @@
         <v>0</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
       <c r="G94" s="1"/>
       <c r="H94" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>42</v>
@@ -4812,12 +4817,12 @@
       </c>
       <c r="G95" s="1"/>
       <c r="H95" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>46</v>
@@ -4836,207 +4841,207 @@
       </c>
       <c r="G96" s="1"/>
       <c r="H96" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B97" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C97" s="3">
+        <v>6</v>
+      </c>
+      <c r="D97" s="4">
+        <v>0</v>
+      </c>
+      <c r="E97" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="C97" s="3">
-        <v>6</v>
-      </c>
-      <c r="D97" s="4">
-        <v>0</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="F97" s="3">
         <v>0</v>
       </c>
       <c r="G97" s="1"/>
       <c r="H97" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B98" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C98" s="3">
+        <v>6</v>
+      </c>
+      <c r="D98" s="4">
+        <v>0</v>
+      </c>
+      <c r="E98" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="C98" s="3">
-        <v>6</v>
-      </c>
-      <c r="D98" s="4">
-        <v>0</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>234</v>
       </c>
       <c r="F98" s="3">
         <v>0</v>
       </c>
       <c r="G98" s="1"/>
       <c r="H98" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B99" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C99" s="3">
+        <v>6</v>
+      </c>
+      <c r="D99" s="4">
+        <v>0</v>
+      </c>
+      <c r="E99" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="C99" s="3">
-        <v>6</v>
-      </c>
-      <c r="D99" s="4">
-        <v>0</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>246</v>
       </c>
       <c r="F99" s="3">
         <v>0</v>
       </c>
       <c r="G99" s="1"/>
       <c r="H99" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B100" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C100" s="3">
+        <v>6</v>
+      </c>
+      <c r="D100" s="4">
+        <v>0</v>
+      </c>
+      <c r="E100" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="C100" s="3">
-        <v>6</v>
-      </c>
-      <c r="D100" s="4">
-        <v>0</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>236</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="1"/>
       <c r="H100" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B101" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C101" s="3">
+        <v>6</v>
+      </c>
+      <c r="D101" s="4">
+        <v>0</v>
+      </c>
+      <c r="E101" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="C101" s="3">
-        <v>6</v>
-      </c>
-      <c r="D101" s="4">
-        <v>0</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
       <c r="G101" s="1"/>
       <c r="H101" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B102" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C102" s="3">
+        <v>6</v>
+      </c>
+      <c r="D102" s="4">
+        <v>0</v>
+      </c>
+      <c r="E102" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="C102" s="3">
-        <v>6</v>
-      </c>
-      <c r="D102" s="4">
-        <v>0</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>242</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
       <c r="G102" s="1"/>
       <c r="H102" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B103" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C103" s="3">
+        <v>6</v>
+      </c>
+      <c r="D103" s="4">
+        <v>0</v>
+      </c>
+      <c r="E103" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="C103" s="3">
-        <v>6</v>
-      </c>
-      <c r="D103" s="4">
-        <v>0</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="F103" s="3">
         <v>0</v>
       </c>
       <c r="G103" s="1"/>
       <c r="H103" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B104" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C104" s="3">
+        <v>6</v>
+      </c>
+      <c r="D104" s="4">
+        <v>0</v>
+      </c>
+      <c r="E104" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="C104" s="3">
-        <v>6</v>
-      </c>
-      <c r="D104" s="4">
-        <v>0</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>256</v>
       </c>
       <c r="F104" s="3">
         <v>0</v>
       </c>
       <c r="G104" s="1"/>
       <c r="H104" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C105" s="3">
         <v>6</v>
@@ -5045,22 +5050,22 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F105" s="3">
         <v>0</v>
       </c>
       <c r="G105" s="1"/>
       <c r="H105" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C106" s="3">
         <v>13</v>
@@ -5069,22 +5074,22 @@
         <v>0</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F106" s="3">
         <v>0</v>
       </c>
       <c r="G106" s="1"/>
       <c r="H106" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C107" s="3">
         <v>13</v>
@@ -5093,46 +5098,46 @@
         <v>0</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F107" s="3">
         <v>0</v>
       </c>
       <c r="G107" s="1"/>
       <c r="H107" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B108" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C108" s="3">
+        <v>6</v>
+      </c>
+      <c r="D108" s="4">
+        <v>0</v>
+      </c>
+      <c r="E108" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="C108" s="3">
-        <v>6</v>
-      </c>
-      <c r="D108" s="4">
-        <v>0</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="F108" s="3">
         <v>0</v>
       </c>
       <c r="G108" s="1"/>
       <c r="H108" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C109" s="3">
         <v>30</v>
@@ -5141,22 +5146,22 @@
         <v>0</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F109" s="3">
         <v>0</v>
       </c>
       <c r="G109" s="1"/>
       <c r="H109" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C110" s="3">
         <v>10</v>
@@ -5165,22 +5170,22 @@
         <v>0</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F110" s="3">
         <v>0</v>
       </c>
       <c r="G110" s="1"/>
       <c r="H110" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C111" s="3">
         <v>10</v>
@@ -5189,66 +5194,66 @@
         <v>0</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F111" s="3">
         <v>0</v>
       </c>
       <c r="G111" s="1"/>
       <c r="H111" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F112" s="3">
         <v>1</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F113" s="3">
         <v>1</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C114" s="3">
         <v>7</v>
@@ -5257,94 +5262,94 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F114" s="3">
         <v>0</v>
       </c>
       <c r="G114" s="1"/>
       <c r="H114" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B115" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C115" s="3">
+        <v>6</v>
+      </c>
+      <c r="D115" s="4">
+        <v>0</v>
+      </c>
+      <c r="E115" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="C115" s="3">
-        <v>6</v>
-      </c>
-      <c r="D115" s="4">
-        <v>0</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>248</v>
       </c>
       <c r="F115" s="3">
         <v>0</v>
       </c>
       <c r="G115" s="1"/>
       <c r="H115" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B116" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C116" s="3">
+        <v>6</v>
+      </c>
+      <c r="D116" s="5">
+        <v>0</v>
+      </c>
+      <c r="E116" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="C116" s="3">
-        <v>6</v>
-      </c>
-      <c r="D116" s="5">
-        <v>0</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>313</v>
       </c>
       <c r="F116" s="3">
         <v>0</v>
       </c>
       <c r="G116" s="1"/>
       <c r="H116" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B117" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C117" s="3">
+        <v>6</v>
+      </c>
+      <c r="D117" s="4">
+        <v>0</v>
+      </c>
+      <c r="E117" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="C117" s="3">
-        <v>6</v>
-      </c>
-      <c r="D117" s="4">
-        <v>0</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="F117" s="3">
         <v>0</v>
       </c>
       <c r="G117" s="1"/>
       <c r="H117" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C118" s="1">
         <v>14</v>
@@ -5353,112 +5358,112 @@
         <v>0</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F118" s="1">
         <v>0</v>
       </c>
       <c r="G118" s="1"/>
       <c r="H118" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>638</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>639</v>
       </c>
       <c r="C119" s="1"/>
       <c r="D119" s="5"/>
       <c r="E119" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F119" s="1">
         <v>1</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F120" s="1">
         <v>1</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F121" s="1">
         <v>1</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B122" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C122" s="3">
+        <v>6</v>
+      </c>
+      <c r="D122" s="4">
+        <v>0</v>
+      </c>
+      <c r="E122" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="C122" s="3">
-        <v>6</v>
-      </c>
-      <c r="D122" s="4">
-        <v>0</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>262</v>
       </c>
       <c r="F122" s="3">
         <v>0</v>
       </c>
       <c r="G122" s="1"/>
       <c r="H122" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C123" s="3">
         <v>29</v>
@@ -5467,19 +5472,19 @@
         <v>0</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F123" s="3">
         <v>0</v>
       </c>
       <c r="G123" s="1"/>
       <c r="H123" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>59</v>
@@ -5498,12 +5503,12 @@
       </c>
       <c r="G124" s="1"/>
       <c r="H124" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>63</v>
@@ -5515,36 +5520,39 @@
         <v>0</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>64</v>
+        <v>643</v>
       </c>
       <c r="F125" s="3">
         <v>0</v>
       </c>
       <c r="G125" s="1"/>
       <c r="H125" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="B126" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="B126" s="1" t="s">
-        <v>599</v>
+      <c r="E126" s="1" t="s">
+        <v>644</v>
       </c>
       <c r="F126" s="3">
         <v>1</v>
       </c>
       <c r="G126" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="H126" s="1" t="s">
         <v>600</v>
-      </c>
-      <c r="H126" s="1" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>61</v>
@@ -5563,15 +5571,15 @@
       </c>
       <c r="G127" s="1"/>
       <c r="H127" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C128" s="3">
         <v>14</v>
@@ -5580,22 +5588,22 @@
         <v>0</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F128" s="3">
         <v>0</v>
       </c>
       <c r="G128" s="1"/>
       <c r="H128" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C129" s="3">
         <v>14</v>
@@ -5604,22 +5612,22 @@
         <v>0</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F129" s="3">
         <v>0</v>
       </c>
       <c r="G129" s="1"/>
       <c r="H129" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C130" s="3">
         <v>7</v>
@@ -5628,22 +5636,22 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F130" s="3">
         <v>0</v>
       </c>
       <c r="G130" s="1"/>
       <c r="H130" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C131" s="3">
         <v>7</v>
@@ -5652,22 +5660,22 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F131" s="3">
         <v>0</v>
       </c>
       <c r="G131" s="1"/>
       <c r="H131" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C132" s="3">
         <v>7</v>
@@ -5676,19 +5684,19 @@
         <v>0.875</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F132" s="3">
         <v>0</v>
       </c>
       <c r="G132" s="1"/>
       <c r="H132" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>10</v>
@@ -5707,12 +5715,12 @@
       </c>
       <c r="G133" s="1"/>
       <c r="H133" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B134" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C134" s="3">
         <v>13</v>
@@ -5721,19 +5729,19 @@
         <v>0</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F134" s="3">
         <v>0</v>
       </c>
       <c r="G134" s="1"/>
       <c r="H134" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B135" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C135" s="3">
         <v>45</v>
@@ -5742,22 +5750,22 @@
         <v>0</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F135" s="3">
         <v>0</v>
       </c>
       <c r="G135" s="1"/>
       <c r="H135" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C136" s="3">
         <v>30</v>
@@ -5766,22 +5774,22 @@
         <v>0</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F136" s="3">
         <v>0</v>
       </c>
       <c r="G136" s="1"/>
       <c r="H136" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C137" s="3">
         <v>7</v>
@@ -5790,22 +5798,22 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F137" s="3">
         <v>0</v>
       </c>
       <c r="G137" s="1"/>
       <c r="H137" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C138" s="3">
         <v>7</v>
@@ -5814,19 +5822,19 @@
         <v>0</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F138" s="3">
         <v>0</v>
       </c>
       <c r="G138" s="1"/>
       <c r="H138" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>26</v>
@@ -5845,12 +5853,12 @@
       </c>
       <c r="G139" s="1"/>
       <c r="H139" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>28</v>
@@ -5869,12 +5877,12 @@
       </c>
       <c r="G140" s="1"/>
       <c r="H140" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>24</v>
@@ -5893,12 +5901,12 @@
       </c>
       <c r="G141" s="1"/>
       <c r="H141" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>32</v>
@@ -5917,12 +5925,12 @@
       </c>
       <c r="G142" s="1"/>
       <c r="H142" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>34</v>
@@ -5941,12 +5949,12 @@
       </c>
       <c r="G143" s="1"/>
       <c r="H143" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>21</v>
@@ -5965,12 +5973,12 @@
       </c>
       <c r="G144" s="1"/>
       <c r="H144" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>19</v>
@@ -5989,12 +5997,12 @@
       </c>
       <c r="G145" s="1"/>
       <c r="H145" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>38</v>
@@ -6013,12 +6021,12 @@
       </c>
       <c r="G146" s="1"/>
       <c r="H146" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>30</v>
@@ -6037,12 +6045,12 @@
       </c>
       <c r="G147" s="1"/>
       <c r="H147" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>40</v>
@@ -6061,12 +6069,12 @@
       </c>
       <c r="G148" s="1"/>
       <c r="H148" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>36</v>
@@ -6085,12 +6093,12 @@
       </c>
       <c r="G149" s="1"/>
       <c r="H149" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>23</v>
@@ -6102,22 +6110,22 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F150" s="3">
         <v>0</v>
       </c>
       <c r="G150" s="1"/>
       <c r="H150" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C151" s="3">
         <v>8</v>
@@ -6126,21 +6134,21 @@
         <v>0</v>
       </c>
       <c r="E151" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="F151" s="3">
+        <v>0</v>
+      </c>
+      <c r="H151" s="1" t="s">
         <v>592</v>
-      </c>
-      <c r="F151" s="3">
-        <v>0</v>
-      </c>
-      <c r="H151" s="1" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C152" s="3">
         <v>7</v>
@@ -6149,22 +6157,22 @@
         <v>0</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F152" s="3">
         <v>0</v>
       </c>
       <c r="G152" s="1"/>
       <c r="H152" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C153" s="3">
         <v>7</v>
@@ -6173,19 +6181,19 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F153" s="3">
         <v>0</v>
       </c>
       <c r="G153" s="1"/>
       <c r="H153" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B154" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C154" s="3">
         <v>7</v>
@@ -6194,94 +6202,94 @@
         <v>0</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F154" s="3">
         <v>0</v>
       </c>
       <c r="G154" s="1"/>
       <c r="H154" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B155" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C155" s="3">
+        <v>6</v>
+      </c>
+      <c r="D155" s="4">
+        <v>0</v>
+      </c>
+      <c r="E155" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="C155" s="3">
-        <v>6</v>
-      </c>
-      <c r="D155" s="4">
-        <v>0</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="F155" s="3">
         <v>0</v>
       </c>
       <c r="G155" s="1"/>
       <c r="H155" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B156" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C156" s="3">
+        <v>6</v>
+      </c>
+      <c r="D156" s="4">
+        <v>0</v>
+      </c>
+      <c r="E156" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="C156" s="3">
-        <v>6</v>
-      </c>
-      <c r="D156" s="4">
-        <v>0</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="F156" s="3">
         <v>0</v>
       </c>
       <c r="G156" s="1"/>
       <c r="H156" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B157" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C157" s="3">
+        <v>6</v>
+      </c>
+      <c r="D157" s="4">
+        <v>0</v>
+      </c>
+      <c r="E157" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="C157" s="3">
-        <v>6</v>
-      </c>
-      <c r="D157" s="4">
-        <v>0</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="F157" s="3">
         <v>0</v>
       </c>
       <c r="G157" s="1"/>
       <c r="H157" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C158" s="3">
         <v>7</v>
@@ -6290,22 +6298,22 @@
         <v>0.97916666666666663</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F158" s="3">
         <v>0</v>
       </c>
       <c r="G158" s="1"/>
       <c r="H158" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C159" s="3">
         <v>14</v>
@@ -6314,46 +6322,46 @@
         <v>0</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F159" s="3">
         <v>0</v>
       </c>
       <c r="G159" s="1"/>
       <c r="H159" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B160" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C160" s="3">
+        <v>6</v>
+      </c>
+      <c r="D160" s="4">
+        <v>0</v>
+      </c>
+      <c r="E160" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="C160" s="3">
-        <v>6</v>
-      </c>
-      <c r="D160" s="4">
-        <v>0</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="F160" s="3">
         <v>0</v>
       </c>
       <c r="G160" s="1"/>
       <c r="H160" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C161" s="3">
         <v>13</v>
@@ -6362,118 +6370,118 @@
         <v>0</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F161" s="3">
         <v>0</v>
       </c>
       <c r="G161" s="1"/>
       <c r="H161" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B162" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C162" s="3">
+        <v>6</v>
+      </c>
+      <c r="D162" s="4">
+        <v>0</v>
+      </c>
+      <c r="E162" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="C162" s="3">
-        <v>6</v>
-      </c>
-      <c r="D162" s="4">
-        <v>0</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="F162" s="3">
         <v>0</v>
       </c>
       <c r="G162" s="1"/>
       <c r="H162" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B163" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C163" s="3">
+        <v>6</v>
+      </c>
+      <c r="D163" s="4">
+        <v>0</v>
+      </c>
+      <c r="E163" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="C163" s="3">
-        <v>6</v>
-      </c>
-      <c r="D163" s="4">
-        <v>0</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="F163" s="3">
         <v>0</v>
       </c>
       <c r="G163" s="1"/>
       <c r="H163" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B164" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C164" s="3">
+        <v>6</v>
+      </c>
+      <c r="D164" s="4">
+        <v>0</v>
+      </c>
+      <c r="E164" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C164" s="3">
-        <v>6</v>
-      </c>
-      <c r="D164" s="4">
-        <v>0</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="F164" s="3">
         <v>0</v>
       </c>
       <c r="G164" s="1"/>
       <c r="H164" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B165" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C165" s="3">
+        <v>6</v>
+      </c>
+      <c r="D165" s="4">
+        <v>0</v>
+      </c>
+      <c r="E165" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="C165" s="3">
-        <v>6</v>
-      </c>
-      <c r="D165" s="4">
-        <v>0</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="F165" s="3">
         <v>0</v>
       </c>
       <c r="G165" s="1"/>
       <c r="H165" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C166" s="3">
         <v>7</v>
@@ -6482,22 +6490,22 @@
         <v>0</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F166" s="3">
         <v>0</v>
       </c>
       <c r="G166" s="1"/>
       <c r="H166" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C167" s="3">
         <v>7</v>
@@ -6506,22 +6514,22 @@
         <v>0</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F167" s="3">
         <v>0</v>
       </c>
       <c r="G167" s="1"/>
       <c r="H167" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C168" s="3">
         <v>7</v>
@@ -6530,22 +6538,22 @@
         <v>0</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F168" s="3">
         <v>0</v>
       </c>
       <c r="G168" s="1"/>
       <c r="H168" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C169" s="3">
         <v>7</v>
@@ -6554,22 +6562,22 @@
         <v>0</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F169" s="3">
         <v>0</v>
       </c>
       <c r="G169" s="1"/>
       <c r="H169" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C170" s="3">
         <v>7</v>
@@ -6578,22 +6586,22 @@
         <v>0</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F170" s="3">
         <v>0</v>
       </c>
       <c r="G170" s="1"/>
       <c r="H170" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C171" s="3">
         <v>7</v>
@@ -6602,22 +6610,22 @@
         <v>0</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F171" s="3">
         <v>0</v>
       </c>
       <c r="G171" s="1"/>
       <c r="H171" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C172" s="3">
         <v>7</v>
@@ -6626,22 +6634,22 @@
         <v>0</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F172" s="3">
         <v>0</v>
       </c>
       <c r="G172" s="1"/>
       <c r="H172" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C173" s="3">
         <v>7</v>
@@ -6650,22 +6658,22 @@
         <v>0</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F173" s="3">
         <v>0</v>
       </c>
       <c r="G173" s="1"/>
       <c r="H173" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C174" s="3">
         <v>7</v>
@@ -6674,22 +6682,22 @@
         <v>0</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F174" s="3">
         <v>0</v>
       </c>
       <c r="G174" s="1"/>
       <c r="H174" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C175" s="3">
         <v>13</v>
@@ -6698,152 +6706,152 @@
         <v>0</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F175" s="3">
         <v>0</v>
       </c>
       <c r="G175" s="1"/>
       <c r="H175" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B176" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C176" s="3">
+        <v>6</v>
+      </c>
+      <c r="D176" s="4">
+        <v>0</v>
+      </c>
+      <c r="E176" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="C176" s="3">
-        <v>6</v>
-      </c>
-      <c r="D176" s="4">
-        <v>0</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="F176" s="3">
         <v>0</v>
       </c>
       <c r="G176" s="1"/>
       <c r="H176" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B177" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C177" s="3">
+        <v>6</v>
+      </c>
+      <c r="D177" s="4">
+        <v>0</v>
+      </c>
+      <c r="E177" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="C177" s="3">
-        <v>6</v>
-      </c>
-      <c r="D177" s="4">
-        <v>0</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="F177" s="3">
         <v>0</v>
       </c>
       <c r="G177" s="1"/>
       <c r="H177" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B178" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C178" s="3">
+        <v>6</v>
+      </c>
+      <c r="D178" s="4">
+        <v>0</v>
+      </c>
+      <c r="E178" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="C178" s="3">
-        <v>6</v>
-      </c>
-      <c r="D178" s="4">
-        <v>0</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>228</v>
       </c>
       <c r="F178" s="3">
         <v>0</v>
       </c>
       <c r="G178" s="1"/>
       <c r="H178" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B179" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C179" s="3">
+        <v>6</v>
+      </c>
+      <c r="D179" s="4">
+        <v>0</v>
+      </c>
+      <c r="E179" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="C179" s="3">
-        <v>6</v>
-      </c>
-      <c r="D179" s="4">
-        <v>0</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="F179" s="3">
         <v>0</v>
       </c>
       <c r="G179" s="1"/>
       <c r="H179" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B180" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C180" s="3">
+        <v>6</v>
+      </c>
+      <c r="D180" s="4">
+        <v>0</v>
+      </c>
+      <c r="E180" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="C180" s="3">
-        <v>6</v>
-      </c>
-      <c r="D180" s="4">
-        <v>0</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="F180" s="3">
         <v>0</v>
       </c>
       <c r="G180" s="1"/>
       <c r="H180" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F181" s="1">
         <v>1</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="B182" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="B182" s="1" t="s">
+      <c r="E182" s="1" t="s">
         <v>606</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>607</v>
       </c>
     </row>
   </sheetData>

--- a/stores.xlsx
+++ b/stores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YUMIN\Desktop\B0KT2A_RSVN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC740111-0F8C-4F63-A72A-6C04BC84D67C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F9FF0C-02A4-4DD6-B7E9-96988D62D400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30330" yWindow="1605" windowWidth="28665" windowHeight="15345" xr2:uid="{ABFC3117-FCCB-4FF3-804A-FE19451A2004}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ABFC3117-FCCB-4FF3-804A-FE19451A2004}"/>
   </bookViews>
   <sheets>
     <sheet name="stores" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="668">
   <si>
     <t>룸익스케이프 WHITE</t>
   </si>
@@ -336,9 +336,6 @@
     <t>리허설,갱생,더맨,STAFF ONLY,스태프온리,작은창고,위로</t>
   </si>
   <si>
-    <t>마스터키 프라임신촌퍼블릭</t>
-  </si>
-  <si>
     <t>인투더와일드,INTO THE WILD,그도…그럴 것이다,SCENE:404 NOT FOUND,씬</t>
   </si>
   <si>
@@ -348,9 +345,6 @@
     <t>이모션,타임크랙,일탈,통제구역</t>
   </si>
   <si>
-    <t>마스터키 동탄프라임</t>
-  </si>
-  <si>
     <t>우가우가,종이왕국,페이소스,PATHOS,인스톨,INSTALL</t>
   </si>
   <si>
@@ -360,15 +354,9 @@
     <t>교생실습,D-DAY,디데이,DELIVER,딜리버</t>
   </si>
   <si>
-    <t>마스터키 프라임 청주점</t>
-  </si>
-  <si>
     <t>환생시험,샵보이스,#VOICE,자수성가,SELF-MADE,방과후 13교시,이상한나라</t>
   </si>
   <si>
-    <t>마스터키 화정점</t>
-  </si>
-  <si>
     <t>시간여행자,현월,헬프미,HELP ME,싸움의기술:ZERO</t>
   </si>
   <si>
@@ -408,1818 +396,1929 @@
     <t>THE GREAT WALL,그레이트월,편지,1990,대탈출2,REC,R.E.C</t>
   </si>
   <si>
+    <t>MSI 미제사건 전담반,재심,MK빌딩을털어라:45C6,블랙룸</t>
+  </si>
+  <si>
+    <t>싸인이스케이프 강남시티점</t>
+  </si>
+  <si>
+    <t>러너웨이,RUNAWAY,EXPRESS,익스프레스,MUST,머스트</t>
+  </si>
+  <si>
+    <t>싸인이스케이프 홍대점</t>
+  </si>
+  <si>
+    <t>거상,졸업,하이팜</t>
+  </si>
+  <si>
+    <t>싸인이스케이프 인계점</t>
+  </si>
+  <si>
+    <t>신비의베이커리,악은어디에나존재한다,트라이위저드,GATE:CCZ,NEW,뉴</t>
+  </si>
+  <si>
+    <t>싸인이스케이프 성대역점</t>
+  </si>
+  <si>
+    <t>각성,고시텔(3층),우울증,인턴,자멜신부의 비밀</t>
+  </si>
+  <si>
+    <t>지구별방탈출 대구점</t>
+  </si>
+  <si>
+    <t>잉카,우리아빠,사명:투쟁의노래,펭귄키우기,너의겨울은가고봄은온다,만월&lt;꿈을훔치는요괴&gt;,단디해라,</t>
+  </si>
+  <si>
+    <t>지구별방탈출 어드벤처점</t>
+  </si>
+  <si>
+    <t>지구별방탈출 라스트시티점</t>
+  </si>
+  <si>
+    <t>섀도우,SHADOW,스위티,스텔라,멸종위기종탐사대,멸탐대,문신,라스트코어,라코,얼론,ALONE,카부트</t>
+  </si>
+  <si>
+    <t>드림이스케이프 건대점</t>
+  </si>
+  <si>
+    <t>바야흐로여름이었다,바여름,V.E.T,VET,ALLTHEBOX PARADISE,올더박스파라다이스,DOLPHIN,돌핀</t>
+  </si>
+  <si>
+    <t>레다스퀘어 홍대점</t>
+  </si>
+  <si>
+    <t>세상의진실을마주하는일에대하여,세진마,아득히바라던타오름에대하여,아바타,사라진진실과상실에대하여,사진상</t>
+  </si>
+  <si>
+    <t>티켓투이스케이프</t>
+  </si>
+  <si>
+    <t>프랭크의 골동품가게</t>
+  </si>
+  <si>
+    <t>오늘의 한 페이지</t>
+  </si>
+  <si>
+    <t>오한페,버디,BUDDY,용하다용해!! 용팔도령</t>
+  </si>
+  <si>
+    <t>괴담저장소 제일기숙학원</t>
+  </si>
+  <si>
+    <t>제일기숙학원성지순례</t>
+  </si>
+  <si>
+    <t>괴담저장소 한강대 담력훈련</t>
+  </si>
+  <si>
+    <t>한강대담력훈련심야괴담회</t>
+  </si>
+  <si>
+    <t>겟어웨이 방탈출</t>
+  </si>
+  <si>
+    <t>단편선 강남</t>
+  </si>
+  <si>
+    <t>그림자없는상자,그없상,사람들은그것을행복이라부르기로 했다,사그행부</t>
+  </si>
+  <si>
+    <t>단편선 성수</t>
+  </si>
+  <si>
+    <t>도어이스케이프 강남가든점</t>
+  </si>
+  <si>
+    <t>출동,INSERT COIN,인서트코인,둘이라면,IMAGINE,이매진</t>
+  </si>
+  <si>
+    <t>도어이스케이프 신논현 레드점</t>
+  </si>
+  <si>
+    <t>LUCKY,럭키,비,유전</t>
+  </si>
+  <si>
+    <t>도어이스케이프 신논현 블루점</t>
+  </si>
+  <si>
+    <t>TRUTH,트루스,이방인</t>
+  </si>
+  <si>
+    <t>도어이스케이프 홍대점</t>
+  </si>
+  <si>
+    <t>신기루,해결</t>
+  </si>
+  <si>
+    <t>도어이스케이프 이수역점</t>
+  </si>
+  <si>
+    <t>파라오의석실,빠삐용,검은조직,S.O.S정글,SOS정글</t>
+  </si>
+  <si>
+    <t>도어이스케이프 안산점</t>
+  </si>
+  <si>
+    <t>파라오의석실,마녀의저주,빠삐용,귀곡성,검은조직,미친의사,빅뱅</t>
+  </si>
+  <si>
+    <t>도어이스케이프 대전유성 NC백화점</t>
+  </si>
+  <si>
+    <t>나는아직도배고프G,나는아직도배고프지,도어항공 41C,서커스:THE CLEANING MAN,산타의민족,GOOD NIGHT,굿나잇,WOULD YOU FINE ME?,우쥬파인드미?</t>
+  </si>
+  <si>
+    <t>도어이스케이프 부평점</t>
+  </si>
+  <si>
+    <t>요원들은들어라,호롱,몽타주</t>
+  </si>
+  <si>
+    <t>룸즈에이 대학로점</t>
+  </si>
+  <si>
+    <t>SECRET AGENT,시크릿 에이전트,안개꽃,낭랑카페,행방불냥,GAIN TIME,게인타임</t>
+  </si>
+  <si>
+    <t>룸즈에이 안양범계점</t>
+  </si>
+  <si>
+    <t>띵가띵가,뽀득뽀득,커밍순</t>
+  </si>
+  <si>
+    <t>룸즈에이 일산 웨스턴돔점</t>
+  </si>
+  <si>
+    <t>뽀득뽀득,반짝반짝,시크릿에이전트,이상한돈가스,타임키퍼</t>
+  </si>
+  <si>
+    <t>룸즈에이 일산 라페스타점</t>
+  </si>
+  <si>
+    <t>행방불냥,낭랑카페,히어로 아카데미,안개꽃</t>
+  </si>
+  <si>
+    <t>룸즈에이 의정부점</t>
+  </si>
+  <si>
+    <t>이상한 돈가스,뽀득뽀득,반짝반짝,낭랑카페,타임키퍼</t>
+  </si>
+  <si>
+    <t>룸즈에이 수원역점</t>
+  </si>
+  <si>
+    <t>필활,띵가띵가,전작시,전지적작가시점,우당탕탕</t>
+  </si>
+  <si>
+    <t>룸즈에이 수원역2호점</t>
+  </si>
+  <si>
+    <t>호텔 캘리포니아,귀빈(손님대접),슬기로운지구생활,평화로운A마트,평화로운에이마트</t>
+  </si>
+  <si>
+    <t>룸즈에이 대전둔산점</t>
+  </si>
+  <si>
+    <t>뜻밖의여행,신의여인들,시크릿에이전트,귀빈(손님대접),7DAYS,THINKABLE,씽커블</t>
+  </si>
+  <si>
+    <t>룸즈에이 대전은행점</t>
+  </si>
+  <si>
+    <t>히어로아카데미,낭랑카페,안개꽃,기억술사</t>
+  </si>
+  <si>
+    <t>룸즈에이 부산남포점</t>
+  </si>
+  <si>
+    <t>제인하우스,안개꽃,행방불냥,시크릿에이전트,낭랑카페,초콜릿 팩토리</t>
+  </si>
+  <si>
+    <t>룸즈에이 부산서면점</t>
+  </si>
+  <si>
+    <t>요정들의술집,히어로아카데미,프레임하이커,퍼펙트플랜,너와나의이야기,아직버리지못한지갑</t>
+  </si>
+  <si>
+    <t>룸즈에이 광주수완점</t>
+  </si>
+  <si>
+    <t>요정들의술집,낭랑카페,히어로아카데미,뽀득뽀득,너와나의이야기,시크릿에이전트,방과후</t>
+  </si>
+  <si>
+    <t>룸즈에이 광주상무점</t>
+  </si>
+  <si>
+    <t>띵가띵가,이상한돈가스,뜻밖의여행,아이돌남친,그레이스호텔,커밍순,이소리저만들리나요?,전지적작가시점,멍사탕,전작시</t>
+  </si>
+  <si>
+    <t>룸즈에이 대구동성로점</t>
+  </si>
+  <si>
+    <t>뽀득뽀득,노블리스트,취중진담,반짝반짝,아이돌 남친</t>
+  </si>
+  <si>
+    <t>룸즈에이 대구동성로2호점</t>
+  </si>
+  <si>
+    <t>금 나와라 뚝딱,여우골,커밍순,띵가띵가,그레이스 호텔,아이덴티티</t>
+  </si>
+  <si>
+    <t>룸즈에이 동성로아카데미점</t>
+  </si>
+  <si>
+    <t>필활,평화로운A마트,평화로운에이마트,우당탕탕,슬기로운지구생활,명부에 점을 찍으라</t>
+  </si>
+  <si>
+    <t>룸즈에이 포항점</t>
+  </si>
+  <si>
+    <t>낭랑카페,너와나의이야기,안개꽃,시크릿에이전트</t>
+  </si>
+  <si>
+    <t>룸즈에이 부평점</t>
+  </si>
+  <si>
+    <t>아이언 게이트 프리즌,놈즈:더비기닝,미스틱클럽,THE LAST DANCE,라스트댄스</t>
+  </si>
+  <si>
+    <t>룸즈에이 부평2호점</t>
+  </si>
+  <si>
+    <t>1986 구룡,2002 주안,2025 ALEX,1982 그날의 사진사</t>
+  </si>
+  <si>
+    <t>쇼룸 404</t>
+  </si>
+  <si>
+    <t>LES PORTRAIT,HIRAETH,히라이스,레포르트레</t>
+  </si>
+  <si>
+    <t>포인트나인 건대점</t>
+  </si>
+  <si>
+    <t>JACK IN THE SHOW,잭인더쇼,잭쇼,RETURN,리턴,ALBA,알바</t>
+  </si>
+  <si>
+    <t>포인트나인 강남점</t>
+  </si>
+  <si>
+    <t>시간이멈춘마을,열쇠공의이중생활,눈먼귀금속상인의후회,주인없는낡은서점,2134</t>
+  </si>
+  <si>
+    <t>포인트나인 홍대점</t>
+  </si>
+  <si>
+    <t>SILENT,사일런트,LISTEN,리슨</t>
+  </si>
+  <si>
+    <t>황금열쇠 강남타임스퀘어점</t>
+  </si>
+  <si>
+    <t>노몬,NOMON:THE ORDEAL,섬:잊혀진이야기</t>
+  </si>
+  <si>
+    <t>황금열쇠 강남플라워로드점</t>
+  </si>
+  <si>
+    <t>BACK화점,백화점,ANOTHER,어나더</t>
+  </si>
+  <si>
+    <t>황금열쇠 대구동성로점</t>
+  </si>
+  <si>
+    <t>황금열쇠 대구동성로2호점</t>
+  </si>
+  <si>
+    <t>BAD ROB BAD,배롭배,2WAYS,투웨이즈,LAST,라스트,PILGRIM,지옥,다시너에게,HEAVEN,헤븐,냥탐정셜록캣,필그림</t>
+  </si>
+  <si>
+    <t>황금열쇠 건대점</t>
+  </si>
+  <si>
+    <t>FLASH,플래시,NOW HERE,나우히어</t>
+  </si>
+  <si>
+    <t>나의신방</t>
+  </si>
+  <si>
+    <t>프로젝트30</t>
+  </si>
+  <si>
+    <t>언더더씨,언더더마린,언더더케이브</t>
+  </si>
+  <si>
+    <t>클레버타운</t>
+  </si>
+  <si>
+    <t>상상의 문 대학로점</t>
+  </si>
+  <si>
+    <t>나이트워크,스포일러,경찰과 도둑</t>
+  </si>
+  <si>
+    <t>상상의 문 분당서현점</t>
+  </si>
+  <si>
+    <t>시크릿왕국의스캔들,HERE I AM,히얼아이엠,몽염:도망칠수없는꿈,역만,셔플월드,전당포조필두</t>
+  </si>
+  <si>
+    <t>상상의 문 홍대점</t>
+  </si>
+  <si>
+    <t>호러맨스,서울만 가면 된다,TITAN:전쟁의경계,타이탄,DIDN'T,디든트</t>
+  </si>
+  <si>
+    <t>상상의 문 광주점</t>
+  </si>
+  <si>
+    <t>영결식,시크릿 왕국의 스캔들,호러맨스,서울만 가면 된다,TITAN:전쟁의경계,타이탄</t>
+  </si>
+  <si>
+    <t>상상의 문 수원점</t>
+  </si>
+  <si>
+    <t>직박구리:남친탐구생활,복도끝,혼숨,DKDK컴퍼니,영안실,퍼펫쇼</t>
+  </si>
+  <si>
+    <t>상상의 문 수원2호점</t>
+  </si>
+  <si>
+    <t>성지기숙학원:특수교정반,낙화:떨어지는 꽃,알케이드 빌리지</t>
+  </si>
+  <si>
+    <t>상상의 문 부평점</t>
+  </si>
+  <si>
+    <t>쇼쿠진,420번지,흑신소,행복목욕탕</t>
+  </si>
+  <si>
+    <t>오아시스 뮤지엄</t>
+  </si>
+  <si>
+    <t>업사이드 다운,업사다,미씽 삭스 미스터리,미삭미,미싹미,배드타임,밷타,하이맥스,4SUM1</t>
+  </si>
+  <si>
+    <t>나비잠 1호점</t>
+  </si>
+  <si>
+    <t>나비잠 2호점</t>
+  </si>
+  <si>
+    <t>HARPY'S CANDY SHOP,하피스 캔디샵,BLIND JUSTICE,블라인드 저스티스,LOST&amp;FOUND,로스트앤파운드</t>
+  </si>
+  <si>
+    <t>꿈소풍 부천점</t>
+  </si>
+  <si>
+    <t>꿈소풍 안산1호점</t>
+  </si>
+  <si>
+    <t>꿈소풍 안산2호점</t>
+  </si>
+  <si>
+    <t>소우주</t>
+  </si>
+  <si>
+    <t>풀문,도고,마지막 유산,영포에버,방과후 추리반,여고생 살인사건,여고생 실종사건,SPIN-OFF,스핀오프</t>
+  </si>
+  <si>
+    <t>버스티드</t>
+  </si>
+  <si>
+    <t>그림도 찾아주나요?,THE END,디엔드,경성,탐정B:브레인헌터의 진실,탐정비,러브러브 퀴즈 동아리,러퀴동</t>
+  </si>
+  <si>
+    <t>이스케이프# 신사점</t>
+  </si>
+  <si>
+    <t>주희 다방,손 없는 날,판데믹,천사소녀 제티,포춘 테라피</t>
+  </si>
+  <si>
+    <t>이스케이프# 건대점</t>
+  </si>
+  <si>
+    <t>고양학개론,캠프ING,옥순양갱,철수네 슈퍼,오메가,더 라스트 노트,MR.BANG,미스터뱅,튜링테스트</t>
+  </si>
+  <si>
+    <t>매화,순백향,3318,수곡리</t>
+  </si>
+  <si>
+    <t>메타이스케이프</t>
+  </si>
+  <si>
+    <t>무저갱:사라진 사람들,에버드림,투제트,아케이드맨</t>
+  </si>
+  <si>
+    <t>둠이스케이프 1호점</t>
+  </si>
+  <si>
+    <t>나폴리탄,렌더링,기담정,인앤아웃</t>
+  </si>
+  <si>
+    <t>둠이스케이프 2호점</t>
+  </si>
+  <si>
+    <t>운명,디스토피아,죄,인바이트</t>
+  </si>
+  <si>
+    <t>둠이스케이프 DTH점</t>
+  </si>
+  <si>
+    <t>슬래셔,트리거,언리얼,스네어</t>
+  </si>
+  <si>
+    <t>라이브시네마</t>
+  </si>
+  <si>
+    <t>우정,학교,라이브시네마</t>
+  </si>
+  <si>
+    <t>매월 1일 00:00 오픈</t>
+  </si>
+  <si>
+    <t>엔터팟 1호점</t>
+  </si>
+  <si>
+    <t>비공식수사</t>
+  </si>
+  <si>
+    <t>매월 1일 18:00 오픈</t>
+  </si>
+  <si>
+    <t>엔터팟 2호점</t>
+  </si>
+  <si>
+    <t>미스터리 동네탐정,미동탐</t>
+  </si>
+  <si>
+    <t>매월 1일 20:00 오픈</t>
+  </si>
+  <si>
+    <t>룸즈에이 강남점</t>
+  </si>
+  <si>
+    <t>골든타임이스케이프 1호점</t>
+  </si>
+  <si>
+    <t>골든타임이스케이프 2호점</t>
+  </si>
+  <si>
+    <t>룸즈에이 광주수완2호점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>놈즈:더비기닝,THE LAST DANCE,더라스트댄스,아이언게이트프리즌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소우주 인계갤러리점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간의 균열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개꿀이스케이프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_T,티티,말장난감2,게임이몇개임,겜몇개,개꿀스피치센터,태훈이의방,3인적정테마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비트포비아 명동점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비트포비아 대학로점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비트포비아 신림점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비트포비아 동성로점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구룡잠들지않는도시,이런변이있나,이일호씨,잭더리퍼,지금만나러갑니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘밤주인공은나야나,기억의틈,도깨비2,드러건[배신의씨앗:의심]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEVERLAND를찾아서,네버랜드를찾아서,SEX APPEAL,섹스어필,SPLIT,스플릿,SWING GATE,스윙게이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRADE 동성로,트레이드동성로,모자가게의비밀,심야식당,쏘우,용의선상,웃는남자,잭더리퍼,테러라이브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택,더챕터,쿠키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트러블,몽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쓰여진문장속에구원이없다면,존재할자격,쥐와파시스트와마지막한 장,뱃사람의 별,쓰문구,뱃별</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잔향,아몬:새벽을여는소년,AMON,퀘스트:여정의 시작,지난날을 잊었다,미스터리,피노키오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>난너의보이,난너보,좌뇌우뇌연구소,가암성당</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아야코,투투어드벤처,괴록,AYAKO,후즈데어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두껍아두껍아헌집줄게새집다오,두꺼비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해피앤딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도넛살인사건,해피버스데이,해버데,어?계인씨!,앨리스전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채널 27 버터플라이점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사요나라세이코,붐붐박사의폭죽놀이유토피아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생존자,유명호씨의진술,동화나라수비대,빛을구해줘,빛구,MAKE-UP,메이크업,커튼콜,방탈출아카데미,방카데미,어제그리고오늘,어그오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몽환,심곡:자매자살사건,심곡자매자살사건,라미:두개의보물,마이올킬,홍주:옥비녀의비밀,다마고치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B612,시민상가철거반,시상철,키멘주에이,냥냥펀치,금GO,금고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위욜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위욜,디어마이프렌드,디마프,즐거운나의집,즐나집,히든오퍼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MY PRIVATE HEAVEN,마이프라이빗헤븐,BROOKLYN MY LOVE,브루클린마이러브,PLAN TO SAVE MY DEAR,플랜투세이브마이디어,마헤븐,브마럽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메가게임,MEGA GAME,쎄비지,SAVAGE GANGSTARS,비틀배틀,BEETLE BATTLE,GALAXY HYPRESS,갤럭시하이프레스,갤하이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀘스천마크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>룸엘이스케이프 홍대1호점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드케이 홍대점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>딥띵커</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이스케이퍼스 홍대1호점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이스케이퍼스 홍대2호점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>히든스위치 홍대점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방탈출, 둡두</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꼬레아우라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옹이의꿈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퇴근길,베니</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>룸엘이스케이프 신림점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>룸엘이스케이프 신림3호점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>METRO,메트로,아빠..어디가?,악몽,트레져헌터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FILTER,필터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이스케이퍼스 AFSC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초대:꿈꾸는아이,하찮은초능력,포타폭감옥,더벙커</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서커스:공중그네,싸이코메트리,RS의밀실,붉은머리연맹,라이브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상시예약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네모네모마믈메는무슨밀미밌멌믈까?,멍스타그램,인생낚시,만약당신이길을잃었다면,만당길,테라포밍마스,테포마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멍스타그램,웰컴투캔디샵,폰부스,돈싱크,서커스:동성극단의사정,끝까지간다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>THE LAST EPISODE:마지막화,카르마,KARMA,행복을드림니다,둡두의정석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>히든스위치,AUDREY,오드리,MISSING,미씽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드이스케이프 가로수길점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아는사이,수산업스파이,(수)산업스파이,재즈인더레인,JAZZ IN THE RAIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드이스케이프 마산점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재즈인더레인,JAZZ IN THE RAIN,상속자,싱어게인,SING AGAIN,프리즌브레이크2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스피키지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>급X,급똥,올림픽시즌2-1988</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STUDIO ESC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOS,에스오에스,그래도피망은먹기싫단말이에욧,그피망,BANK RUPT,뱅크럽,우리동네김선의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신촌성심병원,CHASER:한마음폐공장,HANNA IS FIRED,한나는해고됐어,플로이드호텔,FLOYD HOTEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>악마와싸우는자,악싸자,기억을잃은자들,사라진성물,클라바리오봉쇄수도원,기잃자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그날의함성,그함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꿈꾸는 앨리스,THE PRISON SEASON 2:브레이크,프리즌 시즌2,안산 코노,타로78</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더챕터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIG,꼬치진다,블랙홀,한라아파트 4동 404호,피그,유튜버매화선녀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넥스트에디션 분당서현점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평범한하루,테마명을뭐로할지못정하겠어요ㅠ,몽중몽,짠해,너에게가는길,익명의여자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테라스페이스 홍대점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href='https://naver.me/F0z6ANR6'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://naver.me/xNLIbPmw'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://naver.me/G4GjeB1L'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://naver.me/5fIpux7C'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://naver.me/FDnPXiO0'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://naver.me/GrmFdTpH'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://naver.me/FBe2Fubv'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://naver.me/xVGl5GCX'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://naver.me/G58gERgp'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://naver.me/xhzxnFCz'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://naver.me/xhlW1KP1'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://naver.me/xa5Rl2IV'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://naver.me/Fw7311EP'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://naver.me/F9N5tI0a'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://naver.me/5UEyu4kt'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://naver.me/5UEkbVmh'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://naver.me/5YFAZ1Zd'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://naver.me/Gxk1Gtcb'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://naver.me/xtgpdbnY'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://naver.me/FBe2kT4H'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://naver.me/5D8tUCV4'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://naver.me/F2ZkG0hQ'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://naver.me/5T4A8qTG'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://naver.me/5PVFo2un'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://naver.me/GTnuWDRM'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://naver.me/xrSQmE4m'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://naver.me/5bVsnofH'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://naver.me/xKEV9xUN'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://naver.me/x4GumZ1y'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://naver.me/5huXHZbj'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://naver.me/GzEYV9W9'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://naver.me/xcnUjHM7'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://naver.me/Gq84QBmG'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://naver.me/FlZnhH8u'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://naver.me/5hu6ub84'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://naver.me/5S9Qurwl'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://naver.me/FXwGCxVE'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://naver.me/5xjpArFx'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://naver.me/GbD3DUKL'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://naver.me/FRLvSLdJ'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://naver.me/5FmSgFOM'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://naver.me/Gip4S99q'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://naver.me/FwjwOcMi'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://naver.me/FV7VxgkU'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://naver.me/Fr7BJBEp'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://naver.me/xcn4g3Tb'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://naver.me/53lJii2a'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://naver.me/5LHs4CxM'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://naver.me/5YSvb8vM'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://naver.me/GQ1MvYQo'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://naver.me/xDJhQDFm'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://naver.me/5Eninabc'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://naver.me/57VZ2oRv'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://naver.me/5yPJqzhk'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://naver.me/5dAKHysP'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://naver.me/5owEKRF1'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://naver.me/5CFZW3oM'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://naver.me/5Q37ULvz'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://naver.me/5bVswA91'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://naver.me/xmxzvAmq'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://naver.me/5qDjHU39'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://naver.me/G1wJC8Ra'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://naver.me/GalJsgzw'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://naver.me/GQ1lYd0z'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://naver.me/FCA0aZUK'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://studioesc.co.kr/'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://xn--bb0b44mb8pfwi.kr/'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='http://dreampicnicescape.com/'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://nabijam.com/'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://xn--910bj3tlmfz4e.com/'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://www.dpsnnn.com/'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://dpsnnn-s.imweb.me/'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://doloescape.co.kr/'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://doomescape.com/'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://deepthinker.co.kr/'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://ledasquare.com/'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://www.roomlescape.com/'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://xn--h32b25mu4dba377gzscs2k.com/'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://busted.kr/'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://xdungeon.net/'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://www.xphobia.net/&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://xn--z92b74ha268d.com/'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='http://sowoojoo-escape.com/&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='http://www.signescape.com/'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://showroom404.com/'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://speakeasyescape.co.kr/'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://oasismuseum.com'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://eroom8.co.kr/'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://weyol.com/'&gt; &lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='http://www.escapers.co.kr/'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href=https://zerogangnam.com/'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://zeroesc.com'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://zerohongdae.com/'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://zerolotteworld.com'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='http://www.code-escape-garosu.com/'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://www.xn--2e0b040a4xj.com/'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://www.portraiteller.com/'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='http://www.code-escape-ms.com/'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='http://code-k.co.kr/'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://question-mark.co.kr/'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://clevertown.co.kr/'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://www.keyescape.com'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://www.rabbitholeescape.co.kr/'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://point-nine.com/'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://thefrank.co.kr/'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='http://project30.co.kr'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://happyanding.co.kr/'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='http://xn--jj0b998aq3cptw.com/'&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://playpointlab.com/&gt; &lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://www.master-key.co.kr/'&gt; &lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>어느수집가의집,AMEN,고시원살인사건,당감동정육점,부적,산장으로의초대,아멘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>티투이,갤럭시익스프레스,갤익,해줘!놈즈,오자네왔는가!,SCENE BEHIND THE SIN,씬비하인드더씬,씬비씬,로랑옥스퍼드,삼일보육원,HELLO PRAY,헬로프레이,라빈의보물상점,THE WAY OUT,더웨이아웃,하씨심부름센터,웨스턴뱅,364일,낮과밤,히든시나리오,게임의법칙,겜법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href='https://playpointlab.com/'&gt; &lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>store_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>st_esc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dh_gn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gaw_gn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gt_sw1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gt_sw2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mz_gn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mz_hd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dp_bc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dp_as1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dp_as2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nbj_ay1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nbj_ay2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui_sin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ne_gn5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ne_bnr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ne_kd1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ne_kd2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ne_bc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ne_bs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ne_sl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ne_js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dps_gn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dps_ss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the_ct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>de_gg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>de_dj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>de_bp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>de_sr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>de_sb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>de_as</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>de_ls</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>de_hd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dle_gn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dm_gw1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dm_gw2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dm_dth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dre_kd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dp_tk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>live_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lds_hd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rle_sl3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rle_sl1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rle_hd1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rex_bk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rex_ib</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rex_ov</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rex_wh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ra_gn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ra_dhr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mt_sw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dd_hd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bp_gd1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bp_gd2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bp_101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bp_dl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bp_ds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bp_sd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bp_sdr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bp_hd1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bp_hd3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sr_hd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sp_es</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>etp_d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>etp_ui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ohp_gn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wy_hd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ee_tg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ee_lc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ee_av</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch27_bf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs_he</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>csh_gn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방탈출 초상화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ck_hd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qc_mk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clv_tw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key_log1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key_log2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key_st</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key_to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key_gn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key_mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key_wl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key_hd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key_wt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pn_gn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pn_kd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pn_hd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frk_as</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pj_30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp_ad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hs_hd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href='https://naver.me/FtThdKdO'&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href='https://www.roomlescape.com/'&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bs_td</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bp_dhr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bp_dsr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bp_md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bp_sl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sm_gj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sm_dhr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sm_bp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sm_bs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sm_sw2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sm_sw1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sm_hd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swj_sw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swj_ig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>osm_hd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>er8_gn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>es_rbh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이아에그 부산서면점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이아에그 미스터리인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dia_bs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dia_mi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레드룸,닥터슈나벨,신입사원,회귀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우시마을,그래버,키키키키키,무료한하루,노키즈존,개연성,타임크루즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href='https://diaegg.com/'&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ts_hd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ts_cag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한탕,오버클럭,이세계선술집,아트갤러리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href='https://teraspace.co.kr/'&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zw_gn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zw_hd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zw_gp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zw_lt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zw_sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제로월드 서현점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상시예약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href='http://zeroworldesc.co.kr/'&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테라스페이스 아트갤러리점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key_bs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key_jj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dn_dm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덤앤더머 홍대점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오므라이스,소공녀,버킷리스트,기담,knock knock,낙낙,녹녹,마리오네뜨,휴가중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ptw_gn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ptw_kd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ptw_dj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ptw_dsr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ptw_bp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ptw_pt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ppl_gn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뱅,BANG,문앞에두고벨눌러주세요,별의별,리허설,캣츠아이,몽글숲,문두벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ppl_nw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ppl_bso</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ppl_sts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ppl_js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ppl_cd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ppl_cp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ppl_hbs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ppl_hd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mk_kd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mk_dt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mk_cj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mk_hj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mk_dgd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mk_ay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mk_deh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href='https://naver.me/xJGs1P63'&gt; &lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>se_gn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>se_ig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>se_hd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>se_sw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eps_dj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eps_dsr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이스케이퍼스 대구동성로점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eps_hd1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eps_hd2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecs_kd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecs_ss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김제월,제로호텔,탈옥,특별수용소,어느겨울밤,어겨밤,인형괴담,김인괴,성역전설,최면,복희네사진관 SE,피노키오대탈출,검은사원,해리포터의모험SE,FEAR,피어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검은집,기억상실,사계,폐쇄병동,피노키오대탈출,해리포터의모험,마법모자의위기,홈어웨이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>마스터키 궁동직영점</t>
-  </si>
-  <si>
-    <t>MSI 미제사건 전담반,재심,MK빌딩을털어라:45C6,블랙룸</t>
-  </si>
-  <si>
-    <t>싸인이스케이프 강남시티점</t>
-  </si>
-  <si>
-    <t>러너웨이,RUNAWAY,EXPRESS,익스프레스,MUST,머스트</t>
-  </si>
-  <si>
-    <t>싸인이스케이프 홍대점</t>
-  </si>
-  <si>
-    <t>거상,졸업,하이팜</t>
-  </si>
-  <si>
-    <t>싸인이스케이프 인계점</t>
-  </si>
-  <si>
-    <t>신비의베이커리,악은어디에나존재한다,트라이위저드,GATE:CCZ,NEW,뉴</t>
-  </si>
-  <si>
-    <t>싸인이스케이프 성대역점</t>
-  </si>
-  <si>
-    <t>각성,고시텔(3층),우울증,인턴,자멜신부의 비밀</t>
-  </si>
-  <si>
-    <t>지구별방탈출 대구점</t>
-  </si>
-  <si>
-    <t>잉카,우리아빠,사명:투쟁의노래,펭귄키우기,너의겨울은가고봄은온다,만월&lt;꿈을훔치는요괴&gt;,단디해라,</t>
-  </si>
-  <si>
-    <t>지구별방탈출 어드벤처점</t>
-  </si>
-  <si>
-    <t>지구별방탈출 라스트시티점</t>
-  </si>
-  <si>
-    <t>섀도우,SHADOW,스위티,스텔라,멸종위기종탐사대,멸탐대,문신,라스트코어,라코,얼론,ALONE,카부트</t>
-  </si>
-  <si>
-    <t>드림이스케이프 건대점</t>
-  </si>
-  <si>
-    <t>바야흐로여름이었다,바여름,V.E.T,VET,ALLTHEBOX PARADISE,올더박스파라다이스,DOLPHIN,돌핀</t>
-  </si>
-  <si>
-    <t>레다스퀘어 홍대점</t>
-  </si>
-  <si>
-    <t>세상의진실을마주하는일에대하여,세진마,아득히바라던타오름에대하여,아바타,사라진진실과상실에대하여,사진상</t>
-  </si>
-  <si>
-    <t>토끼굴</t>
-  </si>
-  <si>
-    <t>티켓투이스케이프</t>
-  </si>
-  <si>
-    <t>프랭크의 골동품가게</t>
-  </si>
-  <si>
-    <t>오늘의 한 페이지</t>
-  </si>
-  <si>
-    <t>오한페,버디,BUDDY,용하다용해!! 용팔도령</t>
-  </si>
-  <si>
-    <t>괴담저장소 제일기숙학원</t>
-  </si>
-  <si>
-    <t>제일기숙학원성지순례</t>
-  </si>
-  <si>
-    <t>괴담저장소 한강대 담력훈련</t>
-  </si>
-  <si>
-    <t>한강대담력훈련심야괴담회</t>
-  </si>
-  <si>
-    <t>겟어웨이 방탈출</t>
-  </si>
-  <si>
-    <t>단편선 강남</t>
-  </si>
-  <si>
-    <t>그림자없는상자,그없상,사람들은그것을행복이라부르기로 했다,사그행부</t>
-  </si>
-  <si>
-    <t>단편선 성수</t>
-  </si>
-  <si>
-    <t>도어이스케이프 강남가든점</t>
-  </si>
-  <si>
-    <t>출동,INSERT COIN,인서트코인,둘이라면,IMAGINE,이매진</t>
-  </si>
-  <si>
-    <t>도어이스케이프 신논현 레드점</t>
-  </si>
-  <si>
-    <t>LUCKY,럭키,비,유전</t>
-  </si>
-  <si>
-    <t>도어이스케이프 신논현 블루점</t>
-  </si>
-  <si>
-    <t>TRUTH,트루스,이방인</t>
-  </si>
-  <si>
-    <t>도어이스케이프 홍대점</t>
-  </si>
-  <si>
-    <t>신기루,해결</t>
-  </si>
-  <si>
-    <t>도어이스케이프 이수역점</t>
-  </si>
-  <si>
-    <t>파라오의석실,빠삐용,검은조직,S.O.S정글,SOS정글</t>
-  </si>
-  <si>
-    <t>도어이스케이프 안산점</t>
-  </si>
-  <si>
-    <t>파라오의석실,마녀의저주,빠삐용,귀곡성,검은조직,미친의사,빅뱅</t>
-  </si>
-  <si>
-    <t>도어이스케이프 대전유성 NC백화점</t>
-  </si>
-  <si>
-    <t>나는아직도배고프G,나는아직도배고프지,도어항공 41C,서커스:THE CLEANING MAN,산타의민족,GOOD NIGHT,굿나잇,WOULD YOU FINE ME?,우쥬파인드미?</t>
-  </si>
-  <si>
-    <t>도어이스케이프 부평점</t>
-  </si>
-  <si>
-    <t>요원들은들어라,호롱,몽타주</t>
-  </si>
-  <si>
-    <t>룸즈에이 대학로점</t>
-  </si>
-  <si>
-    <t>SECRET AGENT,시크릿 에이전트,안개꽃,낭랑카페,행방불냥,GAIN TIME,게인타임</t>
-  </si>
-  <si>
-    <t>룸즈에이 안양범계점</t>
-  </si>
-  <si>
-    <t>띵가띵가,뽀득뽀득,커밍순</t>
-  </si>
-  <si>
-    <t>룸즈에이 일산 웨스턴돔점</t>
-  </si>
-  <si>
-    <t>뽀득뽀득,반짝반짝,시크릿에이전트,이상한돈가스,타임키퍼</t>
-  </si>
-  <si>
-    <t>룸즈에이 일산 라페스타점</t>
-  </si>
-  <si>
-    <t>행방불냥,낭랑카페,히어로 아카데미,안개꽃</t>
-  </si>
-  <si>
-    <t>룸즈에이 의정부점</t>
-  </si>
-  <si>
-    <t>이상한 돈가스,뽀득뽀득,반짝반짝,낭랑카페,타임키퍼</t>
-  </si>
-  <si>
-    <t>룸즈에이 수원역점</t>
-  </si>
-  <si>
-    <t>필활,띵가띵가,전작시,전지적작가시점,우당탕탕</t>
-  </si>
-  <si>
-    <t>룸즈에이 수원역2호점</t>
-  </si>
-  <si>
-    <t>호텔 캘리포니아,귀빈(손님대접),슬기로운지구생활,평화로운A마트,평화로운에이마트</t>
-  </si>
-  <si>
-    <t>룸즈에이 대전둔산점</t>
-  </si>
-  <si>
-    <t>뜻밖의여행,신의여인들,시크릿에이전트,귀빈(손님대접),7DAYS,THINKABLE,씽커블</t>
-  </si>
-  <si>
-    <t>룸즈에이 대전은행점</t>
-  </si>
-  <si>
-    <t>히어로아카데미,낭랑카페,안개꽃,기억술사</t>
-  </si>
-  <si>
-    <t>룸즈에이 부산남포점</t>
-  </si>
-  <si>
-    <t>제인하우스,안개꽃,행방불냥,시크릿에이전트,낭랑카페,초콜릿 팩토리</t>
-  </si>
-  <si>
-    <t>룸즈에이 부산서면점</t>
-  </si>
-  <si>
-    <t>요정들의술집,히어로아카데미,프레임하이커,퍼펙트플랜,너와나의이야기,아직버리지못한지갑</t>
-  </si>
-  <si>
-    <t>룸즈에이 광주수완점</t>
-  </si>
-  <si>
-    <t>요정들의술집,낭랑카페,히어로아카데미,뽀득뽀득,너와나의이야기,시크릿에이전트,방과후</t>
-  </si>
-  <si>
-    <t>룸즈에이 광주상무점</t>
-  </si>
-  <si>
-    <t>띵가띵가,이상한돈가스,뜻밖의여행,아이돌남친,그레이스호텔,커밍순,이소리저만들리나요?,전지적작가시점,멍사탕,전작시</t>
-  </si>
-  <si>
-    <t>룸즈에이 대구동성로점</t>
-  </si>
-  <si>
-    <t>뽀득뽀득,노블리스트,취중진담,반짝반짝,아이돌 남친</t>
-  </si>
-  <si>
-    <t>룸즈에이 대구동성로2호점</t>
-  </si>
-  <si>
-    <t>금 나와라 뚝딱,여우골,커밍순,띵가띵가,그레이스 호텔,아이덴티티</t>
-  </si>
-  <si>
-    <t>룸즈에이 동성로아카데미점</t>
-  </si>
-  <si>
-    <t>필활,평화로운A마트,평화로운에이마트,우당탕탕,슬기로운지구생활,명부에 점을 찍으라</t>
-  </si>
-  <si>
-    <t>룸즈에이 포항점</t>
-  </si>
-  <si>
-    <t>낭랑카페,너와나의이야기,안개꽃,시크릿에이전트</t>
-  </si>
-  <si>
-    <t>룸즈에이 부평점</t>
-  </si>
-  <si>
-    <t>아이언 게이트 프리즌,놈즈:더비기닝,미스틱클럽,THE LAST DANCE,라스트댄스</t>
-  </si>
-  <si>
-    <t>룸즈에이 부평2호점</t>
-  </si>
-  <si>
-    <t>1986 구룡,2002 주안,2025 ALEX,1982 그날의 사진사</t>
-  </si>
-  <si>
-    <t>쇼룸 404</t>
-  </si>
-  <si>
-    <t>LES PORTRAIT,HIRAETH,히라이스,레포르트레</t>
-  </si>
-  <si>
-    <t>포인트나인 건대점</t>
-  </si>
-  <si>
-    <t>JACK IN THE SHOW,잭인더쇼,잭쇼,RETURN,리턴,ALBA,알바</t>
-  </si>
-  <si>
-    <t>포인트나인 강남점</t>
-  </si>
-  <si>
-    <t>시간이멈춘마을,열쇠공의이중생활,눈먼귀금속상인의후회,주인없는낡은서점,2134</t>
-  </si>
-  <si>
-    <t>포인트나인 홍대점</t>
-  </si>
-  <si>
-    <t>SILENT,사일런트,LISTEN,리슨</t>
-  </si>
-  <si>
-    <t>황금열쇠 강남타임스퀘어점</t>
-  </si>
-  <si>
-    <t>노몬,NOMON:THE ORDEAL,섬:잊혀진이야기</t>
-  </si>
-  <si>
-    <t>황금열쇠 강남플라워로드점</t>
-  </si>
-  <si>
-    <t>BACK화점,백화점,ANOTHER,어나더</t>
-  </si>
-  <si>
-    <t>황금열쇠 대구동성로점</t>
-  </si>
-  <si>
-    <t>경산,가이아기적의땅,JAIL.O,자일로,타임스틸러,X됐다,</t>
-  </si>
-  <si>
-    <t>황금열쇠 대구동성로2호점</t>
-  </si>
-  <si>
-    <t>BAD ROB BAD,배롭배,2WAYS,투웨이즈,LAST,라스트,PILGRIM,지옥,다시너에게,HEAVEN,헤븐,냥탐정셜록캣,필그림</t>
-  </si>
-  <si>
-    <t>황금열쇠 건대점</t>
-  </si>
-  <si>
-    <t>FLASH,플래시,NOW HERE,나우히어</t>
-  </si>
-  <si>
-    <t>나의신방</t>
-  </si>
-  <si>
-    <t>프로젝트30</t>
-  </si>
-  <si>
-    <t>언더더씨,언더더마린,언더더케이브</t>
-  </si>
-  <si>
-    <t>클레버타운</t>
-  </si>
-  <si>
-    <t>상상의 문 대학로점</t>
-  </si>
-  <si>
-    <t>나이트워크,스포일러,경찰과 도둑</t>
-  </si>
-  <si>
-    <t>상상의 문 분당서현점</t>
-  </si>
-  <si>
-    <t>시크릿왕국의스캔들,HERE I AM,히얼아이엠,몽염:도망칠수없는꿈,역만,셔플월드,전당포조필두</t>
-  </si>
-  <si>
-    <t>상상의 문 홍대점</t>
-  </si>
-  <si>
-    <t>호러맨스,서울만 가면 된다,TITAN:전쟁의경계,타이탄,DIDN'T,디든트</t>
-  </si>
-  <si>
-    <t>상상의 문 광주점</t>
-  </si>
-  <si>
-    <t>영결식,시크릿 왕국의 스캔들,호러맨스,서울만 가면 된다,TITAN:전쟁의경계,타이탄</t>
-  </si>
-  <si>
-    <t>상상의 문 수원점</t>
-  </si>
-  <si>
-    <t>직박구리:남친탐구생활,복도끝,혼숨,DKDK컴퍼니,영안실,퍼펫쇼</t>
-  </si>
-  <si>
-    <t>상상의 문 수원2호점</t>
-  </si>
-  <si>
-    <t>성지기숙학원:특수교정반,낙화:떨어지는 꽃,알케이드 빌리지</t>
-  </si>
-  <si>
-    <t>상상의 문 부평점</t>
-  </si>
-  <si>
-    <t>쇼쿠진,420번지,흑신소,행복목욕탕</t>
-  </si>
-  <si>
-    <t>오아시스 뮤지엄</t>
-  </si>
-  <si>
-    <t>업사이드 다운,업사다,미씽 삭스 미스터리,미삭미,미싹미,배드타임,밷타,하이맥스,4SUM1</t>
-  </si>
-  <si>
-    <t>나비잠 1호점</t>
-  </si>
-  <si>
-    <t>나비잠 2호점</t>
-  </si>
-  <si>
-    <t>HARPY'S CANDY SHOP,하피스 캔디샵,BLIND JUSTICE,블라인드 저스티스,LOST&amp;FOUND,로스트앤파운드</t>
-  </si>
-  <si>
-    <t>꿈소풍 부천점</t>
-  </si>
-  <si>
-    <t>꿈소풍 안산1호점</t>
-  </si>
-  <si>
-    <t>꿈소풍 안산2호점</t>
-  </si>
-  <si>
-    <t>소우주</t>
-  </si>
-  <si>
-    <t>풀문,도고,마지막 유산,영포에버,방과후 추리반,여고생 살인사건,여고생 실종사건,SPIN-OFF,스핀오프</t>
-  </si>
-  <si>
-    <t>버스티드</t>
-  </si>
-  <si>
-    <t>그림도 찾아주나요?,THE END,디엔드,경성,탐정B:브레인헌터의 진실,탐정비,러브러브 퀴즈 동아리,러퀴동</t>
-  </si>
-  <si>
-    <t>이스케이프# 신사점</t>
-  </si>
-  <si>
-    <t>주희 다방,손 없는 날,판데믹,천사소녀 제티,포춘 테라피</t>
-  </si>
-  <si>
-    <t>이스케이프# 건대점</t>
-  </si>
-  <si>
-    <t>고양학개론,캠프ING,옥순양갱,철수네 슈퍼,오메가,더 라스트 노트,MR.BANG,미스터뱅,튜링테스트</t>
-  </si>
-  <si>
-    <t>매화,순백향,3318,수곡리</t>
-  </si>
-  <si>
-    <t>메타이스케이프</t>
-  </si>
-  <si>
-    <t>무저갱:사라진 사람들,에버드림,투제트,아케이드맨</t>
-  </si>
-  <si>
-    <t>둠이스케이프 1호점</t>
-  </si>
-  <si>
-    <t>나폴리탄,렌더링,기담정,인앤아웃</t>
-  </si>
-  <si>
-    <t>둠이스케이프 2호점</t>
-  </si>
-  <si>
-    <t>운명,디스토피아,죄,인바이트</t>
-  </si>
-  <si>
-    <t>둠이스케이프 DTH점</t>
-  </si>
-  <si>
-    <t>슬래셔,트리거,언리얼,스네어</t>
-  </si>
-  <si>
-    <t>라이브시네마</t>
-  </si>
-  <si>
-    <t>우정,학교,라이브시네마</t>
-  </si>
-  <si>
-    <t>매월 1일 00:00 오픈</t>
-  </si>
-  <si>
-    <t>엔터팟 1호점</t>
-  </si>
-  <si>
-    <t>비공식수사</t>
-  </si>
-  <si>
-    <t>매월 1일 18:00 오픈</t>
-  </si>
-  <si>
-    <t>엔터팟 2호점</t>
-  </si>
-  <si>
-    <t>미스터리 동네탐정,미동탐</t>
-  </si>
-  <si>
-    <t>매월 1일 20:00 오픈</t>
-  </si>
-  <si>
-    <t>룸즈에이 강남점</t>
-  </si>
-  <si>
-    <t>골든타임이스케이프 1호점</t>
-  </si>
-  <si>
-    <t>골든타임이스케이프 2호점</t>
-  </si>
-  <si>
-    <t>룸즈에이 광주수완2호점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>놈즈:더비기닝,THE LAST DANCE,더라스트댄스,아이언게이트프리즌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소우주 인계갤러리점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시간의 균열</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개꿀이스케이프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_T,티티,말장난감2,게임이몇개임,겜몇개,개꿀스피치센터,태훈이의방,3인적정테마</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비트포비아 명동점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비트포비아 대학로점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비트포비아 신림점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비트포비아 동성로점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구룡잠들지않는도시,이런변이있나,이일호씨,잭더리퍼,지금만나러갑니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오늘밤주인공은나야나,기억의틈,도깨비2,드러건[배신의씨앗:의심]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NEVERLAND를찾아서,네버랜드를찾아서,SEX APPEAL,섹스어필,SPLIT,스플릿,SWING GATE,스윙게이트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TRADE 동성로,트레이드동성로,모자가게의비밀,심야식당,쏘우,용의선상,웃는남자,잭더리퍼,테러라이브</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택,더챕터,쿠키</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>트러블,몽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쓰여진문장속에구원이없다면,존재할자격,쥐와파시스트와마지막한 장,뱃사람의 별,쓰문구,뱃별</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>잔향,아몬:새벽을여는소년,AMON,퀘스트:여정의 시작,지난날을 잊었다,미스터리,피노키오</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>난너의보이,난너보,좌뇌우뇌연구소,가암성당</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아야코,투투어드벤처,괴록,AYAKO,후즈데어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>두껍아두껍아헌집줄게새집다오,두꺼비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해피앤딩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도넛살인사건,해피버스데이,해버데,어?계인씨!,앨리스전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>채널 27 버터플라이점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사요나라세이코,붐붐박사의폭죽놀이유토피아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생존자,유명호씨의진술,동화나라수비대,빛을구해줘,빛구,MAKE-UP,메이크업,커튼콜,방탈출아카데미,방카데미,어제그리고오늘,어그오</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몽환,심곡:자매자살사건,심곡자매자살사건,라미:두개의보물,마이올킬,홍주:옥비녀의비밀,다마고치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B612,시민상가철거반,시상철,키멘주에이,냥냥펀치,금GO,금고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>위욜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>위욜,디어마이프렌드,디마프,즐거운나의집,즐나집,히든오퍼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MY PRIVATE HEAVEN,마이프라이빗헤븐,BROOKLYN MY LOVE,브루클린마이러브,PLAN TO SAVE MY DEAR,플랜투세이브마이디어,마헤븐,브마럽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메가게임,MEGA GAME,쎄비지,SAVAGE GANGSTARS,비틀배틀,BEETLE BATTLE,GALAXY HYPRESS,갤럭시하이프레스,갤하이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>퀘스천마크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>룸엘이스케이프 홍대1호점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>코드케이 홍대점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>딥띵커</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이스케이퍼스 홍대1호점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이스케이퍼스 홍대2호점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>히든스위치 홍대점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방탈출, 둡두</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>꼬레아우라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>옹이의꿈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>퇴근길,베니</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>룸엘이스케이프 신림점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>룸엘이스케이프 신림3호점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>METRO,메트로,아빠..어디가?,악몽,트레져헌터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FILTER,필터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이스케이퍼스 AFSC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초대:꿈꾸는아이,하찮은초능력,포타폭감옥,더벙커</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서커스:공중그네,싸이코메트리,RS의밀실,붉은머리연맹,라이브</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상시예약</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>네모네모마믈메는무슨밀미밌멌믈까?,멍스타그램,인생낚시,만약당신이길을잃었다면,만당길,테라포밍마스,테포마</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>멍스타그램,웰컴투캔디샵,폰부스,돈싱크,서커스:동성극단의사정,끝까지간다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>THE LAST EPISODE:마지막화,카르마,KARMA,행복을드림니다,둡두의정석</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>히든스위치,AUDREY,오드리,MISSING,미씽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>코드이스케이프 가로수길점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아는사이,수산업스파이,(수)산업스파이,재즈인더레인,JAZZ IN THE RAIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>코드이스케이프 마산점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재즈인더레인,JAZZ IN THE RAIN,상속자,싱어게인,SING AGAIN,프리즌브레이크2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스피키지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>급X,급똥,올림픽시즌2-1988</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STUDIO ESC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검은마법사,하얀마법사,검마,흰마,하마</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOS,에스오에스,그래도피망은먹기싫단말이에욧,그피망,BANK RUPT,뱅크럽,우리동네김선의</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신촌성심병원,CHASER:한마음폐공장,HANNA IS FIRED,한나는해고됐어,플로이드호텔,FLOYD HOTEL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>악마와싸우는자,악싸자,기억을잃은자들,사라진성물,클라바리오봉쇄수도원,기잃자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그날의함성,그함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>꿈꾸는 앨리스,THE PRISON SEASON 2:브레이크,프리즌 시즌2,안산 코노,타로78</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>더챕터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PIG,꼬치진다,블랙홀,한라아파트 4동 404호,피그,유튜버매화선녀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>넥스트에디션 분당서현점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>평범한하루,테마명을뭐로할지못정하겠어요ㅠ,몽중몽,짠해,너에게가는길,익명의여자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테라스페이스 홍대점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/F0z6ANR6'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/xNLIbPmw'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/G4GjeB1L'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/5fIpux7C'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/FDnPXiO0'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/GrmFdTpH'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/FBe2Fubv'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/xVGl5GCX'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/G58gERgp'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/xhzxnFCz'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/xhlW1KP1'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/xa5Rl2IV'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/Fw7311EP'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/F9N5tI0a'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/5UEyu4kt'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/5UEkbVmh'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/5YFAZ1Zd'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/Gxk1Gtcb'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/xtgpdbnY'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/FBe2kT4H'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/5D8tUCV4'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/F2ZkG0hQ'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/5T4A8qTG'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/5PVFo2un'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/GTnuWDRM'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/xrSQmE4m'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/5bVsnofH'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/xKEV9xUN'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/x4GumZ1y'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/5huXHZbj'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/GzEYV9W9'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/xcnUjHM7'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/Gq84QBmG'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/FlZnhH8u'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/5hu6ub84'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/5S9Qurwl'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/FXwGCxVE'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/5xjpArFx'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/GbD3DUKL'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/FRLvSLdJ'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/5FmSgFOM'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/Gip4S99q'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/FwjwOcMi'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/FV7VxgkU'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/Fr7BJBEp'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/xcn4g3Tb'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/53lJii2a'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/5LHs4CxM'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/5YSvb8vM'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/GQ1MvYQo'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/xDJhQDFm'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/5Eninabc'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/57VZ2oRv'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/5yPJqzhk'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/5dAKHysP'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/5owEKRF1'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/5CFZW3oM'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/5Q37ULvz'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/5bVswA91'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/xmxzvAmq'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/5qDjHU39'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/G1wJC8Ra'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/GalJsgzw'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/GQ1lYd0z'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/FCA0aZUK'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://studioesc.co.kr/'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://xn--bb0b44mb8pfwi.kr/'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='http://dreampicnicescape.com/'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://nabijam.com/'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://xn--910bj3tlmfz4e.com/'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://www.dpsnnn.com/'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://dpsnnn-s.imweb.me/'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://doloescape.co.kr/'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://doomescape.com/'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://deepthinker.co.kr/'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://ledasquare.com/'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://www.roomlescape.com/'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://xn--h32b25mu4dba377gzscs2k.com/'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://busted.kr/'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://xdungeon.net/'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://www.xphobia.net/&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://xn--z92b74ha268d.com/'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='http://sowoojoo-escape.com/&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='http://www.signescape.com/'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://showroom404.com/'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://speakeasyescape.co.kr/'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://oasismuseum.com'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://eroom8.co.kr/'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://weyol.com/'&gt; &lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='http://www.escapers.co.kr/'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href=https://zerogangnam.com/'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://zeroesc.com'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://zerohongdae.com/'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://zerolotteworld.com'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='http://www.code-escape-garosu.com/'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://www.xn--2e0b040a4xj.com/'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://www.portraiteller.com/'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='http://www.code-escape-ms.com/'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='http://code-k.co.kr/'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://question-mark.co.kr/'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://clevertown.co.kr/'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://www.keyescape.com'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://www.rabbitholeescape.co.kr/'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://point-nine.com/'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://thefrank.co.kr/'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='http://project30.co.kr'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://happyanding.co.kr/'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='http://xn--jj0b998aq3cptw.com/'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://playpointlab.com/&gt; &lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://www.master-key.co.kr/'&gt; &lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>어느수집가의집,AMEN,고시원살인사건,당감동정육점,부적,산장으로의초대,아멘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>티투이,갤럭시익스프레스,갤익,해줘!놈즈,오자네왔는가!,SCENE BEHIND THE SIN,씬비하인드더씬,씬비씬,로랑옥스퍼드,삼일보육원,HELLO PRAY,헬로프레이,라빈의보물상점,THE WAY OUT,더웨이아웃,하씨심부름센터,웨스턴뱅,364일,낮과밤,히든시나리오,게임의법칙,겜법</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;a href='https://playpointlab.com/'&gt; &lt;/a&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>store_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>st_esc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dh_gn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gaw_gn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gt_sw1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gt_sw2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mz_gn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mz_hd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dp_bc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dp_as1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dp_as2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nbj_ay1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nbj_ay2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui_sin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ne_gn5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ne_bnr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ne_kd1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ne_kd2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ne_bc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ne_bs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ne_sl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ne_js</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dps_gn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dps_ss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>the_ct</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>de_gg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>de_dj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>de_bp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>de_sr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>de_sb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>de_as</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>de_ls</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>de_hd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dle_gn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dm_gw1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dm_gw2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dm_dth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dre_kd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dp_tk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>live_c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lds_hd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rle_sl3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rle_sl1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rle_hd1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rex_bk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rex_ib</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rex_ov</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rex_wh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ra_gn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ra_dhr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mt_sw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dd_hd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bp_gd1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bp_gd2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bp_101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bp_dl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bp_ds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bp_sd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bp_sdr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bp_hd1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bp_hd3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sr_hd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sp_es</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>etp_d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>etp_ui</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ohp_gn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wy_hd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ee_tg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ee_lc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ee_av</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ch27_bf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cs_he</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>csh_gn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방탈출 초상화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ck_hd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qc_mk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clv_tw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>key_log1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>key_log2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>key_st</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>key_to</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>key_gn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>key_mc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>key_mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>key_wl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>key_hd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>key_wt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pn_gn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pn_kd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pn_hd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>frk_as</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pj_30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hp_ad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hs_hd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/FtThdKdO'&gt;&lt;/a&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;a href='https://www.roomlescape.com/'&gt;&lt;/a&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bs_td</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bp_dhr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bp_dsr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bp_md</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bp_sl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sm_gj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sm_dhr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sm_bp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sm_bs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sm_sw2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sm_sw1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sm_hd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>swj_sw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>swj_ig</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>osm_hd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>er8_gn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>es_rbh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다이아에그 부산서면점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다이아에그 미스터리인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dia_bs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dia_mi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레드룸,닥터슈나벨,신입사원,회귀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우시마을,그래버,키키키키키,무료한하루,노키즈존,개연성,타임크루즈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;a href='https://diaegg.com/'&gt;&lt;/a&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ts_hd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ts_cag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한탕,오버클럭,이세계선술집,아트갤러리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;a href='https://teraspace.co.kr/'&gt;&lt;/a&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zw_gn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zw_hd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zw_gp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zw_lt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zw_sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제로월드 서현점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상시예약</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;a href='http://zeroworldesc.co.kr/'&gt;&lt;/a&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테라스페이스 아트갤러리점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>key_bs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>key_jj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dn_dm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>덤앤더머 홍대점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오므라이스,소공녀,버킷리스트,기담,knock knock,낙낙,녹녹,마리오네뜨,휴가중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ptw_gn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ptw_kd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ptw_dj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ptw_dsr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ptw_bp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ptw_pt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ppl_gn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뱅,BANG,문앞에두고벨눌러주세요,별의별,리허설,캣츠아이,몽글숲,문두벨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ppl_nw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ppl_bso</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ppl_sts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ppl_js</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ppl_cd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ppl_cp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ppl_hbs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ppl_hd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mk_kd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mk_dt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mk_cj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mk_hj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mk_dgd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mk_ay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mk_deh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/xJGs1P63'&gt; &lt;/a&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mk_sc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>se_gn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>se_ig</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>se_hd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>se_sw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eps_dj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eps_dsr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이스케이퍼스 대구동성로점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eps_hd1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eps_hd2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ecs_kd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ecs_ss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김제월,제로호텔,탈옥,특별수용소,어느겨울밤,어겨밤,인형괴담,김인괴,성역전설,최면,복희네사진관 SE,피노키오대탈출,검은사원,해리포터의모험SE,FEAR,피어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검은집,기억상실,사계,폐쇄병동,피노키오대탈출,해리포터의모험,마법모자의위기,홈어웨이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마스터키프라임 동탄점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마스터키프라임 청주점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신촌퍼플릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sc_ppl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마스터키프라임 화정점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방탈출 토끼굴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ck_gn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드케이 강남점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도둑들,504호,얼어붙은물의신전,살인사건현장,기억상실,미치광이연쇄살인범,셜록홈즈:살인누명,충무공이순신,감옥탈출,저주받은산장,좀비90일후,납치,테러리스트,기술자들,미스터리거울의방,미거방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tte_hd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cde_grs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cde_ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gk_ts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gk_fl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gk_dsr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gk_tk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gk_kd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경산,가이아기적의땅,JAIL.O,자일로,타임스틸러,X됐다,좆됐다,ㅈ됐다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검마,검은마법사,하마,흰마,하얀마법사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숨바꼭질 광주동구점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꽃배,무죄,인연,손님</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숨바꼭질 2호점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무죄2,명당,재개발구역:관계자외출입금지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숨바꼭질 3호점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종결사건,비공개모드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href='https://naver.me/5mIHh0h3'&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>러시아워 시네마틱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판타지아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간의 문 광주점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호렵:범의탈을쓴여우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href='https://naver.me/F16XN84H'&gt;&lt;/a&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2606,11 +2705,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D839462D-4719-40BB-8925-C1B9F93734CF}">
-  <dimension ref="A1:H182"/>
+  <dimension ref="A1:H190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E126" sqref="E126"/>
+      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E204" sqref="E204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2624,7 +2723,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>12</v>
@@ -2650,10 +2749,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="C2" s="3">
         <v>6</v>
@@ -2661,23 +2760,23 @@
       <c r="D2" s="5">
         <v>0</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>345</v>
+      <c r="E2" t="s">
+        <v>655</v>
       </c>
       <c r="F2" s="3">
         <v>0</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C3" s="3">
         <v>7</v>
@@ -2686,22 +2785,22 @@
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="F3" s="3">
         <v>0</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C4" s="3">
         <v>8</v>
@@ -2710,22 +2809,22 @@
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="F4" s="3">
         <v>0</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C5" s="3">
         <v>7</v>
@@ -2734,22 +2833,22 @@
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="F5" s="3">
         <v>0</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C6" s="3">
         <v>7</v>
@@ -2758,22 +2857,22 @@
         <v>0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="F6" s="3">
         <v>0</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C7" s="3">
         <v>13</v>
@@ -2782,22 +2881,22 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F7" s="3">
         <v>0</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C8" s="3">
         <v>13</v>
@@ -2806,22 +2905,22 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C9" s="3">
         <v>9</v>
@@ -2830,22 +2929,22 @@
         <v>0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C10" s="3">
         <v>9</v>
@@ -2854,22 +2953,22 @@
         <v>0</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C11" s="3">
         <v>9</v>
@@ -2878,22 +2977,22 @@
         <v>0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="F11" s="3">
         <v>0</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C12" s="3">
         <v>6</v>
@@ -2902,22 +3001,22 @@
         <v>0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="F12" s="3">
         <v>0</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C13" s="3">
         <v>6</v>
@@ -2926,22 +3025,22 @@
         <v>0</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="F13" s="3">
         <v>0</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C14" s="3">
         <v>13</v>
@@ -2950,19 +3049,19 @@
         <v>0</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>91</v>
@@ -2974,19 +3073,19 @@
         <v>0</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>86</v>
@@ -3005,12 +3104,12 @@
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>88</v>
@@ -3029,12 +3128,12 @@
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>90</v>
@@ -3046,19 +3145,19 @@
         <v>0</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>84</v>
@@ -3077,15 +3176,15 @@
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="C20" s="3">
         <v>30</v>
@@ -3094,19 +3193,19 @@
         <v>0</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>82</v>
@@ -3125,12 +3224,12 @@
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>80</v>
@@ -3149,15 +3248,15 @@
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="C23" s="3">
         <v>6</v>
@@ -3166,21 +3265,21 @@
         <v>0</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="C24" s="3">
         <v>6</v>
@@ -3189,21 +3288,21 @@
         <v>0</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C25" s="3">
         <v>6</v>
@@ -3212,22 +3311,22 @@
         <v>0</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F25" s="3">
         <v>0</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C26" s="3">
         <v>6</v>
@@ -3236,22 +3335,22 @@
         <v>0</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C27" s="3">
         <v>6</v>
@@ -3260,22 +3359,22 @@
         <v>0</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="2" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C28" s="3">
         <v>6</v>
@@ -3284,22 +3383,22 @@
         <v>0</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F28" s="3">
         <v>0</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C29" s="3">
         <v>37</v>
@@ -3308,22 +3407,22 @@
         <v>0</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C30" s="3">
         <v>6</v>
@@ -3332,22 +3431,22 @@
         <v>0</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F30" s="3">
         <v>0</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C31" s="3">
         <v>6</v>
@@ -3356,22 +3455,22 @@
         <v>0</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F31" s="3">
         <v>0</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C32" s="3">
         <v>6</v>
@@ -3380,22 +3479,22 @@
         <v>0</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C33" s="3">
         <v>37</v>
@@ -3404,22 +3503,22 @@
         <v>0</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C34" s="3">
         <v>37</v>
@@ -3428,22 +3527,22 @@
         <v>0</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F34" s="3">
         <v>0</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C35" s="3">
         <v>6</v>
@@ -3452,19 +3551,19 @@
         <v>0</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>8</v>
@@ -3483,15 +3582,15 @@
       </c>
       <c r="G36" s="1"/>
       <c r="H36" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C37" s="3">
         <v>14</v>
@@ -3500,22 +3599,22 @@
         <v>0</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="F37" s="3">
         <v>0</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C38" s="3">
         <v>15</v>
@@ -3524,22 +3623,22 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="F38" s="3">
         <v>0</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C39" s="3">
         <v>7</v>
@@ -3548,22 +3647,22 @@
         <v>0.97916666666666663</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="F39" s="3">
         <v>0</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C40" s="3">
         <v>6</v>
@@ -3572,22 +3671,22 @@
         <v>0</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F40" s="3">
         <v>0</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C41" s="1">
         <v>13</v>
@@ -3596,44 +3695,44 @@
         <v>0</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F41" s="1">
         <v>0</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="F42" s="3">
         <v>1</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C43" s="3">
         <v>7</v>
@@ -3642,22 +3741,22 @@
         <v>0.875</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="C44" s="3">
         <v>6</v>
@@ -3666,22 +3765,22 @@
         <v>0</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F44" s="3">
         <v>0</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="C45" s="3">
         <v>55</v>
@@ -3690,22 +3789,22 @@
         <v>0</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="C46" s="3">
         <v>6</v>
@@ -3714,19 +3813,19 @@
         <v>0</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>2</v>
@@ -3745,12 +3844,12 @@
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="2" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>6</v>
@@ -3769,12 +3868,12 @@
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="2" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>4</v>
@@ -3793,12 +3892,12 @@
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="2" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>0</v>
@@ -3817,15 +3916,15 @@
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="2" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C51" s="3">
         <v>7</v>
@@ -3834,18 +3933,18 @@
         <v>0</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="F51" s="3">
         <v>0</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B52" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C52" s="3">
         <v>30</v>
@@ -3854,18 +3953,18 @@
         <v>0</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B53" s="1" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C53" s="3">
         <v>30</v>
@@ -3874,18 +3973,18 @@
         <v>0</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="F53" s="3">
         <v>0</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B54" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C54" s="3">
         <v>30</v>
@@ -3894,18 +3993,18 @@
         <v>0</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F54" s="3">
         <v>0</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B55" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C55" s="3">
         <v>15</v>
@@ -3914,18 +4013,18 @@
         <v>0</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F55" s="3">
         <v>0</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B56" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C56" s="3">
         <v>15</v>
@@ -3934,18 +4033,18 @@
         <v>0</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F56" s="3">
         <v>0</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B57" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C57" s="3">
         <v>30</v>
@@ -3954,18 +4053,18 @@
         <v>0</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B58" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C58" s="3">
         <v>30</v>
@@ -3974,21 +4073,21 @@
         <v>0</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C59" s="3">
         <v>30</v>
@@ -3997,18 +4096,18 @@
         <v>0</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B60" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C60" s="3">
         <v>15</v>
@@ -4017,18 +4116,18 @@
         <v>0</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="F60" s="3">
         <v>0</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B61" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C61" s="3">
         <v>30</v>
@@ -4037,18 +4136,18 @@
         <v>0</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B62" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C62" s="3">
         <v>15</v>
@@ -4057,18 +4156,18 @@
         <v>0</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B63" s="1" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C63" s="3">
         <v>7</v>
@@ -4077,18 +4176,18 @@
         <v>0</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F63" s="3">
         <v>0</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B64" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C64" s="3">
         <v>7</v>
@@ -4097,18 +4196,18 @@
         <v>0</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F64" s="3">
         <v>0</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B65" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C65" s="3">
         <v>14</v>
@@ -4117,18 +4216,18 @@
         <v>0</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F65" s="3">
         <v>0</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B66" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C66" s="3">
         <v>30</v>
@@ -4137,18 +4236,18 @@
         <v>0</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F66" s="3">
         <v>0</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B67" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C67" s="3">
         <v>30</v>
@@ -4157,18 +4256,18 @@
         <v>0</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F67" s="3">
         <v>0</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B68" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C68" s="3">
         <v>30</v>
@@ -4177,18 +4276,18 @@
         <v>0</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="F68" s="3">
         <v>0</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B69" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C69" s="3">
         <v>30</v>
@@ -4197,18 +4296,18 @@
         <v>0</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F69" s="3">
         <v>0</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B70" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C70" s="3">
         <v>30</v>
@@ -4217,18 +4316,18 @@
         <v>0</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B71" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C71" s="3">
         <v>15</v>
@@ -4237,21 +4336,21 @@
         <v>0</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F71" s="3">
         <v>0</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C72" s="3">
         <v>7</v>
@@ -4260,22 +4359,22 @@
         <v>0</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F72" s="3">
         <v>0</v>
       </c>
       <c r="G72" s="1"/>
       <c r="H72" s="1" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>124</v>
+        <v>636</v>
       </c>
       <c r="C73" s="3">
         <v>7</v>
@@ -4284,22 +4383,22 @@
         <v>0</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F73" s="3">
         <v>0</v>
       </c>
       <c r="G73" s="1"/>
       <c r="H73" s="1" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>104</v>
+        <v>637</v>
       </c>
       <c r="C74" s="3">
         <v>7</v>
@@ -4308,22 +4407,22 @@
         <v>0</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F74" s="3">
         <v>0</v>
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="1" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C75" s="3">
         <v>7</v>
@@ -4332,22 +4431,22 @@
         <v>0</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F75" s="3">
         <v>0</v>
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="1" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C76" s="3">
         <v>7</v>
@@ -4356,22 +4455,22 @@
         <v>0</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F76" s="3">
         <v>0</v>
       </c>
       <c r="G76" s="1"/>
       <c r="H76" s="1" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>108</v>
+        <v>638</v>
       </c>
       <c r="C77" s="3">
         <v>7</v>
@@ -4380,22 +4479,22 @@
         <v>0</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F77" s="3">
         <v>0</v>
       </c>
       <c r="G77" s="1"/>
       <c r="H77" s="1" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="2" t="s">
-        <v>631</v>
+      <c r="A78" t="s">
+        <v>640</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>100</v>
+        <v>639</v>
       </c>
       <c r="C78" s="3">
         <v>7</v>
@@ -4404,22 +4503,22 @@
         <v>0</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F78" s="3">
         <v>0</v>
       </c>
       <c r="G78" s="1"/>
       <c r="H78" s="1" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>110</v>
+        <v>641</v>
       </c>
       <c r="C79" s="3">
         <v>7</v>
@@ -4428,22 +4527,22 @@
         <v>0</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F79" s="3">
         <v>0</v>
       </c>
       <c r="G79" s="1"/>
       <c r="H79" s="1" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C80" s="3">
         <v>6</v>
@@ -4452,22 +4551,22 @@
         <v>0</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="F80" s="3">
         <v>0</v>
       </c>
       <c r="G80" s="1"/>
       <c r="H80" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="C81" s="3">
         <v>7</v>
@@ -4476,22 +4575,22 @@
         <v>0</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F81" s="3">
         <v>0</v>
       </c>
       <c r="G81" s="1"/>
       <c r="H81" s="1" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="C82" s="1">
         <v>76</v>
@@ -4500,20 +4599,20 @@
         <v>0</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C83" s="3">
         <v>14</v>
@@ -4522,19 +4621,19 @@
         <v>0</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
       </c>
       <c r="G83" s="1"/>
       <c r="H83" s="1" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>48</v>
@@ -4553,12 +4652,12 @@
       </c>
       <c r="G84" s="1"/>
       <c r="H84" s="2" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>50</v>
@@ -4577,15 +4676,15 @@
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="2" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C86" s="3">
         <v>6</v>
@@ -4594,19 +4693,19 @@
         <v>0</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="F86" s="3">
         <v>0</v>
       </c>
       <c r="G86" s="1"/>
       <c r="H86" s="2" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>44</v>
@@ -4625,12 +4724,12 @@
       </c>
       <c r="G87" s="1"/>
       <c r="H87" s="2" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>52</v>
@@ -4649,12 +4748,12 @@
       </c>
       <c r="G88" s="1"/>
       <c r="H88" s="2" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>54</v>
@@ -4673,15 +4772,15 @@
       </c>
       <c r="G89" s="1"/>
       <c r="H89" s="2" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="C90" s="3">
         <v>6</v>
@@ -4690,22 +4789,22 @@
         <v>0</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="F90" s="3">
         <v>0</v>
       </c>
       <c r="G90" s="1"/>
       <c r="H90" s="2" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C91" s="3">
         <v>6</v>
@@ -4714,19 +4813,19 @@
         <v>0</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
       <c r="G91" s="1"/>
       <c r="H91" s="2" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>56</v>
@@ -4745,12 +4844,12 @@
       </c>
       <c r="G92" s="1"/>
       <c r="H92" s="2" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>58</v>
@@ -4762,22 +4861,22 @@
         <v>0.875</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="F93" s="3">
         <v>0</v>
       </c>
       <c r="G93" s="1"/>
       <c r="H93" s="2" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C94" s="3">
         <v>6</v>
@@ -4786,19 +4885,19 @@
         <v>0</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
       <c r="G94" s="1"/>
       <c r="H94" s="2" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>42</v>
@@ -4817,12 +4916,12 @@
       </c>
       <c r="G95" s="1"/>
       <c r="H95" s="2" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>46</v>
@@ -4841,15 +4940,15 @@
       </c>
       <c r="G96" s="1"/>
       <c r="H96" s="2" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C97" s="3">
         <v>6</v>
@@ -4858,22 +4957,22 @@
         <v>0</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="F97" s="3">
         <v>0</v>
       </c>
       <c r="G97" s="1"/>
       <c r="H97" s="1" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C98" s="3">
         <v>6</v>
@@ -4882,22 +4981,22 @@
         <v>0</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="F98" s="3">
         <v>0</v>
       </c>
       <c r="G98" s="1"/>
       <c r="H98" s="1" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C99" s="3">
         <v>6</v>
@@ -4906,22 +5005,22 @@
         <v>0</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="F99" s="3">
         <v>0</v>
       </c>
       <c r="G99" s="1"/>
       <c r="H99" s="1" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="C100" s="3">
         <v>6</v>
@@ -4930,22 +5029,22 @@
         <v>0</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="1"/>
       <c r="H100" s="1" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C101" s="3">
         <v>6</v>
@@ -4954,22 +5053,22 @@
         <v>0</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
       <c r="G101" s="1"/>
       <c r="H101" s="1" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C102" s="3">
         <v>6</v>
@@ -4978,22 +5077,22 @@
         <v>0</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
       <c r="G102" s="1"/>
       <c r="H102" s="1" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C103" s="3">
         <v>6</v>
@@ -5002,22 +5101,22 @@
         <v>0</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="F103" s="3">
         <v>0</v>
       </c>
       <c r="G103" s="1"/>
       <c r="H103" s="1" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C104" s="3">
         <v>6</v>
@@ -5026,22 +5125,22 @@
         <v>0</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="F104" s="3">
         <v>0</v>
       </c>
       <c r="G104" s="1"/>
       <c r="H104" s="1" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C105" s="3">
         <v>6</v>
@@ -5050,22 +5149,22 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="F105" s="3">
         <v>0</v>
       </c>
       <c r="G105" s="1"/>
       <c r="H105" s="1" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C106" s="3">
         <v>13</v>
@@ -5074,22 +5173,22 @@
         <v>0</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="F106" s="3">
         <v>0</v>
       </c>
       <c r="G106" s="1"/>
       <c r="H106" s="1" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="C107" s="3">
         <v>13</v>
@@ -5098,22 +5197,22 @@
         <v>0</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="F107" s="3">
         <v>0</v>
       </c>
       <c r="G107" s="1"/>
       <c r="H107" s="1" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C108" s="3">
         <v>6</v>
@@ -5122,22 +5221,22 @@
         <v>0</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F108" s="3">
         <v>0</v>
       </c>
       <c r="G108" s="1"/>
       <c r="H108" s="1" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C109" s="3">
         <v>30</v>
@@ -5146,22 +5245,22 @@
         <v>0</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F109" s="3">
         <v>0</v>
       </c>
       <c r="G109" s="1"/>
       <c r="H109" s="1" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C110" s="3">
         <v>10</v>
@@ -5170,22 +5269,22 @@
         <v>0</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F110" s="3">
         <v>0</v>
       </c>
       <c r="G110" s="1"/>
       <c r="H110" s="1" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C111" s="3">
         <v>10</v>
@@ -5194,66 +5293,66 @@
         <v>0</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F111" s="3">
         <v>0</v>
       </c>
       <c r="G111" s="1"/>
       <c r="H111" s="1" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="F112" s="3">
         <v>1</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="F113" s="3">
         <v>1</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C114" s="3">
         <v>7</v>
@@ -5262,22 +5361,22 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F114" s="3">
         <v>0</v>
       </c>
       <c r="G114" s="1"/>
       <c r="H114" s="1" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C115" s="3">
         <v>6</v>
@@ -5286,22 +5385,22 @@
         <v>0</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="F115" s="3">
         <v>0</v>
       </c>
       <c r="G115" s="1"/>
       <c r="H115" s="1" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C116" s="3">
         <v>6</v>
@@ -5310,19 +5409,19 @@
         <v>0</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="F116" s="3">
         <v>0</v>
       </c>
       <c r="G116" s="1"/>
       <c r="H116" s="1" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>78</v>
@@ -5341,15 +5440,15 @@
       </c>
       <c r="G117" s="1"/>
       <c r="H117" s="2" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="C118" s="1">
         <v>14</v>
@@ -5358,88 +5457,88 @@
         <v>0</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="F118" s="1">
         <v>0</v>
       </c>
       <c r="G118" s="1"/>
       <c r="H118" s="1" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="C119" s="1"/>
       <c r="D119" s="5"/>
       <c r="E119" s="1" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="F119" s="1">
         <v>1</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="F120" s="1">
         <v>1</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="F121" s="1">
         <v>1</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C122" s="3">
         <v>6</v>
@@ -5448,22 +5547,22 @@
         <v>0</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F122" s="3">
         <v>0</v>
       </c>
       <c r="G122" s="1"/>
       <c r="H122" s="1" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C123" s="3">
         <v>29</v>
@@ -5472,19 +5571,19 @@
         <v>0</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="F123" s="3">
         <v>0</v>
       </c>
       <c r="G123" s="1"/>
       <c r="H123" s="2" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>59</v>
@@ -5503,12 +5602,12 @@
       </c>
       <c r="G124" s="1"/>
       <c r="H124" s="2" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>63</v>
@@ -5520,39 +5619,39 @@
         <v>0</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="F125" s="3">
         <v>0</v>
       </c>
       <c r="G125" s="1"/>
       <c r="H125" s="2" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="F126" s="3">
         <v>1</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>61</v>
@@ -5571,12 +5670,12 @@
       </c>
       <c r="G127" s="1"/>
       <c r="H127" s="2" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>64</v>
@@ -5595,15 +5694,15 @@
       </c>
       <c r="G128" s="1"/>
       <c r="H128" s="2" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C129" s="3">
         <v>14</v>
@@ -5612,22 +5711,22 @@
         <v>0</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F129" s="3">
         <v>0</v>
       </c>
       <c r="G129" s="1"/>
       <c r="H129" s="1" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C130" s="3">
         <v>7</v>
@@ -5636,22 +5735,22 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F130" s="3">
         <v>0</v>
       </c>
       <c r="G130" s="1"/>
       <c r="H130" s="1" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C131" s="3">
         <v>7</v>
@@ -5660,22 +5759,22 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F131" s="3">
         <v>0</v>
       </c>
       <c r="G131" s="1"/>
       <c r="H131" s="1" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C132" s="3">
         <v>7</v>
@@ -5684,19 +5783,19 @@
         <v>0.875</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="F132" s="3">
         <v>0</v>
       </c>
       <c r="G132" s="1"/>
       <c r="H132" s="1" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>10</v>
@@ -5715,12 +5814,15 @@
       </c>
       <c r="G133" s="1"/>
       <c r="H133" s="2" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>647</v>
+      </c>
       <c r="B134" s="1" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C134" s="3">
         <v>13</v>
@@ -5729,19 +5831,22 @@
         <v>0</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="F134" s="3">
         <v>0</v>
       </c>
       <c r="G134" s="1"/>
       <c r="H134" s="1" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>648</v>
+      </c>
       <c r="B135" s="1" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C135" s="3">
         <v>45</v>
@@ -5750,22 +5855,22 @@
         <v>0</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="F135" s="3">
         <v>0</v>
       </c>
       <c r="G135" s="1"/>
       <c r="H135" s="1" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>543</v>
+        <v>643</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>317</v>
+        <v>644</v>
       </c>
       <c r="C136" s="3">
         <v>30</v>
@@ -5774,94 +5879,94 @@
         <v>0</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>323</v>
+        <v>645</v>
       </c>
       <c r="F136" s="3">
         <v>0</v>
       </c>
       <c r="G136" s="1"/>
       <c r="H136" s="1" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C137" s="3">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D137" s="5">
-        <v>0.91666666666666663</v>
+        <v>0</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F137" s="3">
         <v>0</v>
       </c>
       <c r="G137" s="1"/>
       <c r="H137" s="1" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>231</v>
+        <v>308</v>
       </c>
       <c r="C138" s="3">
         <v>7</v>
       </c>
-      <c r="D138" s="4">
-        <v>0</v>
+      <c r="D138" s="5">
+        <v>0.91666666666666663</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="F138" s="3">
         <v>0</v>
       </c>
       <c r="G138" s="1"/>
       <c r="H138" s="1" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
-        <v>546</v>
+      <c r="A139" s="2" t="s">
+        <v>537</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>26</v>
+        <v>224</v>
       </c>
       <c r="C139" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D139" s="4">
-        <v>0.41666666666666669</v>
+        <v>0</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>27</v>
+        <v>294</v>
       </c>
       <c r="F139" s="3">
         <v>0</v>
       </c>
       <c r="G139" s="1"/>
-      <c r="H139" s="2" t="s">
-        <v>457</v>
+      <c r="H139" s="1" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C140" s="3">
         <v>6</v>
@@ -5870,378 +5975,381 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F140" s="3">
         <v>0</v>
       </c>
       <c r="G140" s="1"/>
       <c r="H140" s="2" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C141" s="3">
         <v>6</v>
       </c>
       <c r="D141" s="4">
-        <v>0.47916666666666669</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F141" s="3">
         <v>0</v>
       </c>
       <c r="G141" s="1"/>
       <c r="H141" s="2" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C142" s="3">
         <v>6</v>
       </c>
       <c r="D142" s="4">
-        <v>0.41666666666666669</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F142" s="3">
         <v>0</v>
       </c>
       <c r="G142" s="1"/>
       <c r="H142" s="2" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C143" s="3">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D143" s="4">
-        <v>0.75</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F143" s="3">
         <v>0</v>
       </c>
       <c r="G143" s="1"/>
       <c r="H143" s="2" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C144" s="3">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D144" s="4">
-        <v>0.4375</v>
+        <v>0.75</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F144" s="3">
         <v>0</v>
       </c>
       <c r="G144" s="1"/>
       <c r="H144" s="2" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C145" s="3">
         <v>6</v>
       </c>
       <c r="D145" s="4">
-        <v>0.5625</v>
+        <v>0.4375</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F145" s="3">
         <v>0</v>
       </c>
       <c r="G145" s="1"/>
       <c r="H145" s="2" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A146" s="2" t="s">
-        <v>602</v>
+      <c r="A146" t="s">
+        <v>544</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C146" s="3">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D146" s="4">
-        <v>0.75</v>
+        <v>0.5625</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="F146" s="3">
         <v>0</v>
       </c>
       <c r="G146" s="1"/>
       <c r="H146" s="2" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
-        <v>553</v>
+      <c r="A147" s="2" t="s">
+        <v>594</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C147" s="3">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D147" s="4">
-        <v>0.41666666666666669</v>
+        <v>0.75</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F147" s="3">
         <v>0</v>
       </c>
       <c r="G147" s="1"/>
       <c r="H147" s="2" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A148" s="2" t="s">
-        <v>603</v>
+      <c r="A148" t="s">
+        <v>545</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C148" s="3">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D148" s="4">
-        <v>0.75</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F148" s="3">
         <v>0</v>
       </c>
       <c r="G148" s="1"/>
       <c r="H148" s="2" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
-        <v>554</v>
+      <c r="A149" s="2" t="s">
+        <v>595</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C149" s="3">
         <v>13</v>
       </c>
       <c r="D149" s="4">
-        <v>0.83333333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F149" s="3">
         <v>0</v>
       </c>
       <c r="G149" s="1"/>
       <c r="H149" s="2" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C150" s="3">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D150" s="4">
-        <v>0.45833333333333331</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>302</v>
+        <v>37</v>
       </c>
       <c r="F150" s="3">
         <v>0</v>
       </c>
       <c r="G150" s="1"/>
       <c r="H150" s="2" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A151" s="2" t="s">
-        <v>590</v>
+      <c r="A151" t="s">
+        <v>547</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>601</v>
+        <v>23</v>
       </c>
       <c r="C151" s="3">
-        <v>8</v>
-      </c>
-      <c r="D151" s="6">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="D151" s="4">
+        <v>0.45833333333333331</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>591</v>
+        <v>295</v>
       </c>
       <c r="F151" s="3">
         <v>0</v>
       </c>
-      <c r="H151" s="1" t="s">
-        <v>592</v>
+      <c r="G151" s="1"/>
+      <c r="H151" s="2" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>355</v>
+        <v>593</v>
       </c>
       <c r="C152" s="3">
-        <v>7</v>
-      </c>
-      <c r="D152" s="4">
+        <v>8</v>
+      </c>
+      <c r="D152" s="6">
         <v>0</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>96</v>
+        <v>583</v>
       </c>
       <c r="F152" s="3">
         <v>0</v>
       </c>
-      <c r="G152" s="1"/>
       <c r="H152" s="1" t="s">
-        <v>465</v>
+        <v>584</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
+      <c r="A153" s="2" t="s">
         <v>581</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>143</v>
+        <v>347</v>
       </c>
       <c r="C153" s="3">
         <v>7</v>
       </c>
       <c r="D153" s="4">
-        <v>0.95833333333333337</v>
+        <v>0</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>303</v>
+        <v>96</v>
       </c>
       <c r="F153" s="3">
         <v>0</v>
       </c>
       <c r="G153" s="1"/>
       <c r="H153" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>573</v>
+      </c>
       <c r="B154" s="1" t="s">
-        <v>144</v>
+        <v>642</v>
       </c>
       <c r="C154" s="3">
         <v>7</v>
       </c>
       <c r="D154" s="4">
-        <v>0</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>467</v>
+        <v>296</v>
       </c>
       <c r="F154" s="3">
         <v>0</v>
       </c>
       <c r="G154" s="1"/>
       <c r="H154" s="1" t="s">
-        <v>412</v>
+        <v>450</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
-        <v>556</v>
+      <c r="A155" s="2" t="s">
+        <v>646</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>214</v>
+        <v>138</v>
       </c>
       <c r="C155" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D155" s="4">
         <v>0</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>215</v>
+        <v>459</v>
       </c>
       <c r="F155" s="3">
         <v>0</v>
       </c>
       <c r="G155" s="1"/>
       <c r="H155" s="1" t="s">
-        <v>459</v>
+        <v>404</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C156" s="3">
         <v>6</v>
@@ -6250,22 +6358,22 @@
         <v>0</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F156" s="3">
         <v>0</v>
       </c>
       <c r="G156" s="1"/>
       <c r="H156" s="1" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="C157" s="3">
         <v>6</v>
@@ -6274,142 +6382,142 @@
         <v>0</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="F157" s="3">
         <v>0</v>
       </c>
       <c r="G157" s="1"/>
       <c r="H157" s="1" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>145</v>
+        <v>210</v>
       </c>
       <c r="C158" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D158" s="4">
-        <v>0.97916666666666663</v>
+        <v>0</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>313</v>
+        <v>211</v>
       </c>
       <c r="F158" s="3">
         <v>0</v>
       </c>
       <c r="G158" s="1"/>
       <c r="H158" s="1" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>229</v>
+        <v>139</v>
       </c>
       <c r="C159" s="3">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D159" s="4">
-        <v>0</v>
+        <v>0.97916666666666663</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>230</v>
+        <v>306</v>
       </c>
       <c r="F159" s="3">
         <v>0</v>
       </c>
       <c r="G159" s="1"/>
       <c r="H159" s="1" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A160" s="2" t="s">
-        <v>607</v>
+      <c r="A160" t="s">
+        <v>552</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>66</v>
+        <v>222</v>
       </c>
       <c r="C160" s="3">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D160" s="4">
         <v>0</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>67</v>
+        <v>223</v>
       </c>
       <c r="F160" s="3">
         <v>0</v>
       </c>
       <c r="G160" s="1"/>
-      <c r="H160" s="2" t="s">
-        <v>413</v>
+      <c r="H160" s="1" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C161" s="3">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D161" s="4">
         <v>0</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F161" s="3">
         <v>0</v>
       </c>
       <c r="G161" s="1"/>
       <c r="H161" s="2" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C162" s="3">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D162" s="4">
         <v>0</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F162" s="3">
         <v>0</v>
       </c>
       <c r="G162" s="1"/>
       <c r="H162" s="2" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C163" s="3">
         <v>6</v>
@@ -6418,22 +6526,22 @@
         <v>0</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F163" s="3">
         <v>0</v>
       </c>
       <c r="G163" s="1"/>
       <c r="H163" s="2" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C164" s="3">
         <v>6</v>
@@ -6442,22 +6550,22 @@
         <v>0</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F164" s="3">
         <v>0</v>
       </c>
       <c r="G164" s="1"/>
       <c r="H164" s="2" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C165" s="3">
         <v>6</v>
@@ -6466,46 +6574,46 @@
         <v>0</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F165" s="3">
         <v>0</v>
       </c>
       <c r="G165" s="1"/>
       <c r="H165" s="2" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="C166" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D166" s="4">
         <v>0</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="F166" s="3">
         <v>0</v>
       </c>
       <c r="G166" s="1"/>
-      <c r="H166" s="1" t="s">
-        <v>464</v>
+      <c r="H166" s="2" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C167" s="3">
         <v>7</v>
@@ -6514,22 +6622,22 @@
         <v>0</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F167" s="3">
         <v>0</v>
       </c>
       <c r="G167" s="1"/>
       <c r="H167" s="1" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C168" s="3">
         <v>7</v>
@@ -6538,22 +6646,22 @@
         <v>0</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="F168" s="3">
         <v>0</v>
       </c>
       <c r="G168" s="1"/>
       <c r="H168" s="1" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C169" s="3">
         <v>7</v>
@@ -6562,22 +6670,22 @@
         <v>0</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F169" s="3">
         <v>0</v>
       </c>
       <c r="G169" s="1"/>
       <c r="H169" s="1" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="C170" s="3">
         <v>7</v>
@@ -6586,22 +6694,22 @@
         <v>0</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="F170" s="3">
         <v>0</v>
       </c>
       <c r="G170" s="1"/>
       <c r="H170" s="1" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C171" s="3">
         <v>7</v>
@@ -6610,22 +6718,22 @@
         <v>0</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="F171" s="3">
         <v>0</v>
       </c>
       <c r="G171" s="1"/>
       <c r="H171" s="1" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C172" s="3">
         <v>7</v>
@@ -6634,22 +6742,22 @@
         <v>0</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F172" s="3">
         <v>0</v>
       </c>
       <c r="G172" s="1"/>
       <c r="H172" s="1" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="C173" s="3">
         <v>7</v>
@@ -6658,22 +6766,22 @@
         <v>0</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>614</v>
+        <v>111</v>
       </c>
       <c r="F173" s="3">
         <v>0</v>
       </c>
       <c r="G173" s="1"/>
       <c r="H173" s="1" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="C174" s="3">
         <v>7</v>
@@ -6682,64 +6790,70 @@
         <v>0</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>119</v>
+        <v>606</v>
       </c>
       <c r="F174" s="3">
         <v>0</v>
       </c>
       <c r="G174" s="1"/>
       <c r="H174" s="1" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
-        <v>561</v>
+      <c r="A175" s="2" t="s">
+        <v>614</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>304</v>
+        <v>114</v>
       </c>
       <c r="C175" s="3">
-        <v>13</v>
-      </c>
-      <c r="D175" s="5">
+        <v>7</v>
+      </c>
+      <c r="D175" s="4">
         <v>0</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>305</v>
+        <v>115</v>
       </c>
       <c r="F175" s="3">
         <v>0</v>
       </c>
       <c r="G175" s="1"/>
       <c r="H175" s="1" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>553</v>
+      </c>
       <c r="B176" s="1" t="s">
-        <v>218</v>
+        <v>297</v>
       </c>
       <c r="C176" s="3">
-        <v>6</v>
-      </c>
-      <c r="D176" s="4">
+        <v>13</v>
+      </c>
+      <c r="D176" s="5">
         <v>0</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>219</v>
+        <v>298</v>
       </c>
       <c r="F176" s="3">
         <v>0</v>
       </c>
       <c r="G176" s="1"/>
       <c r="H176" s="1" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>649</v>
+      </c>
       <c r="B177" s="1" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C177" s="3">
         <v>6</v>
@@ -6748,19 +6862,22 @@
         <v>0</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="F177" s="3">
         <v>0</v>
       </c>
       <c r="G177" s="1"/>
       <c r="H177" s="1" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>650</v>
+      </c>
       <c r="B178" s="1" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="C178" s="3">
         <v>6</v>
@@ -6769,19 +6886,22 @@
         <v>0</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="F178" s="3">
         <v>0</v>
       </c>
       <c r="G178" s="1"/>
       <c r="H178" s="1" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>653</v>
+      </c>
       <c r="B179" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C179" s="3">
         <v>6</v>
@@ -6790,19 +6910,22 @@
         <v>0</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F179" s="3">
         <v>0</v>
       </c>
       <c r="G179" s="1"/>
       <c r="H179" s="1" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>652</v>
+      </c>
       <c r="B180" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C180" s="3">
         <v>6</v>
@@ -6811,52 +6934,141 @@
         <v>0</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F180" s="3">
         <v>0</v>
       </c>
       <c r="G180" s="1"/>
       <c r="H180" s="1" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>562</v>
+        <v>651</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="C181" s="1"/>
-      <c r="D181" s="1"/>
+        <v>216</v>
+      </c>
+      <c r="C181" s="3">
+        <v>6</v>
+      </c>
+      <c r="D181" s="4">
+        <v>0</v>
+      </c>
       <c r="E181" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="F181" s="1">
+        <v>654</v>
+      </c>
+      <c r="F181" s="3">
+        <v>0</v>
+      </c>
+      <c r="G181" s="1"/>
+      <c r="H181" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>554</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C182" s="1"/>
+      <c r="D182" s="1"/>
+      <c r="E182" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="F182" s="1">
         <v>1</v>
       </c>
-      <c r="G181" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H181" s="1" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A182" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>606</v>
+      <c r="G182" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="H182" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A183" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B184" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="F184" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B185" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="F185" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B186" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="F186" s="2">
+        <v>0</v>
+      </c>
+      <c r="H186" s="2" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B187" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="F187" s="2">
+        <v>0</v>
+      </c>
+      <c r="H187" s="2" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B188" s="1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B189" s="1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B190" s="1" t="s">
+        <v>665</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H181">
-    <sortCondition ref="B2:B181"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H182">
+    <sortCondition ref="B2:B182"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/stores.xlsx
+++ b/stores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YUMIN\Desktop\B0KT2A_RSVN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F9FF0C-02A4-4DD6-B7E9-96988D62D400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6BE3F6-46D8-42EB-BD35-225F9BA9E55E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ABFC3117-FCCB-4FF3-804A-FE19451A2004}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="672">
   <si>
     <t>룸익스케이프 WHITE</t>
   </si>
@@ -1152,336 +1152,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;a href='https://naver.me/F0z6ANR6'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/xNLIbPmw'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/G4GjeB1L'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/5fIpux7C'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/FDnPXiO0'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/GrmFdTpH'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/FBe2Fubv'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/xVGl5GCX'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/G58gERgp'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/xhzxnFCz'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/xhlW1KP1'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/xa5Rl2IV'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/Fw7311EP'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/F9N5tI0a'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/5UEyu4kt'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/5UEkbVmh'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/5YFAZ1Zd'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/Gxk1Gtcb'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/xtgpdbnY'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/FBe2kT4H'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/5D8tUCV4'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/F2ZkG0hQ'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/5T4A8qTG'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/5PVFo2un'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/GTnuWDRM'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/xrSQmE4m'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/5bVsnofH'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/xKEV9xUN'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/x4GumZ1y'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/5huXHZbj'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/GzEYV9W9'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/xcnUjHM7'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/Gq84QBmG'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/FlZnhH8u'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/5hu6ub84'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/5S9Qurwl'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/FXwGCxVE'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/5xjpArFx'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/GbD3DUKL'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/FRLvSLdJ'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/5FmSgFOM'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/Gip4S99q'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/FwjwOcMi'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/FV7VxgkU'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/Fr7BJBEp'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/xcn4g3Tb'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/53lJii2a'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/5LHs4CxM'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/5YSvb8vM'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/GQ1MvYQo'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/xDJhQDFm'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/5Eninabc'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/57VZ2oRv'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/5yPJqzhk'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/5dAKHysP'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/5owEKRF1'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/5CFZW3oM'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/5Q37ULvz'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/5bVswA91'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/xmxzvAmq'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/5qDjHU39'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/G1wJC8Ra'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/GalJsgzw'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/GQ1lYd0z'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://naver.me/FCA0aZUK'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://studioesc.co.kr/'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://xn--bb0b44mb8pfwi.kr/'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='http://dreampicnicescape.com/'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://nabijam.com/'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://xn--910bj3tlmfz4e.com/'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://www.dpsnnn.com/'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://dpsnnn-s.imweb.me/'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://doloescape.co.kr/'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://doomescape.com/'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://deepthinker.co.kr/'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://ledasquare.com/'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://www.roomlescape.com/'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://xn--h32b25mu4dba377gzscs2k.com/'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://busted.kr/'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://xdungeon.net/'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://www.xphobia.net/&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://xn--z92b74ha268d.com/'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='http://sowoojoo-escape.com/&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='http://www.signescape.com/'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://showroom404.com/'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://speakeasyescape.co.kr/'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://oasismuseum.com'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://eroom8.co.kr/'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://weyol.com/'&gt; &lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='http://www.escapers.co.kr/'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href=https://zerogangnam.com/'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://zeroesc.com'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://zerohongdae.com/'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://zerolotteworld.com'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='http://www.code-escape-garosu.com/'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://www.xn--2e0b040a4xj.com/'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://www.portraiteller.com/'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='http://www.code-escape-ms.com/'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='http://code-k.co.kr/'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://question-mark.co.kr/'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://clevertown.co.kr/'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://www.keyescape.com'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://www.rabbitholeescape.co.kr/'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://point-nine.com/'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://thefrank.co.kr/'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='http://project30.co.kr'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://happyanding.co.kr/'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='http://xn--jj0b998aq3cptw.com/'&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://playpointlab.com/&gt; &lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://www.master-key.co.kr/'&gt; &lt;/a&gt;</t>
-  </si>
-  <si>
     <t>어느수집가의집,AMEN,고시원살인사건,당감동정육점,부적,산장으로의초대,아멘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1490,10 +1160,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;a href='https://playpointlab.com/'&gt; &lt;/a&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>store_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1870,14 +1536,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;a href='https://naver.me/FtThdKdO'&gt;&lt;/a&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;a href='https://www.roomlescape.com/'&gt;&lt;/a&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bs_td</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1970,10 +1628,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;a href='https://diaegg.com/'&gt;&lt;/a&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ts_hd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1986,10 +1640,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;a href='https://teraspace.co.kr/'&gt;&lt;/a&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>zw_gn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2018,10 +1668,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;a href='http://zeroworldesc.co.kr/'&gt;&lt;/a&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>테라스페이스 아트갤러리점</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2138,10 +1784,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;a href='https://naver.me/xJGs1P63'&gt; &lt;/a&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>se_gn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2298,10 +1940,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;a href='https://naver.me/5mIHh0h3'&gt;&lt;/a&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>러시아워 시네마틱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2318,7 +1956,379 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;a href='https://naver.me/F16XN84H'&gt;&lt;/a&gt;</t>
+    <t>엑소더스 강남점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ed_gn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLAIM,클레임,WISH,위시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://exodusescape.co.kr/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://studioesc.co.kr/</t>
+  </si>
+  <si>
+    <t>https://naver.me/FtThdKdO</t>
+  </si>
+  <si>
+    <t>https://naver.me/F0z6ANR6</t>
+  </si>
+  <si>
+    <t>https://xn--bb0b44mb8pfwi.kr/</t>
+  </si>
+  <si>
+    <t>https://naver.me/xNLIbPmw</t>
+  </si>
+  <si>
+    <t>https://naver.me/G4GjeB1L</t>
+  </si>
+  <si>
+    <t>http://dreampicnicescape.com/</t>
+  </si>
+  <si>
+    <t>https://nabijam.com/</t>
+  </si>
+  <si>
+    <t>https://xn--910bj3tlmfz4e.com/</t>
+  </si>
+  <si>
+    <t>https://naver.me/5fIpux7C</t>
+  </si>
+  <si>
+    <t>https://naver.me/FDnPXiO0</t>
+  </si>
+  <si>
+    <t>https://naver.me/GrmFdTpH</t>
+  </si>
+  <si>
+    <t>https://naver.me/FBe2Fubv</t>
+  </si>
+  <si>
+    <t>https://naver.me/xVGl5GCX</t>
+  </si>
+  <si>
+    <t>https://naver.me/FCA0aZUK</t>
+  </si>
+  <si>
+    <t>https://naver.me/G58gERgp</t>
+  </si>
+  <si>
+    <t>https://naver.me/xhzxnFCz</t>
+  </si>
+  <si>
+    <t>https://diaegg.com/</t>
+  </si>
+  <si>
+    <t>https://www.dpsnnn.com/</t>
+  </si>
+  <si>
+    <t>https://dpsnnn-s.imweb.me/</t>
+  </si>
+  <si>
+    <t>https://naver.me/xhlW1KP1</t>
+  </si>
+  <si>
+    <t>https://naver.me/xa5Rl2IV</t>
+  </si>
+  <si>
+    <t>https://naver.me/Fw7311EP</t>
+  </si>
+  <si>
+    <t>https://naver.me/F9N5tI0a</t>
+  </si>
+  <si>
+    <t>https://naver.me/5UEyu4kt</t>
+  </si>
+  <si>
+    <t>https://naver.me/5UEkbVmh</t>
+  </si>
+  <si>
+    <t>https://naver.me/5YFAZ1Zd</t>
+  </si>
+  <si>
+    <t>https://naver.me/Gxk1Gtcb</t>
+  </si>
+  <si>
+    <t>https://naver.me/xtgpdbnY</t>
+  </si>
+  <si>
+    <t>https://doloescape.co.kr/</t>
+  </si>
+  <si>
+    <t>https://doomescape.com/</t>
+  </si>
+  <si>
+    <t>https://naver.me/FBe2kT4H</t>
+  </si>
+  <si>
+    <t>https://deepthinker.co.kr/</t>
+  </si>
+  <si>
+    <t>https://naver.me/5D8tUCV4</t>
+  </si>
+  <si>
+    <t>https://ledasquare.com/</t>
+  </si>
+  <si>
+    <t>https://www.roomlescape.com/</t>
+  </si>
+  <si>
+    <t>https://naver.me/F2ZkG0hQ</t>
+  </si>
+  <si>
+    <t>https://naver.me/5T4A8qTG</t>
+  </si>
+  <si>
+    <t>https://naver.me/5PVFo2un</t>
+  </si>
+  <si>
+    <t>https://naver.me/GTnuWDRM</t>
+  </si>
+  <si>
+    <t>https://naver.me/xrSQmE4m</t>
+  </si>
+  <si>
+    <t>https://naver.me/5bVsnofH</t>
+  </si>
+  <si>
+    <t>https://naver.me/xKEV9xUN</t>
+  </si>
+  <si>
+    <t>https://naver.me/x4GumZ1y</t>
+  </si>
+  <si>
+    <t>https://naver.me/5huXHZbj</t>
+  </si>
+  <si>
+    <t>https://naver.me/GzEYV9W9</t>
+  </si>
+  <si>
+    <t>https://naver.me/xcnUjHM7</t>
+  </si>
+  <si>
+    <t>https://naver.me/Gq84QBmG</t>
+  </si>
+  <si>
+    <t>https://naver.me/FlZnhH8u</t>
+  </si>
+  <si>
+    <t>https://naver.me/5hu6ub84</t>
+  </si>
+  <si>
+    <t>https://naver.me/5S9Qurwl</t>
+  </si>
+  <si>
+    <t>https://naver.me/FXwGCxVE</t>
+  </si>
+  <si>
+    <t>https://naver.me/5xjpArFx</t>
+  </si>
+  <si>
+    <t>https://naver.me/GbD3DUKL</t>
+  </si>
+  <si>
+    <t>https://naver.me/FRLvSLdJ</t>
+  </si>
+  <si>
+    <t>https://naver.me/5FmSgFOM</t>
+  </si>
+  <si>
+    <t>https://naver.me/Gip4S99q</t>
+  </si>
+  <si>
+    <t>https://naver.me/FwjwOcMi</t>
+  </si>
+  <si>
+    <t>https://naver.me/FV7VxgkU</t>
+  </si>
+  <si>
+    <t>https://naver.me/Fr7BJBEp</t>
+  </si>
+  <si>
+    <t>https://naver.me/xcn4g3Tb</t>
+  </si>
+  <si>
+    <t>https://naver.me/53lJii2a</t>
+  </si>
+  <si>
+    <t>https://xn--h32b25mu4dba377gzscs2k.com/</t>
+  </si>
+  <si>
+    <t>https://www.portraiteller.com/</t>
+  </si>
+  <si>
+    <t>https://naver.me/5LHs4CxM</t>
+  </si>
+  <si>
+    <t>https://busted.kr/</t>
+  </si>
+  <si>
+    <t>https://xdungeon.net/</t>
+  </si>
+  <si>
+    <t>https://xn--z92b74ha268d.com/</t>
+  </si>
+  <si>
+    <t>https://naver.me/5YSvb8vM</t>
+  </si>
+  <si>
+    <t>https://showroom404.com/</t>
+  </si>
+  <si>
+    <t>https://speakeasyescape.co.kr/</t>
+  </si>
+  <si>
+    <t>http://www.signescape.com/</t>
+  </si>
+  <si>
+    <t>https://naver.me/GQ1MvYQo</t>
+  </si>
+  <si>
+    <t>https://naver.me/xDJhQDFm</t>
+  </si>
+  <si>
+    <t>https://oasismuseum.com</t>
+  </si>
+  <si>
+    <t>https://eroom8.co.kr/</t>
+  </si>
+  <si>
+    <t>https://naver.me/5Eninabc</t>
+  </si>
+  <si>
+    <t>http://www.escapers.co.kr/</t>
+  </si>
+  <si>
+    <t>https://naver.me/57VZ2oRv</t>
+  </si>
+  <si>
+    <t>https://naver.me/5yPJqzhk</t>
+  </si>
+  <si>
+    <t>&lt;a href=https://zerogangnam.com/</t>
+  </si>
+  <si>
+    <t>https://zeroesc.com</t>
+  </si>
+  <si>
+    <t>http://zeroworldesc.co.kr/</t>
+  </si>
+  <si>
+    <t>https://zerohongdae.com/</t>
+  </si>
+  <si>
+    <t>https://zerolotteworld.com</t>
+  </si>
+  <si>
+    <t>https://www.xn--2e0b040a4xj.com/</t>
+  </si>
+  <si>
+    <t>https://naver.me/5dAKHysP</t>
+  </si>
+  <si>
+    <t>https://naver.me/5owEKRF1</t>
+  </si>
+  <si>
+    <t>http://www.code-escape-garosu.com/</t>
+  </si>
+  <si>
+    <t>http://www.code-escape-ms.com/</t>
+  </si>
+  <si>
+    <t>http://code-k.co.kr/</t>
+  </si>
+  <si>
+    <t>https://question-mark.co.kr/</t>
+  </si>
+  <si>
+    <t>https://clevertown.co.kr/</t>
+  </si>
+  <si>
+    <t>https://www.keyescape.com</t>
+  </si>
+  <si>
+    <t>https://teraspace.co.kr/</t>
+  </si>
+  <si>
+    <t>https://www.rabbitholeescape.co.kr/</t>
+  </si>
+  <si>
+    <t>https://naver.me/5CFZW3oM</t>
+  </si>
+  <si>
+    <t>https://point-nine.com/</t>
+  </si>
+  <si>
+    <t>https://thefrank.co.kr/</t>
+  </si>
+  <si>
+    <t>http://project30.co.kr</t>
+  </si>
+  <si>
+    <t>https://naver.me/5Q37ULvz</t>
+  </si>
+  <si>
+    <t>https://naver.me/5bVswA91</t>
+  </si>
+  <si>
+    <t>https://naver.me/xmxzvAmq</t>
+  </si>
+  <si>
+    <t>https://naver.me/5qDjHU39</t>
+  </si>
+  <si>
+    <t>https://naver.me/G1wJC8Ra</t>
+  </si>
+  <si>
+    <t>https://naver.me/GalJsgzw</t>
+  </si>
+  <si>
+    <t>https://happyanding.co.kr/</t>
+  </si>
+  <si>
+    <t>http://xn--jj0b998aq3cptw.com/</t>
+  </si>
+  <si>
+    <t>https://naver.me/GQ1lYd0z</t>
+  </si>
+  <si>
+    <t>https://naver.me/F16XN84H</t>
+  </si>
+  <si>
+    <t>https://naver.me/5mIHh0h3</t>
+  </si>
+  <si>
+    <t>https://www.master-key.co.kr/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.master-key.co.kr/'</t>
+  </si>
+  <si>
+    <t>https://naver.me/xJGs1P63'</t>
+  </si>
+  <si>
+    <t>https://weyol.com/'</t>
+  </si>
+  <si>
+    <t>https://playpointlab.com/</t>
+  </si>
+  <si>
+    <t>https://playpointlab.com/'</t>
+  </si>
+  <si>
+    <t>http://sowoojoo-escape.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xphobia.net/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2326,7 +2336,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2350,6 +2360,15 @@
       <charset val="129"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2368,12 +2387,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2391,9 +2413,14 @@
     <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2705,11 +2732,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D839462D-4719-40BB-8925-C1B9F93734CF}">
-  <dimension ref="A1:H190"/>
+  <dimension ref="A1:H191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E204" sqref="E204"/>
+      <pane ySplit="1" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E193" sqref="E193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2723,7 +2750,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>461</v>
+        <v>350</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>12</v>
@@ -2749,7 +2776,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>462</v>
+        <v>351</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>337</v>
@@ -2761,19 +2788,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>655</v>
+        <v>538</v>
       </c>
       <c r="F2" s="3">
         <v>0</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>413</v>
+        <v>553</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>463</v>
+        <v>352</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>280</v>
@@ -2792,12 +2819,12 @@
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>464</v>
+        <v>353</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>146</v>
@@ -2816,12 +2843,12 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>348</v>
+        <v>555</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>465</v>
+        <v>354</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>274</v>
@@ -2840,12 +2867,12 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5" t="s">
-        <v>414</v>
+        <v>556</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>466</v>
+        <v>355</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>275</v>
@@ -2864,12 +2891,12 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" t="s">
-        <v>414</v>
+        <v>556</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>467</v>
+        <v>356</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>142</v>
@@ -2888,12 +2915,12 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>349</v>
+        <v>557</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>468</v>
+        <v>357</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>144</v>
@@ -2912,12 +2939,12 @@
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>350</v>
+        <v>558</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>469</v>
+        <v>358</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>244</v>
@@ -2936,12 +2963,12 @@
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>415</v>
+        <v>559</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>470</v>
+        <v>359</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>245</v>
@@ -2960,12 +2987,12 @@
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>415</v>
+        <v>559</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>471</v>
+        <v>360</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>246</v>
@@ -2984,12 +3011,12 @@
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>415</v>
+        <v>559</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>472</v>
+        <v>361</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>241</v>
@@ -3008,12 +3035,12 @@
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>416</v>
+        <v>560</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>473</v>
+        <v>362</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>242</v>
@@ -3032,12 +3059,12 @@
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>416</v>
+        <v>560</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>474</v>
+        <v>363</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>221</v>
@@ -3056,12 +3083,12 @@
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>417</v>
+        <v>561</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>475</v>
+        <v>364</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>91</v>
@@ -3080,12 +3107,12 @@
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>351</v>
+        <v>562</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>476</v>
+        <v>365</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>86</v>
@@ -3104,12 +3131,12 @@
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
-        <v>352</v>
+        <v>563</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>477</v>
+        <v>366</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>88</v>
@@ -3128,12 +3155,12 @@
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>353</v>
+        <v>564</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>478</v>
+        <v>367</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>90</v>
@@ -3152,12 +3179,12 @@
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>354</v>
+        <v>565</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>479</v>
+        <v>368</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>84</v>
@@ -3176,12 +3203,12 @@
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>355</v>
+        <v>566</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>480</v>
+        <v>369</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>345</v>
@@ -3200,12 +3227,12 @@
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
-        <v>412</v>
+        <v>567</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>481</v>
+        <v>370</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>82</v>
@@ -3224,12 +3251,12 @@
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>356</v>
+        <v>568</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>482</v>
+        <v>371</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>80</v>
@@ -3248,15 +3275,15 @@
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
-        <v>357</v>
+        <v>569</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>577</v>
+        <v>464</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>575</v>
+        <v>462</v>
       </c>
       <c r="C23" s="3">
         <v>6</v>
@@ -3265,21 +3292,21 @@
         <v>0</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>579</v>
+        <v>466</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>576</v>
+        <v>463</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>574</v>
+        <v>461</v>
       </c>
       <c r="C24" s="3">
         <v>6</v>
@@ -3288,18 +3315,18 @@
         <v>0</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>578</v>
+        <v>465</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>483</v>
+        <v>372</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>147</v>
@@ -3318,12 +3345,12 @@
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>418</v>
+        <v>571</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>484</v>
+        <v>373</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>149</v>
@@ -3342,12 +3369,12 @@
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
-        <v>419</v>
+        <v>572</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>485</v>
+        <v>374</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>343</v>
@@ -3366,12 +3393,12 @@
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="2" t="s">
-        <v>358</v>
+        <v>573</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>486</v>
+        <v>375</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>150</v>
@@ -3390,12 +3417,12 @@
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1" t="s">
-        <v>359</v>
+        <v>574</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>487</v>
+        <v>376</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>162</v>
@@ -3414,12 +3441,12 @@
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1" t="s">
-        <v>360</v>
+        <v>575</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>488</v>
+        <v>377</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>164</v>
@@ -3438,12 +3465,12 @@
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1" t="s">
-        <v>361</v>
+        <v>576</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>489</v>
+        <v>378</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>152</v>
@@ -3462,12 +3489,12 @@
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1" t="s">
-        <v>362</v>
+        <v>577</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>490</v>
+        <v>379</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>154</v>
@@ -3486,12 +3513,12 @@
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1" t="s">
-        <v>363</v>
+        <v>578</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>491</v>
+        <v>380</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>160</v>
@@ -3510,12 +3537,12 @@
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1" t="s">
-        <v>364</v>
+        <v>579</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>492</v>
+        <v>381</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>158</v>
@@ -3534,12 +3561,12 @@
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1" t="s">
-        <v>365</v>
+        <v>580</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>493</v>
+        <v>382</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>156</v>
@@ -3558,12 +3585,12 @@
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1" t="s">
-        <v>366</v>
+        <v>581</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>494</v>
+        <v>383</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>8</v>
@@ -3582,12 +3609,12 @@
       </c>
       <c r="G36" s="1"/>
       <c r="H36" t="s">
-        <v>420</v>
+        <v>582</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>495</v>
+        <v>384</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>258</v>
@@ -3606,12 +3633,12 @@
       </c>
       <c r="G37" s="1"/>
       <c r="H37" t="s">
-        <v>421</v>
+        <v>583</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>496</v>
+        <v>385</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>260</v>
@@ -3630,12 +3657,12 @@
       </c>
       <c r="G38" s="1"/>
       <c r="H38" t="s">
-        <v>421</v>
+        <v>583</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>497</v>
+        <v>386</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>262</v>
@@ -3654,12 +3681,12 @@
       </c>
       <c r="G39" s="1"/>
       <c r="H39" t="s">
-        <v>421</v>
+        <v>583</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>498</v>
+        <v>387</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>134</v>
@@ -3678,12 +3705,12 @@
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1" t="s">
-        <v>367</v>
+        <v>584</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>499</v>
+        <v>388</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>311</v>
@@ -3702,12 +3729,12 @@
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1" t="s">
-        <v>422</v>
+        <v>585</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>264</v>
@@ -3724,12 +3751,12 @@
         <v>266</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>368</v>
+        <v>586</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>501</v>
+        <v>390</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>136</v>
@@ -3748,12 +3775,12 @@
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1" t="s">
-        <v>423</v>
+        <v>587</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>502</v>
+        <v>391</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>320</v>
@@ -3772,12 +3799,12 @@
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1" t="s">
-        <v>556</v>
+        <v>588</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>503</v>
+        <v>392</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>319</v>
@@ -3796,12 +3823,12 @@
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1" t="s">
-        <v>369</v>
+        <v>589</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>504</v>
+        <v>393</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>309</v>
@@ -3820,12 +3847,12 @@
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1" t="s">
-        <v>424</v>
+        <v>588</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>505</v>
+        <v>394</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>2</v>
@@ -3844,12 +3871,12 @@
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="2" t="s">
-        <v>370</v>
+        <v>590</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>506</v>
+        <v>395</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>6</v>
@@ -3868,12 +3895,12 @@
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="2" t="s">
-        <v>371</v>
+        <v>591</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>507</v>
+        <v>396</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>4</v>
@@ -3892,12 +3919,12 @@
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="2" t="s">
-        <v>372</v>
+        <v>592</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>508</v>
+        <v>397</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>0</v>
@@ -3916,12 +3943,12 @@
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="2" t="s">
-        <v>373</v>
+        <v>593</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>509</v>
+        <v>398</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>273</v>
@@ -3939,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>374</v>
+        <v>594</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -3959,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>375</v>
+        <v>595</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
@@ -3979,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>376</v>
+        <v>596</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
@@ -3999,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>377</v>
+        <v>597</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
@@ -4019,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>378</v>
+        <v>598</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
@@ -4039,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>379</v>
+        <v>599</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
@@ -4059,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>380</v>
+        <v>600</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
@@ -4079,12 +4106,12 @@
         <v>0</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>381</v>
+        <v>601</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>510</v>
+        <v>399</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>166</v>
@@ -4102,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>382</v>
+        <v>602</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -4122,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>383</v>
+        <v>603</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
@@ -4142,7 +4169,7 @@
         <v>0</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>384</v>
+        <v>604</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
@@ -4162,7 +4189,7 @@
         <v>0</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>385</v>
+        <v>605</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
@@ -4182,7 +4209,7 @@
         <v>0</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>386</v>
+        <v>606</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
@@ -4202,7 +4229,7 @@
         <v>0</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>387</v>
+        <v>607</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
@@ -4222,7 +4249,7 @@
         <v>0</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>388</v>
+        <v>608</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
@@ -4242,7 +4269,7 @@
         <v>0</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>389</v>
+        <v>609</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
@@ -4262,7 +4289,7 @@
         <v>0</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>390</v>
+        <v>610</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
@@ -4282,7 +4309,7 @@
         <v>0</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>391</v>
+        <v>611</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
@@ -4302,7 +4329,7 @@
         <v>0</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>392</v>
+        <v>612</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
@@ -4322,7 +4349,7 @@
         <v>0</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>393</v>
+        <v>613</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
@@ -4342,12 +4369,12 @@
         <v>0</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>394</v>
+        <v>614</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>615</v>
+        <v>499</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>104</v>
@@ -4366,15 +4393,15 @@
       </c>
       <c r="G72" s="1"/>
       <c r="H72" s="1" t="s">
-        <v>457</v>
+        <v>665</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>619</v>
+        <v>503</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>636</v>
+        <v>519</v>
       </c>
       <c r="C73" s="3">
         <v>7</v>
@@ -4390,15 +4417,15 @@
       </c>
       <c r="G73" s="1"/>
       <c r="H73" s="1" t="s">
-        <v>457</v>
+        <v>665</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>616</v>
+        <v>500</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>637</v>
+        <v>520</v>
       </c>
       <c r="C74" s="3">
         <v>7</v>
@@ -4414,12 +4441,12 @@
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="1" t="s">
-        <v>457</v>
+        <v>665</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>620</v>
+        <v>504</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>112</v>
@@ -4438,12 +4465,12 @@
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="1" t="s">
-        <v>457</v>
+        <v>665</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>621</v>
+        <v>505</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>118</v>
@@ -4462,15 +4489,15 @@
       </c>
       <c r="G76" s="1"/>
       <c r="H76" s="1" t="s">
-        <v>457</v>
+        <v>665</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>617</v>
+        <v>501</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>638</v>
+        <v>521</v>
       </c>
       <c r="C77" s="3">
         <v>7</v>
@@ -4486,15 +4513,15 @@
       </c>
       <c r="G77" s="1"/>
       <c r="H77" s="1" t="s">
-        <v>457</v>
+        <v>665</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>640</v>
+        <v>523</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>639</v>
+        <v>522</v>
       </c>
       <c r="C78" s="3">
         <v>7</v>
@@ -4510,15 +4537,15 @@
       </c>
       <c r="G78" s="1"/>
       <c r="H78" s="1" t="s">
-        <v>622</v>
+        <v>666</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>618</v>
+        <v>502</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>641</v>
+        <v>524</v>
       </c>
       <c r="C79" s="3">
         <v>7</v>
@@ -4534,12 +4561,12 @@
       </c>
       <c r="G79" s="1"/>
       <c r="H79" s="1" t="s">
-        <v>457</v>
+        <v>665</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>511</v>
+        <v>400</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>256</v>
@@ -4558,15 +4585,15 @@
       </c>
       <c r="G80" s="1"/>
       <c r="H80" t="s">
-        <v>425</v>
+        <v>615</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>533</v>
+        <v>422</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>534</v>
+        <v>423</v>
       </c>
       <c r="C81" s="3">
         <v>7</v>
@@ -4582,12 +4609,12 @@
       </c>
       <c r="G81" s="1"/>
       <c r="H81" s="1" t="s">
-        <v>444</v>
+        <v>616</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>512</v>
+        <v>401</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>315</v>
@@ -4604,12 +4631,12 @@
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1" t="s">
-        <v>395</v>
+        <v>617</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>557</v>
+        <v>444</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>249</v>
@@ -4628,12 +4655,12 @@
       </c>
       <c r="G83" s="1"/>
       <c r="H83" s="1" t="s">
-        <v>426</v>
+        <v>618</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>513</v>
+        <v>402</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>48</v>
@@ -4652,12 +4679,12 @@
       </c>
       <c r="G84" s="1"/>
       <c r="H84" s="2" t="s">
-        <v>427</v>
+        <v>619</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>514</v>
+        <v>403</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>50</v>
@@ -4676,12 +4703,12 @@
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="2" t="s">
-        <v>427</v>
+        <v>619</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>558</v>
+        <v>445</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>283</v>
@@ -4699,13 +4726,13 @@
         <v>0</v>
       </c>
       <c r="G86" s="1"/>
-      <c r="H86" s="2" t="s">
-        <v>428</v>
+      <c r="H86" s="7" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>515</v>
+        <v>404</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>44</v>
@@ -4724,12 +4751,12 @@
       </c>
       <c r="G87" s="1"/>
       <c r="H87" s="2" t="s">
-        <v>427</v>
+        <v>619</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>516</v>
+        <v>405</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>52</v>
@@ -4748,12 +4775,12 @@
       </c>
       <c r="G88" s="1"/>
       <c r="H88" s="2" t="s">
-        <v>427</v>
+        <v>619</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>517</v>
+        <v>406</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>54</v>
@@ -4772,12 +4799,12 @@
       </c>
       <c r="G89" s="1"/>
       <c r="H89" s="2" t="s">
-        <v>427</v>
+        <v>619</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>559</v>
+        <v>446</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>285</v>
@@ -4795,13 +4822,13 @@
         <v>0</v>
       </c>
       <c r="G90" s="1"/>
-      <c r="H90" s="2" t="s">
-        <v>428</v>
+      <c r="H90" s="7" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>560</v>
+        <v>447</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>282</v>
@@ -4819,13 +4846,13 @@
         <v>0</v>
       </c>
       <c r="G91" s="1"/>
-      <c r="H91" s="2" t="s">
-        <v>428</v>
+      <c r="H91" s="7" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>518</v>
+        <v>407</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>56</v>
@@ -4844,12 +4871,12 @@
       </c>
       <c r="G92" s="1"/>
       <c r="H92" s="2" t="s">
-        <v>427</v>
+        <v>619</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>519</v>
+        <v>408</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>58</v>
@@ -4861,19 +4888,19 @@
         <v>0.875</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>458</v>
+        <v>348</v>
       </c>
       <c r="F93" s="3">
         <v>0</v>
       </c>
       <c r="G93" s="1"/>
       <c r="H93" s="2" t="s">
-        <v>427</v>
+        <v>619</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>561</v>
+        <v>448</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>284</v>
@@ -4891,13 +4918,13 @@
         <v>0</v>
       </c>
       <c r="G94" s="1"/>
-      <c r="H94" s="2" t="s">
-        <v>428</v>
+      <c r="H94" s="7" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>520</v>
+        <v>409</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>42</v>
@@ -4916,12 +4943,12 @@
       </c>
       <c r="G95" s="1"/>
       <c r="H95" s="2" t="s">
-        <v>427</v>
+        <v>619</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>521</v>
+        <v>410</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>46</v>
@@ -4940,12 +4967,12 @@
       </c>
       <c r="G96" s="1"/>
       <c r="H96" s="2" t="s">
-        <v>427</v>
+        <v>619</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>562</v>
+        <v>449</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>231</v>
@@ -4964,12 +4991,12 @@
       </c>
       <c r="G97" s="1"/>
       <c r="H97" s="1" t="s">
-        <v>429</v>
+        <v>620</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>563</v>
+        <v>450</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>225</v>
@@ -4988,12 +5015,12 @@
       </c>
       <c r="G98" s="1"/>
       <c r="H98" s="1" t="s">
-        <v>429</v>
+        <v>620</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>564</v>
+        <v>451</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>237</v>
@@ -5012,12 +5039,12 @@
       </c>
       <c r="G99" s="1"/>
       <c r="H99" s="1" t="s">
-        <v>429</v>
+        <v>620</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>565</v>
+        <v>452</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>227</v>
@@ -5036,12 +5063,12 @@
       </c>
       <c r="G100" s="1"/>
       <c r="H100" s="1" t="s">
-        <v>429</v>
+        <v>620</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>566</v>
+        <v>453</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>235</v>
@@ -5060,12 +5087,12 @@
       </c>
       <c r="G101" s="1"/>
       <c r="H101" s="1" t="s">
-        <v>429</v>
+        <v>620</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>567</v>
+        <v>454</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>233</v>
@@ -5084,12 +5111,12 @@
       </c>
       <c r="G102" s="1"/>
       <c r="H102" s="1" t="s">
-        <v>429</v>
+        <v>620</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>568</v>
+        <v>455</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>229</v>
@@ -5108,12 +5135,12 @@
       </c>
       <c r="G103" s="1"/>
       <c r="H103" s="1" t="s">
-        <v>429</v>
+        <v>620</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>569</v>
+        <v>456</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>247</v>
@@ -5131,13 +5158,13 @@
         <v>0</v>
       </c>
       <c r="G104" s="1"/>
-      <c r="H104" s="1" t="s">
-        <v>430</v>
+      <c r="H104" s="8" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>570</v>
+        <v>457</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>278</v>
@@ -5156,12 +5183,12 @@
       </c>
       <c r="G105" s="1"/>
       <c r="H105" s="1" t="s">
-        <v>396</v>
+        <v>621</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>522</v>
+        <v>411</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>204</v>
@@ -5180,12 +5207,12 @@
       </c>
       <c r="G106" s="1"/>
       <c r="H106" s="1" t="s">
-        <v>432</v>
+        <v>622</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>523</v>
+        <v>412</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>335</v>
@@ -5204,12 +5231,12 @@
       </c>
       <c r="G107" s="1"/>
       <c r="H107" s="1" t="s">
-        <v>433</v>
+        <v>623</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>623</v>
+        <v>506</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>121</v>
@@ -5228,12 +5255,12 @@
       </c>
       <c r="G108" s="1"/>
       <c r="H108" s="1" t="s">
-        <v>431</v>
+        <v>624</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>626</v>
+        <v>509</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>127</v>
@@ -5252,12 +5279,12 @@
       </c>
       <c r="G109" s="1"/>
       <c r="H109" s="1" t="s">
-        <v>431</v>
+        <v>624</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>624</v>
+        <v>507</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>125</v>
@@ -5276,12 +5303,12 @@
       </c>
       <c r="G110" s="1"/>
       <c r="H110" s="1" t="s">
-        <v>431</v>
+        <v>624</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>625</v>
+        <v>508</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>123</v>
@@ -5300,12 +5327,12 @@
       </c>
       <c r="G111" s="1"/>
       <c r="H111" s="1" t="s">
-        <v>431</v>
+        <v>624</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>524</v>
+        <v>413</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>267</v>
@@ -5322,12 +5349,12 @@
         <v>269</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>397</v>
+        <v>625</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>525</v>
+        <v>414</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>270</v>
@@ -5344,12 +5371,12 @@
         <v>272</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>397</v>
+        <v>625</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>526</v>
+        <v>415</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>140</v>
@@ -5368,12 +5395,12 @@
       </c>
       <c r="G114" s="1"/>
       <c r="H114" s="1" t="s">
-        <v>398</v>
+        <v>626</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>571</v>
+        <v>458</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>239</v>
@@ -5392,12 +5419,12 @@
       </c>
       <c r="G115" s="1"/>
       <c r="H115" s="1" t="s">
-        <v>434</v>
+        <v>627</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>527</v>
+        <v>416</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>304</v>
@@ -5416,12 +5443,12 @@
       </c>
       <c r="G116" s="1"/>
       <c r="H116" s="1" t="s">
-        <v>436</v>
+        <v>667</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>572</v>
+        <v>459</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>78</v>
@@ -5440,12 +5467,12 @@
       </c>
       <c r="G117" s="1"/>
       <c r="H117" s="2" t="s">
-        <v>435</v>
+        <v>628</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>627</v>
+        <v>510</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>323</v>
@@ -5464,15 +5491,15 @@
       </c>
       <c r="G118" s="1"/>
       <c r="H118" s="1" t="s">
-        <v>399</v>
+        <v>629</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>628</v>
+        <v>511</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>629</v>
+        <v>512</v>
       </c>
       <c r="C119" s="1"/>
       <c r="D119" s="5"/>
@@ -5486,12 +5513,12 @@
         <v>326</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>437</v>
+        <v>630</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>630</v>
+        <v>513</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>312</v>
@@ -5508,12 +5535,12 @@
         <v>326</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>437</v>
+        <v>630</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>631</v>
+        <v>514</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>313</v>
@@ -5530,12 +5557,12 @@
         <v>326</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>437</v>
+        <v>630</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>632</v>
+        <v>515</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>253</v>
@@ -5554,12 +5581,12 @@
       </c>
       <c r="G122" s="1"/>
       <c r="H122" s="1" t="s">
-        <v>400</v>
+        <v>631</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>633</v>
+        <v>516</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>251</v>
@@ -5578,12 +5605,12 @@
       </c>
       <c r="G123" s="1"/>
       <c r="H123" s="2" t="s">
-        <v>401</v>
+        <v>632</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>585</v>
+        <v>470</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>59</v>
@@ -5602,12 +5629,12 @@
       </c>
       <c r="G124" s="1"/>
       <c r="H124" s="2" t="s">
-        <v>438</v>
+        <v>633</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>587</v>
+        <v>472</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>63</v>
@@ -5619,39 +5646,39 @@
         <v>0</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>634</v>
+        <v>517</v>
       </c>
       <c r="F125" s="3">
         <v>0</v>
       </c>
       <c r="G125" s="1"/>
       <c r="H125" s="2" t="s">
-        <v>439</v>
+        <v>634</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>589</v>
+        <v>474</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>590</v>
+        <v>475</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>635</v>
+        <v>518</v>
       </c>
       <c r="F126" s="3">
         <v>1</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>591</v>
+        <v>476</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>592</v>
+        <v>635</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>586</v>
+        <v>471</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>61</v>
@@ -5670,12 +5697,12 @@
       </c>
       <c r="G127" s="1"/>
       <c r="H127" s="2" t="s">
-        <v>440</v>
+        <v>636</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>588</v>
+        <v>473</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>64</v>
@@ -5694,12 +5721,12 @@
       </c>
       <c r="G128" s="1"/>
       <c r="H128" s="2" t="s">
-        <v>441</v>
+        <v>637</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>528</v>
+        <v>417</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>129</v>
@@ -5718,12 +5745,12 @@
       </c>
       <c r="G129" s="1"/>
       <c r="H129" s="1" t="s">
-        <v>443</v>
+        <v>638</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>529</v>
+        <v>418</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>132</v>
@@ -5742,12 +5769,12 @@
       </c>
       <c r="G130" s="1"/>
       <c r="H130" s="1" t="s">
-        <v>443</v>
+        <v>638</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>530</v>
+        <v>419</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>131</v>
@@ -5766,12 +5793,12 @@
       </c>
       <c r="G131" s="1"/>
       <c r="H131" s="1" t="s">
-        <v>443</v>
+        <v>638</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>531</v>
+        <v>420</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>299</v>
@@ -5790,12 +5817,12 @@
       </c>
       <c r="G132" s="1"/>
       <c r="H132" s="1" t="s">
-        <v>402</v>
+        <v>639</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>532</v>
+        <v>421</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>10</v>
@@ -5814,12 +5841,12 @@
       </c>
       <c r="G133" s="1"/>
       <c r="H133" s="2" t="s">
-        <v>403</v>
+        <v>640</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>647</v>
+        <v>530</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>331</v>
@@ -5838,12 +5865,12 @@
       </c>
       <c r="G134" s="1"/>
       <c r="H134" s="1" t="s">
-        <v>442</v>
+        <v>641</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>648</v>
+        <v>531</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>333</v>
@@ -5862,15 +5889,15 @@
       </c>
       <c r="G135" s="1"/>
       <c r="H135" s="1" t="s">
-        <v>445</v>
+        <v>642</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>643</v>
+        <v>526</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>644</v>
+        <v>527</v>
       </c>
       <c r="C136" s="3">
         <v>30</v>
@@ -5879,19 +5906,19 @@
         <v>0</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>645</v>
+        <v>528</v>
       </c>
       <c r="F136" s="3">
         <v>0</v>
       </c>
       <c r="G136" s="1"/>
       <c r="H136" s="1" t="s">
-        <v>446</v>
+        <v>643</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>535</v>
+        <v>424</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>310</v>
@@ -5910,12 +5937,12 @@
       </c>
       <c r="G137" s="1"/>
       <c r="H137" s="1" t="s">
-        <v>446</v>
+        <v>643</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>536</v>
+        <v>425</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>308</v>
@@ -5934,12 +5961,12 @@
       </c>
       <c r="G138" s="1"/>
       <c r="H138" s="1" t="s">
-        <v>447</v>
+        <v>644</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>537</v>
+        <v>426</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>224</v>
@@ -5958,12 +5985,12 @@
       </c>
       <c r="G139" s="1"/>
       <c r="H139" s="1" t="s">
-        <v>448</v>
+        <v>645</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>538</v>
+        <v>427</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>26</v>
@@ -5982,12 +6009,12 @@
       </c>
       <c r="G140" s="1"/>
       <c r="H140" s="2" t="s">
-        <v>449</v>
+        <v>646</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>539</v>
+        <v>428</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>28</v>
@@ -6006,12 +6033,12 @@
       </c>
       <c r="G141" s="1"/>
       <c r="H141" s="2" t="s">
-        <v>449</v>
+        <v>646</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>540</v>
+        <v>429</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>24</v>
@@ -6030,12 +6057,12 @@
       </c>
       <c r="G142" s="1"/>
       <c r="H142" s="2" t="s">
-        <v>449</v>
+        <v>646</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>541</v>
+        <v>430</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>32</v>
@@ -6054,12 +6081,12 @@
       </c>
       <c r="G143" s="1"/>
       <c r="H143" s="2" t="s">
-        <v>449</v>
+        <v>646</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>542</v>
+        <v>431</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>34</v>
@@ -6078,12 +6105,12 @@
       </c>
       <c r="G144" s="1"/>
       <c r="H144" s="2" t="s">
-        <v>449</v>
+        <v>646</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>543</v>
+        <v>432</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>21</v>
@@ -6102,12 +6129,12 @@
       </c>
       <c r="G145" s="1"/>
       <c r="H145" s="2" t="s">
-        <v>449</v>
+        <v>646</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>544</v>
+        <v>433</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>19</v>
@@ -6126,12 +6153,12 @@
       </c>
       <c r="G146" s="1"/>
       <c r="H146" s="2" t="s">
-        <v>449</v>
+        <v>646</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
-        <v>594</v>
+        <v>478</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>38</v>
@@ -6150,12 +6177,12 @@
       </c>
       <c r="G147" s="1"/>
       <c r="H147" s="2" t="s">
-        <v>449</v>
+        <v>646</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>545</v>
+        <v>434</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>30</v>
@@ -6174,12 +6201,12 @@
       </c>
       <c r="G148" s="1"/>
       <c r="H148" s="2" t="s">
-        <v>449</v>
+        <v>646</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
-        <v>595</v>
+        <v>479</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>40</v>
@@ -6198,12 +6225,12 @@
       </c>
       <c r="G149" s="1"/>
       <c r="H149" s="2" t="s">
-        <v>449</v>
+        <v>646</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>546</v>
+        <v>435</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>36</v>
@@ -6222,12 +6249,12 @@
       </c>
       <c r="G150" s="1"/>
       <c r="H150" s="2" t="s">
-        <v>449</v>
+        <v>646</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>547</v>
+        <v>436</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>23</v>
@@ -6246,15 +6273,15 @@
       </c>
       <c r="G151" s="1"/>
       <c r="H151" s="2" t="s">
-        <v>449</v>
+        <v>646</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>582</v>
+        <v>468</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>593</v>
+        <v>477</v>
       </c>
       <c r="C152" s="3">
         <v>8</v>
@@ -6263,18 +6290,18 @@
         <v>0</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>583</v>
+        <v>469</v>
       </c>
       <c r="F152" s="3">
         <v>0</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>584</v>
+        <v>647</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>581</v>
+        <v>467</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>347</v>
@@ -6292,16 +6319,16 @@
         <v>0</v>
       </c>
       <c r="G153" s="1"/>
-      <c r="H153" s="1" t="s">
-        <v>457</v>
+      <c r="H153" s="8" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>573</v>
+        <v>460</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>642</v>
+        <v>525</v>
       </c>
       <c r="C154" s="3">
         <v>7</v>
@@ -6317,12 +6344,12 @@
       </c>
       <c r="G154" s="1"/>
       <c r="H154" s="1" t="s">
-        <v>450</v>
+        <v>648</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>646</v>
+        <v>529</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>138</v>
@@ -6334,19 +6361,19 @@
         <v>0</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>459</v>
+        <v>349</v>
       </c>
       <c r="F155" s="3">
         <v>0</v>
       </c>
       <c r="G155" s="1"/>
       <c r="H155" s="1" t="s">
-        <v>404</v>
+        <v>649</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>548</v>
+        <v>437</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>208</v>
@@ -6365,12 +6392,12 @@
       </c>
       <c r="G156" s="1"/>
       <c r="H156" s="1" t="s">
-        <v>451</v>
+        <v>650</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>549</v>
+        <v>438</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>206</v>
@@ -6389,12 +6416,12 @@
       </c>
       <c r="G157" s="1"/>
       <c r="H157" s="1" t="s">
-        <v>451</v>
+        <v>650</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>550</v>
+        <v>439</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>210</v>
@@ -6413,12 +6440,12 @@
       </c>
       <c r="G158" s="1"/>
       <c r="H158" s="1" t="s">
-        <v>451</v>
+        <v>650</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>551</v>
+        <v>440</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>139</v>
@@ -6437,12 +6464,12 @@
       </c>
       <c r="G159" s="1"/>
       <c r="H159" s="1" t="s">
-        <v>452</v>
+        <v>651</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>552</v>
+        <v>441</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>222</v>
@@ -6461,12 +6488,12 @@
       </c>
       <c r="G160" s="1"/>
       <c r="H160" s="1" t="s">
-        <v>453</v>
+        <v>652</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
-        <v>599</v>
+        <v>483</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>66</v>
@@ -6485,12 +6512,12 @@
       </c>
       <c r="G161" s="1"/>
       <c r="H161" s="2" t="s">
-        <v>405</v>
+        <v>653</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
-        <v>600</v>
+        <v>484</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>68</v>
@@ -6509,12 +6536,12 @@
       </c>
       <c r="G162" s="1"/>
       <c r="H162" s="2" t="s">
-        <v>406</v>
+        <v>654</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
-        <v>601</v>
+        <v>485</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>72</v>
@@ -6533,12 +6560,12 @@
       </c>
       <c r="G163" s="1"/>
       <c r="H163" s="2" t="s">
-        <v>407</v>
+        <v>655</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
-        <v>602</v>
+        <v>486</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>70</v>
@@ -6557,12 +6584,12 @@
       </c>
       <c r="G164" s="1"/>
       <c r="H164" s="2" t="s">
-        <v>408</v>
+        <v>656</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
-        <v>603</v>
+        <v>487</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>74</v>
@@ -6581,12 +6608,12 @@
       </c>
       <c r="G165" s="1"/>
       <c r="H165" s="2" t="s">
-        <v>409</v>
+        <v>657</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
-        <v>604</v>
+        <v>488</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>76</v>
@@ -6605,12 +6632,12 @@
       </c>
       <c r="G166" s="1"/>
       <c r="H166" s="2" t="s">
-        <v>410</v>
+        <v>658</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
-        <v>605</v>
+        <v>489</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>98</v>
@@ -6628,13 +6655,13 @@
         <v>0</v>
       </c>
       <c r="G167" s="1"/>
-      <c r="H167" s="1" t="s">
-        <v>456</v>
+      <c r="H167" s="8" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
-        <v>607</v>
+        <v>491</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>101</v>
@@ -6652,13 +6679,13 @@
         <v>0</v>
       </c>
       <c r="G168" s="1"/>
-      <c r="H168" s="1" t="s">
-        <v>456</v>
+      <c r="H168" s="8" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
-        <v>608</v>
+        <v>492</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>92</v>
@@ -6677,12 +6704,12 @@
       </c>
       <c r="G169" s="1"/>
       <c r="H169" s="1" t="s">
-        <v>456</v>
+        <v>668</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
-        <v>609</v>
+        <v>493</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>94</v>
@@ -6701,12 +6728,12 @@
       </c>
       <c r="G170" s="1"/>
       <c r="H170" s="1" t="s">
-        <v>456</v>
+        <v>668</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
-        <v>610</v>
+        <v>494</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>108</v>
@@ -6725,12 +6752,12 @@
       </c>
       <c r="G171" s="1"/>
       <c r="H171" s="1" t="s">
-        <v>456</v>
+        <v>668</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
-        <v>611</v>
+        <v>495</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>116</v>
@@ -6749,12 +6776,12 @@
       </c>
       <c r="G172" s="1"/>
       <c r="H172" s="1" t="s">
-        <v>456</v>
+        <v>668</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
-        <v>612</v>
+        <v>496</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>110</v>
@@ -6773,12 +6800,12 @@
       </c>
       <c r="G173" s="1"/>
       <c r="H173" s="1" t="s">
-        <v>456</v>
+        <v>668</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
-        <v>613</v>
+        <v>497</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>97</v>
@@ -6790,19 +6817,19 @@
         <v>0</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>606</v>
+        <v>490</v>
       </c>
       <c r="F174" s="3">
         <v>0</v>
       </c>
       <c r="G174" s="1"/>
       <c r="H174" s="1" t="s">
-        <v>460</v>
+        <v>669</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
-        <v>614</v>
+        <v>498</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>114</v>
@@ -6821,12 +6848,12 @@
       </c>
       <c r="G175" s="1"/>
       <c r="H175" s="1" t="s">
-        <v>456</v>
+        <v>668</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>553</v>
+        <v>442</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>297</v>
@@ -6845,12 +6872,12 @@
       </c>
       <c r="G176" s="1"/>
       <c r="H176" s="1" t="s">
-        <v>454</v>
+        <v>659</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>649</v>
+        <v>532</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>212</v>
@@ -6869,12 +6896,12 @@
       </c>
       <c r="G177" s="1"/>
       <c r="H177" s="1" t="s">
-        <v>455</v>
+        <v>660</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>650</v>
+        <v>533</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>214</v>
@@ -6893,12 +6920,12 @@
       </c>
       <c r="G178" s="1"/>
       <c r="H178" s="1" t="s">
-        <v>455</v>
+        <v>660</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>653</v>
+        <v>536</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>219</v>
@@ -6917,12 +6944,12 @@
       </c>
       <c r="G179" s="1"/>
       <c r="H179" s="1" t="s">
-        <v>455</v>
+        <v>660</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>652</v>
+        <v>535</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>217</v>
@@ -6941,12 +6968,12 @@
       </c>
       <c r="G180" s="1"/>
       <c r="H180" s="1" t="s">
-        <v>455</v>
+        <v>660</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>651</v>
+        <v>534</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>216</v>
@@ -6958,19 +6985,19 @@
         <v>0</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>654</v>
+        <v>537</v>
       </c>
       <c r="F181" s="3">
         <v>0</v>
       </c>
       <c r="G181" s="1"/>
       <c r="H181" s="1" t="s">
-        <v>455</v>
+        <v>660</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>554</v>
+        <v>443</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>314</v>
@@ -6987,26 +7014,26 @@
         <v>326</v>
       </c>
       <c r="H182" s="1" t="s">
-        <v>411</v>
+        <v>661</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
-        <v>596</v>
+        <v>480</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>597</v>
+        <v>481</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>598</v>
+        <v>482</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B184" s="1" t="s">
-        <v>656</v>
+        <v>539</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>657</v>
+        <v>540</v>
       </c>
       <c r="F184" s="3">
         <v>0</v>
@@ -7014,10 +7041,10 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B185" s="1" t="s">
-        <v>658</v>
+        <v>541</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>659</v>
+        <v>542</v>
       </c>
       <c r="F185" s="2">
         <v>0</v>
@@ -7025,45 +7052,68 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B186" s="1" t="s">
-        <v>658</v>
+        <v>541</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>666</v>
+        <v>548</v>
       </c>
       <c r="F186" s="2">
         <v>0</v>
       </c>
       <c r="H186" s="2" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B187" s="1" t="s">
-        <v>660</v>
+        <v>543</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>661</v>
+        <v>544</v>
       </c>
       <c r="F187" s="2">
         <v>0</v>
       </c>
       <c r="H187" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B188" s="1" t="s">
-        <v>663</v>
+        <v>545</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B189" s="1" t="s">
-        <v>664</v>
+        <v>546</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B190" s="1" t="s">
-        <v>665</v>
+        <v>547</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A191" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C191" s="2">
+        <v>30</v>
+      </c>
+      <c r="D191" s="6">
+        <v>0</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="F191" s="2">
+        <v>0</v>
+      </c>
+      <c r="H191" s="7" t="s">
+        <v>552</v>
       </c>
     </row>
   </sheetData>
@@ -7071,7 +7121,18 @@
     <sortCondition ref="B2:B182"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H191" r:id="rId1" xr:uid="{79761F97-15D2-497A-876C-4F087647F759}"/>
+    <hyperlink ref="H153" r:id="rId2" xr:uid="{135A9EAA-53A1-4C6C-86B4-EA1E459FCF29}"/>
+    <hyperlink ref="H167" r:id="rId3" display="https://playpointlab.com/&gt; &lt;/a&gt;" xr:uid="{E664F694-AC8E-4F9E-AC58-F59D21B9D99B}"/>
+    <hyperlink ref="H168" r:id="rId4" display="https://playpointlab.com/&gt; &lt;/a&gt;" xr:uid="{24D8477A-84BC-417A-A9F7-D15CF3A0F305}"/>
+    <hyperlink ref="H104" r:id="rId5" xr:uid="{1AB750C9-076B-44E1-A1C1-42D804ED6043}"/>
+    <hyperlink ref="H94" r:id="rId6" xr:uid="{02B7B66A-8C7C-4429-9DD0-E7B36896002B}"/>
+    <hyperlink ref="H91" r:id="rId7" xr:uid="{47FAF52E-8D8D-4DEF-9078-74E8499F1823}"/>
+    <hyperlink ref="H90" r:id="rId8" xr:uid="{EB17BCE6-05D4-4DBC-8BA5-36725923A3F4}"/>
+    <hyperlink ref="H86" r:id="rId9" xr:uid="{CBF9E267-F776-4DA4-A228-FE69CAF6E18D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId10"/>
 </worksheet>
 </file>
--- a/stores.xlsx
+++ b/stores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YUMIN\Desktop\B0KT2A_RSVN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6BE3F6-46D8-42EB-BD35-225F9BA9E55E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C232B816-C2B6-4A96-8437-E52A63E724B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ABFC3117-FCCB-4FF3-804A-FE19451A2004}"/>
+    <workbookView xWindow="31035" yWindow="3210" windowWidth="28665" windowHeight="15345" xr2:uid="{ABFC3117-FCCB-4FF3-804A-FE19451A2004}"/>
   </bookViews>
   <sheets>
     <sheet name="stores" sheetId="2" r:id="rId1"/>
@@ -2735,8 +2735,8 @@
   <dimension ref="A1:H191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E193" sqref="E193"/>
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C119" sqref="C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5478,10 +5478,10 @@
         <v>323</v>
       </c>
       <c r="C118" s="1">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D118" s="5">
-        <v>0</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>324</v>

--- a/stores.xlsx
+++ b/stores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YUMIN\Desktop\B0KT2A_RSVN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C232B816-C2B6-4A96-8437-E52A63E724B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F032283-55C0-4DD5-81E4-9768852B4E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31035" yWindow="3210" windowWidth="28665" windowHeight="15345" xr2:uid="{ABFC3117-FCCB-4FF3-804A-FE19451A2004}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ABFC3117-FCCB-4FF3-804A-FE19451A2004}"/>
   </bookViews>
   <sheets>
     <sheet name="stores" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="673">
   <si>
     <t>룸익스케이프 WHITE</t>
   </si>
@@ -936,10 +936,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>난너의보이,난너보,좌뇌우뇌연구소,가암성당</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아야코,투투어드벤처,괴록,AYAKO,후즈데어</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2329,6 +2325,14 @@
   </si>
   <si>
     <t>https://www.xphobia.net/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가암성당</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>난너의보이,난너보,좌뇌우뇌연구소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2732,11 +2736,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D839462D-4719-40BB-8925-C1B9F93734CF}">
-  <dimension ref="A1:H191"/>
+  <dimension ref="A1:H192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C119" sqref="C119"/>
+      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E159" sqref="E159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2750,7 +2754,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>12</v>
@@ -2776,10 +2780,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C2" s="3">
         <v>6</v>
@@ -2788,19 +2792,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F2" s="3">
         <v>0</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>280</v>
@@ -2819,12 +2823,12 @@
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>146</v>
@@ -2836,19 +2840,19 @@
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F4" s="3">
         <v>0</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>274</v>
@@ -2867,12 +2871,12 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>275</v>
@@ -2884,19 +2888,19 @@
         <v>0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F6" s="3">
         <v>0</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>142</v>
@@ -2915,12 +2919,12 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>144</v>
@@ -2939,12 +2943,12 @@
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>244</v>
@@ -2956,19 +2960,19 @@
         <v>0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>245</v>
@@ -2980,19 +2984,19 @@
         <v>0</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>246</v>
@@ -3004,19 +3008,19 @@
         <v>0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F11" s="3">
         <v>0</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>241</v>
@@ -3035,12 +3039,12 @@
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>242</v>
@@ -3059,12 +3063,12 @@
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>221</v>
@@ -3076,19 +3080,19 @@
         <v>0</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>91</v>
@@ -3100,19 +3104,19 @@
         <v>0</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>86</v>
@@ -3131,12 +3135,12 @@
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>88</v>
@@ -3155,12 +3159,12 @@
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>90</v>
@@ -3172,19 +3176,19 @@
         <v>0</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>84</v>
@@ -3203,15 +3207,15 @@
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C20" s="3">
         <v>30</v>
@@ -3220,19 +3224,19 @@
         <v>0</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>82</v>
@@ -3251,12 +3255,12 @@
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>80</v>
@@ -3275,15 +3279,15 @@
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C23" s="3">
         <v>6</v>
@@ -3292,21 +3296,21 @@
         <v>0</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C24" s="3">
         <v>6</v>
@@ -3315,18 +3319,18 @@
         <v>0</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>147</v>
@@ -3345,12 +3349,12 @@
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>149</v>
@@ -3369,15 +3373,15 @@
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C27" s="3">
         <v>6</v>
@@ -3393,12 +3397,12 @@
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>150</v>
@@ -3417,12 +3421,12 @@
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>162</v>
@@ -3441,12 +3445,12 @@
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>164</v>
@@ -3465,12 +3469,12 @@
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>152</v>
@@ -3489,12 +3493,12 @@
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>154</v>
@@ -3513,12 +3517,12 @@
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>160</v>
@@ -3537,12 +3541,12 @@
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>158</v>
@@ -3561,12 +3565,12 @@
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>156</v>
@@ -3585,12 +3589,12 @@
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>8</v>
@@ -3609,12 +3613,12 @@
       </c>
       <c r="G36" s="1"/>
       <c r="H36" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>258</v>
@@ -3633,12 +3637,12 @@
       </c>
       <c r="G37" s="1"/>
       <c r="H37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>260</v>
@@ -3657,12 +3661,12 @@
       </c>
       <c r="G38" s="1"/>
       <c r="H38" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>262</v>
@@ -3681,12 +3685,12 @@
       </c>
       <c r="G39" s="1"/>
       <c r="H39" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>134</v>
@@ -3705,15 +3709,15 @@
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C41" s="1">
         <v>13</v>
@@ -3722,19 +3726,19 @@
         <v>0</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F41" s="1">
         <v>0</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>264</v>
@@ -3751,12 +3755,12 @@
         <v>266</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>136</v>
@@ -3775,15 +3779,15 @@
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C44" s="3">
         <v>6</v>
@@ -3792,22 +3796,22 @@
         <v>0</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F44" s="3">
         <v>0</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C45" s="3">
         <v>55</v>
@@ -3816,22 +3820,22 @@
         <v>0</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C46" s="3">
         <v>6</v>
@@ -3840,19 +3844,19 @@
         <v>0</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>2</v>
@@ -3871,12 +3875,12 @@
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>6</v>
@@ -3895,12 +3899,12 @@
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>4</v>
@@ -3919,12 +3923,12 @@
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>0</v>
@@ -3943,12 +3947,12 @@
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>273</v>
@@ -3960,13 +3964,13 @@
         <v>0</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F51" s="3">
         <v>0</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -3986,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
@@ -4006,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
@@ -4026,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
@@ -4046,7 +4050,7 @@
         <v>0</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
@@ -4066,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
@@ -4086,7 +4090,7 @@
         <v>0</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
@@ -4106,12 +4110,12 @@
         <v>0</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>166</v>
@@ -4129,7 +4133,7 @@
         <v>0</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -4149,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
@@ -4169,7 +4173,7 @@
         <v>0</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
@@ -4189,7 +4193,7 @@
         <v>0</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
@@ -4209,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
@@ -4229,7 +4233,7 @@
         <v>0</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
@@ -4249,7 +4253,7 @@
         <v>0</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
@@ -4269,7 +4273,7 @@
         <v>0</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
@@ -4289,7 +4293,7 @@
         <v>0</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
@@ -4309,7 +4313,7 @@
         <v>0</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
@@ -4329,7 +4333,7 @@
         <v>0</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
@@ -4349,7 +4353,7 @@
         <v>0</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
@@ -4369,12 +4373,12 @@
         <v>0</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>104</v>
@@ -4393,15 +4397,15 @@
       </c>
       <c r="G72" s="1"/>
       <c r="H72" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C73" s="3">
         <v>7</v>
@@ -4417,15 +4421,15 @@
       </c>
       <c r="G73" s="1"/>
       <c r="H73" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C74" s="3">
         <v>7</v>
@@ -4441,12 +4445,12 @@
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>112</v>
@@ -4465,12 +4469,12 @@
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>118</v>
@@ -4489,15 +4493,15 @@
       </c>
       <c r="G76" s="1"/>
       <c r="H76" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C77" s="3">
         <v>7</v>
@@ -4513,15 +4517,15 @@
       </c>
       <c r="G77" s="1"/>
       <c r="H77" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C78" s="3">
         <v>7</v>
@@ -4537,15 +4541,15 @@
       </c>
       <c r="G78" s="1"/>
       <c r="H78" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C79" s="3">
         <v>7</v>
@@ -4561,12 +4565,12 @@
       </c>
       <c r="G79" s="1"/>
       <c r="H79" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>256</v>
@@ -4585,15 +4589,15 @@
       </c>
       <c r="G80" s="1"/>
       <c r="H80" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>422</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>423</v>
       </c>
       <c r="C81" s="3">
         <v>7</v>
@@ -4609,15 +4613,15 @@
       </c>
       <c r="G81" s="1"/>
       <c r="H81" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C82" s="1">
         <v>76</v>
@@ -4626,17 +4630,17 @@
         <v>0</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>249</v>
@@ -4655,12 +4659,12 @@
       </c>
       <c r="G83" s="1"/>
       <c r="H83" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>48</v>
@@ -4679,12 +4683,12 @@
       </c>
       <c r="G84" s="1"/>
       <c r="H84" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>50</v>
@@ -4703,12 +4707,12 @@
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>283</v>
@@ -4727,12 +4731,12 @@
       </c>
       <c r="G86" s="1"/>
       <c r="H86" s="7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>44</v>
@@ -4751,12 +4755,12 @@
       </c>
       <c r="G87" s="1"/>
       <c r="H87" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>52</v>
@@ -4775,12 +4779,12 @@
       </c>
       <c r="G88" s="1"/>
       <c r="H88" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>54</v>
@@ -4799,12 +4803,12 @@
       </c>
       <c r="G89" s="1"/>
       <c r="H89" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>285</v>
@@ -4823,12 +4827,12 @@
       </c>
       <c r="G90" s="1"/>
       <c r="H90" s="7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>282</v>
@@ -4847,12 +4851,12 @@
       </c>
       <c r="G91" s="1"/>
       <c r="H91" s="7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>56</v>
@@ -4871,12 +4875,12 @@
       </c>
       <c r="G92" s="1"/>
       <c r="H92" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>58</v>
@@ -4888,19 +4892,19 @@
         <v>0.875</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F93" s="3">
         <v>0</v>
       </c>
       <c r="G93" s="1"/>
       <c r="H93" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>284</v>
@@ -4919,12 +4923,12 @@
       </c>
       <c r="G94" s="1"/>
       <c r="H94" s="7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>42</v>
@@ -4943,12 +4947,12 @@
       </c>
       <c r="G95" s="1"/>
       <c r="H95" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>46</v>
@@ -4967,12 +4971,12 @@
       </c>
       <c r="G96" s="1"/>
       <c r="H96" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>231</v>
@@ -4991,12 +4995,12 @@
       </c>
       <c r="G97" s="1"/>
       <c r="H97" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>225</v>
@@ -5015,12 +5019,12 @@
       </c>
       <c r="G98" s="1"/>
       <c r="H98" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>237</v>
@@ -5039,12 +5043,12 @@
       </c>
       <c r="G99" s="1"/>
       <c r="H99" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>227</v>
@@ -5063,12 +5067,12 @@
       </c>
       <c r="G100" s="1"/>
       <c r="H100" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>235</v>
@@ -5087,12 +5091,12 @@
       </c>
       <c r="G101" s="1"/>
       <c r="H101" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>233</v>
@@ -5111,12 +5115,12 @@
       </c>
       <c r="G102" s="1"/>
       <c r="H102" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>229</v>
@@ -5135,12 +5139,12 @@
       </c>
       <c r="G103" s="1"/>
       <c r="H103" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>247</v>
@@ -5159,12 +5163,12 @@
       </c>
       <c r="G104" s="1"/>
       <c r="H104" s="8" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>278</v>
@@ -5183,12 +5187,12 @@
       </c>
       <c r="G105" s="1"/>
       <c r="H105" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>204</v>
@@ -5200,22 +5204,22 @@
         <v>0</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F106" s="3">
         <v>0</v>
       </c>
       <c r="G106" s="1"/>
       <c r="H106" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C107" s="3">
         <v>13</v>
@@ -5224,19 +5228,19 @@
         <v>0</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F107" s="3">
         <v>0</v>
       </c>
       <c r="G107" s="1"/>
       <c r="H107" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>121</v>
@@ -5255,12 +5259,12 @@
       </c>
       <c r="G108" s="1"/>
       <c r="H108" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>127</v>
@@ -5279,12 +5283,12 @@
       </c>
       <c r="G109" s="1"/>
       <c r="H109" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>125</v>
@@ -5303,12 +5307,12 @@
       </c>
       <c r="G110" s="1"/>
       <c r="H110" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>123</v>
@@ -5327,12 +5331,12 @@
       </c>
       <c r="G111" s="1"/>
       <c r="H111" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>267</v>
@@ -5349,12 +5353,12 @@
         <v>269</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>270</v>
@@ -5371,12 +5375,12 @@
         <v>272</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>140</v>
@@ -5395,12 +5399,12 @@
       </c>
       <c r="G114" s="1"/>
       <c r="H114" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>239</v>
@@ -5419,15 +5423,15 @@
       </c>
       <c r="G115" s="1"/>
       <c r="H115" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C116" s="3">
         <v>6</v>
@@ -5436,19 +5440,19 @@
         <v>0</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F116" s="3">
         <v>0</v>
       </c>
       <c r="G116" s="1"/>
       <c r="H116" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>78</v>
@@ -5467,15 +5471,15 @@
       </c>
       <c r="G117" s="1"/>
       <c r="H117" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C118" s="1">
         <v>7</v>
@@ -5484,85 +5488,85 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F118" s="1">
         <v>0</v>
       </c>
       <c r="G118" s="1"/>
       <c r="H118" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>511</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>512</v>
       </c>
       <c r="C119" s="1"/>
       <c r="D119" s="5"/>
       <c r="E119" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F119" s="1">
         <v>1</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F120" s="1">
         <v>1</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F121" s="1">
         <v>1</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>253</v>
@@ -5581,12 +5585,12 @@
       </c>
       <c r="G122" s="1"/>
       <c r="H122" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>251</v>
@@ -5605,12 +5609,12 @@
       </c>
       <c r="G123" s="1"/>
       <c r="H123" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>59</v>
@@ -5629,12 +5633,12 @@
       </c>
       <c r="G124" s="1"/>
       <c r="H124" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>63</v>
@@ -5646,39 +5650,39 @@
         <v>0</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F125" s="3">
         <v>0</v>
       </c>
       <c r="G125" s="1"/>
       <c r="H125" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="B126" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="B126" s="1" t="s">
-        <v>475</v>
-      </c>
       <c r="E126" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F126" s="3">
         <v>1</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>61</v>
@@ -5697,12 +5701,12 @@
       </c>
       <c r="G127" s="1"/>
       <c r="H127" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>64</v>
@@ -5721,12 +5725,12 @@
       </c>
       <c r="G128" s="1"/>
       <c r="H128" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>129</v>
@@ -5745,12 +5749,12 @@
       </c>
       <c r="G129" s="1"/>
       <c r="H129" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>132</v>
@@ -5769,12 +5773,12 @@
       </c>
       <c r="G130" s="1"/>
       <c r="H130" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>131</v>
@@ -5793,15 +5797,15 @@
       </c>
       <c r="G131" s="1"/>
       <c r="H131" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C132" s="3">
         <v>7</v>
@@ -5810,19 +5814,19 @@
         <v>0.875</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F132" s="3">
         <v>0</v>
       </c>
       <c r="G132" s="1"/>
       <c r="H132" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>10</v>
@@ -5841,15 +5845,15 @@
       </c>
       <c r="G133" s="1"/>
       <c r="H133" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C134" s="3">
         <v>13</v>
@@ -5858,22 +5862,22 @@
         <v>0</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F134" s="3">
         <v>0</v>
       </c>
       <c r="G134" s="1"/>
       <c r="H134" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C135" s="3">
         <v>45</v>
@@ -5882,22 +5886,22 @@
         <v>0</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F135" s="3">
         <v>0</v>
       </c>
       <c r="G135" s="1"/>
       <c r="H135" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>526</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>527</v>
       </c>
       <c r="C136" s="3">
         <v>30</v>
@@ -5906,22 +5910,22 @@
         <v>0</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F136" s="3">
         <v>0</v>
       </c>
       <c r="G136" s="1"/>
       <c r="H136" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C137" s="3">
         <v>30</v>
@@ -5930,22 +5934,22 @@
         <v>0</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F137" s="3">
         <v>0</v>
       </c>
       <c r="G137" s="1"/>
       <c r="H137" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C138" s="3">
         <v>7</v>
@@ -5954,70 +5958,70 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F138" s="3">
         <v>0</v>
       </c>
       <c r="G138" s="1"/>
       <c r="H138" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>224</v>
       </c>
       <c r="C139" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D139" s="4">
         <v>0</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>294</v>
+        <v>672</v>
       </c>
       <c r="F139" s="3">
         <v>0</v>
       </c>
       <c r="G139" s="1"/>
       <c r="H139" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
-        <v>427</v>
+      <c r="A140" s="2" t="s">
+        <v>425</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>26</v>
+        <v>224</v>
       </c>
       <c r="C140" s="3">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D140" s="4">
-        <v>0.41666666666666669</v>
+        <v>0</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>27</v>
+        <v>671</v>
       </c>
       <c r="F140" s="3">
         <v>0</v>
       </c>
       <c r="G140" s="1"/>
-      <c r="H140" s="2" t="s">
-        <v>646</v>
+      <c r="H140" s="1" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C141" s="3">
         <v>6</v>
@@ -6026,277 +6030,278 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F141" s="3">
         <v>0</v>
       </c>
       <c r="G141" s="1"/>
       <c r="H141" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C142" s="3">
         <v>6</v>
       </c>
       <c r="D142" s="4">
-        <v>0.47916666666666669</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F142" s="3">
         <v>0</v>
       </c>
       <c r="G142" s="1"/>
       <c r="H142" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C143" s="3">
         <v>6</v>
       </c>
       <c r="D143" s="4">
-        <v>0.41666666666666669</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F143" s="3">
         <v>0</v>
       </c>
       <c r="G143" s="1"/>
       <c r="H143" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C144" s="3">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D144" s="4">
-        <v>0.75</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F144" s="3">
         <v>0</v>
       </c>
       <c r="G144" s="1"/>
       <c r="H144" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C145" s="3">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D145" s="4">
-        <v>0.4375</v>
+        <v>0.75</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F145" s="3">
         <v>0</v>
       </c>
       <c r="G145" s="1"/>
       <c r="H145" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C146" s="3">
         <v>6</v>
       </c>
       <c r="D146" s="4">
-        <v>0.5625</v>
+        <v>0.4375</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F146" s="3">
         <v>0</v>
       </c>
       <c r="G146" s="1"/>
       <c r="H146" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A147" s="2" t="s">
-        <v>478</v>
+      <c r="A147" t="s">
+        <v>432</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C147" s="3">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D147" s="4">
-        <v>0.75</v>
+        <v>0.5625</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="F147" s="3">
         <v>0</v>
       </c>
       <c r="G147" s="1"/>
       <c r="H147" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
-        <v>434</v>
+      <c r="A148" s="2" t="s">
+        <v>477</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C148" s="3">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D148" s="4">
-        <v>0.41666666666666669</v>
+        <v>0.75</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F148" s="3">
         <v>0</v>
       </c>
       <c r="G148" s="1"/>
       <c r="H148" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A149" s="2" t="s">
-        <v>479</v>
+      <c r="A149" t="s">
+        <v>433</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C149" s="3">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D149" s="4">
-        <v>0.75</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F149" s="3">
         <v>0</v>
       </c>
       <c r="G149" s="1"/>
       <c r="H149" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
-        <v>435</v>
+      <c r="A150" s="2" t="s">
+        <v>478</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C150" s="3">
         <v>13</v>
       </c>
       <c r="D150" s="4">
-        <v>0.83333333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F150" s="3">
         <v>0</v>
       </c>
       <c r="G150" s="1"/>
       <c r="H150" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C151" s="3">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D151" s="4">
-        <v>0.45833333333333331</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>295</v>
+        <v>37</v>
       </c>
       <c r="F151" s="3">
         <v>0</v>
       </c>
       <c r="G151" s="1"/>
       <c r="H151" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A152" s="2" t="s">
-        <v>468</v>
+      <c r="A152" t="s">
+        <v>435</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>477</v>
+        <v>23</v>
       </c>
       <c r="C152" s="3">
-        <v>8</v>
-      </c>
-      <c r="D152" s="6">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="D152" s="4">
+        <v>0.45833333333333331</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>469</v>
+        <v>294</v>
       </c>
       <c r="F152" s="3">
         <v>0</v>
       </c>
-      <c r="H152" s="1" t="s">
-        <v>647</v>
+      <c r="G152" s="1"/>
+      <c r="H152" s="2" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
@@ -6304,103 +6309,102 @@
         <v>467</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>347</v>
+        <v>476</v>
       </c>
       <c r="C153" s="3">
-        <v>7</v>
-      </c>
-      <c r="D153" s="4">
+        <v>8</v>
+      </c>
+      <c r="D153" s="6">
         <v>0</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>96</v>
+        <v>468</v>
       </c>
       <c r="F153" s="3">
         <v>0</v>
       </c>
-      <c r="G153" s="1"/>
-      <c r="H153" s="8" t="s">
-        <v>664</v>
+      <c r="H153" s="1" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
-        <v>460</v>
+      <c r="A154" s="2" t="s">
+        <v>466</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>525</v>
+        <v>346</v>
       </c>
       <c r="C154" s="3">
         <v>7</v>
       </c>
       <c r="D154" s="4">
-        <v>0.95833333333333337</v>
+        <v>0</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>296</v>
+        <v>96</v>
       </c>
       <c r="F154" s="3">
         <v>0</v>
       </c>
       <c r="G154" s="1"/>
-      <c r="H154" s="1" t="s">
-        <v>648</v>
+      <c r="H154" s="8" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A155" s="2" t="s">
-        <v>529</v>
+      <c r="A155" t="s">
+        <v>459</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>138</v>
+        <v>524</v>
       </c>
       <c r="C155" s="3">
         <v>7</v>
       </c>
       <c r="D155" s="4">
-        <v>0</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>349</v>
+        <v>295</v>
       </c>
       <c r="F155" s="3">
         <v>0</v>
       </c>
       <c r="G155" s="1"/>
       <c r="H155" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
-        <v>437</v>
+      <c r="A156" s="2" t="s">
+        <v>528</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>208</v>
+        <v>138</v>
       </c>
       <c r="C156" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D156" s="4">
         <v>0</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>209</v>
+        <v>348</v>
       </c>
       <c r="F156" s="3">
         <v>0</v>
       </c>
       <c r="G156" s="1"/>
       <c r="H156" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C157" s="3">
         <v>6</v>
@@ -6409,22 +6413,22 @@
         <v>0</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F157" s="3">
         <v>0</v>
       </c>
       <c r="G157" s="1"/>
       <c r="H157" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C158" s="3">
         <v>6</v>
@@ -6433,142 +6437,142 @@
         <v>0</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F158" s="3">
         <v>0</v>
       </c>
       <c r="G158" s="1"/>
       <c r="H158" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>139</v>
+        <v>210</v>
       </c>
       <c r="C159" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D159" s="4">
-        <v>0.97916666666666663</v>
+        <v>0</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>306</v>
+        <v>211</v>
       </c>
       <c r="F159" s="3">
         <v>0</v>
       </c>
       <c r="G159" s="1"/>
       <c r="H159" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>222</v>
+        <v>139</v>
       </c>
       <c r="C160" s="3">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D160" s="4">
-        <v>0</v>
+        <v>0.97916666666666663</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>223</v>
+        <v>305</v>
       </c>
       <c r="F160" s="3">
         <v>0</v>
       </c>
       <c r="G160" s="1"/>
       <c r="H160" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A161" s="2" t="s">
-        <v>483</v>
+      <c r="A161" t="s">
+        <v>440</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>66</v>
+        <v>222</v>
       </c>
       <c r="C161" s="3">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D161" s="4">
         <v>0</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>67</v>
+        <v>223</v>
       </c>
       <c r="F161" s="3">
         <v>0</v>
       </c>
       <c r="G161" s="1"/>
-      <c r="H161" s="2" t="s">
-        <v>653</v>
+      <c r="H161" s="1" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C162" s="3">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D162" s="4">
         <v>0</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F162" s="3">
         <v>0</v>
       </c>
       <c r="G162" s="1"/>
       <c r="H162" s="2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C163" s="3">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D163" s="4">
         <v>0</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F163" s="3">
         <v>0</v>
       </c>
       <c r="G163" s="1"/>
       <c r="H163" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C164" s="3">
         <v>6</v>
@@ -6577,22 +6581,22 @@
         <v>0</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F164" s="3">
         <v>0</v>
       </c>
       <c r="G164" s="1"/>
       <c r="H164" s="2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C165" s="3">
         <v>6</v>
@@ -6601,22 +6605,22 @@
         <v>0</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F165" s="3">
         <v>0</v>
       </c>
       <c r="G165" s="1"/>
       <c r="H165" s="2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C166" s="3">
         <v>6</v>
@@ -6625,46 +6629,46 @@
         <v>0</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F166" s="3">
         <v>0</v>
       </c>
       <c r="G166" s="1"/>
       <c r="H166" s="2" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="C167" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D167" s="4">
         <v>0</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="F167" s="3">
         <v>0</v>
       </c>
       <c r="G167" s="1"/>
-      <c r="H167" s="8" t="s">
-        <v>668</v>
+      <c r="H167" s="2" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C168" s="3">
         <v>7</v>
@@ -6673,22 +6677,22 @@
         <v>0</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F168" s="3">
         <v>0</v>
       </c>
       <c r="G168" s="1"/>
       <c r="H168" s="8" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C169" s="3">
         <v>7</v>
@@ -6697,22 +6701,22 @@
         <v>0</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="F169" s="3">
         <v>0</v>
       </c>
       <c r="G169" s="1"/>
-      <c r="H169" s="1" t="s">
-        <v>668</v>
+      <c r="H169" s="8" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C170" s="3">
         <v>7</v>
@@ -6721,22 +6725,22 @@
         <v>0</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F170" s="3">
         <v>0</v>
       </c>
       <c r="G170" s="1"/>
       <c r="H170" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="C171" s="3">
         <v>7</v>
@@ -6745,22 +6749,22 @@
         <v>0</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="F171" s="3">
         <v>0</v>
       </c>
       <c r="G171" s="1"/>
       <c r="H171" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C172" s="3">
         <v>7</v>
@@ -6769,22 +6773,22 @@
         <v>0</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F172" s="3">
         <v>0</v>
       </c>
       <c r="G172" s="1"/>
       <c r="H172" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C173" s="3">
         <v>7</v>
@@ -6793,22 +6797,22 @@
         <v>0</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="F173" s="3">
         <v>0</v>
       </c>
       <c r="G173" s="1"/>
       <c r="H173" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="C174" s="3">
         <v>7</v>
@@ -6817,22 +6821,22 @@
         <v>0</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>490</v>
+        <v>111</v>
       </c>
       <c r="F174" s="3">
         <v>0</v>
       </c>
       <c r="G174" s="1"/>
       <c r="H174" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="C175" s="3">
         <v>7</v>
@@ -6841,7 +6845,7 @@
         <v>0</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>115</v>
+        <v>489</v>
       </c>
       <c r="F175" s="3">
         <v>0</v>
@@ -6852,59 +6856,59 @@
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
-        <v>442</v>
+      <c r="A176" s="2" t="s">
+        <v>497</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>297</v>
+        <v>114</v>
       </c>
       <c r="C176" s="3">
-        <v>13</v>
-      </c>
-      <c r="D176" s="5">
+        <v>7</v>
+      </c>
+      <c r="D176" s="4">
         <v>0</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>298</v>
+        <v>115</v>
       </c>
       <c r="F176" s="3">
         <v>0</v>
       </c>
       <c r="G176" s="1"/>
       <c r="H176" s="1" t="s">
-        <v>659</v>
+        <v>667</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>532</v>
+        <v>441</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>212</v>
+        <v>296</v>
       </c>
       <c r="C177" s="3">
-        <v>6</v>
-      </c>
-      <c r="D177" s="4">
+        <v>13</v>
+      </c>
+      <c r="D177" s="5">
         <v>0</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>213</v>
+        <v>297</v>
       </c>
       <c r="F177" s="3">
         <v>0</v>
       </c>
       <c r="G177" s="1"/>
       <c r="H177" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C178" s="3">
         <v>6</v>
@@ -6913,22 +6917,22 @@
         <v>0</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F178" s="3">
         <v>0</v>
       </c>
       <c r="G178" s="1"/>
       <c r="H178" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C179" s="3">
         <v>6</v>
@@ -6937,14 +6941,14 @@
         <v>0</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F179" s="3">
         <v>0</v>
       </c>
       <c r="G179" s="1"/>
       <c r="H179" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
@@ -6952,7 +6956,7 @@
         <v>535</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C180" s="3">
         <v>6</v>
@@ -6961,14 +6965,14 @@
         <v>0</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F180" s="3">
         <v>0</v>
       </c>
       <c r="G180" s="1"/>
       <c r="H180" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
@@ -6976,7 +6980,7 @@
         <v>534</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C181" s="3">
         <v>6</v>
@@ -6985,147 +6989,171 @@
         <v>0</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>537</v>
+        <v>218</v>
       </c>
       <c r="F181" s="3">
         <v>0</v>
       </c>
       <c r="G181" s="1"/>
       <c r="H181" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>443</v>
+        <v>533</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="C182" s="1"/>
-      <c r="D182" s="1"/>
+        <v>216</v>
+      </c>
+      <c r="C182" s="3">
+        <v>6</v>
+      </c>
+      <c r="D182" s="4">
+        <v>0</v>
+      </c>
       <c r="E182" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="F182" s="1">
+        <v>536</v>
+      </c>
+      <c r="F182" s="3">
+        <v>0</v>
+      </c>
+      <c r="G182" s="1"/>
+      <c r="H182" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>442</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C183" s="1"/>
+      <c r="D183" s="1"/>
+      <c r="E183" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F183" s="1">
         <v>1</v>
       </c>
-      <c r="G182" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="H182" s="1" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A183" s="2" t="s">
+      <c r="G183" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="H183" s="1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A184" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B184" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="B183" s="1" t="s">
+      <c r="E184" s="1" t="s">
         <v>481</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B184" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="F184" s="3">
-        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B185" s="1" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="F185" s="2">
+        <v>539</v>
+      </c>
+      <c r="F185" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B186" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E186" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="E186" s="1" t="s">
-        <v>548</v>
-      </c>
       <c r="F186" s="2">
         <v>0</v>
-      </c>
-      <c r="H186" s="2" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B187" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="F187" s="2">
         <v>0</v>
       </c>
       <c r="H187" s="2" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B188" s="1" t="s">
-        <v>545</v>
+        <v>542</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="F188" s="2">
+        <v>0</v>
+      </c>
+      <c r="H188" s="2" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B189" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B190" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A191" s="2" t="s">
+      <c r="B191" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A192" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="C192" s="2">
+        <v>30</v>
+      </c>
+      <c r="D192" s="6">
+        <v>0</v>
+      </c>
+      <c r="E192" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="B191" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="C191" s="2">
-        <v>30</v>
-      </c>
-      <c r="D191" s="6">
-        <v>0</v>
-      </c>
-      <c r="E191" s="2" t="s">
+      <c r="F192" s="2">
+        <v>0</v>
+      </c>
+      <c r="H192" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="F191" s="2">
-        <v>0</v>
-      </c>
-      <c r="H191" s="7" t="s">
-        <v>552</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H182">
-    <sortCondition ref="B2:B182"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H183">
+    <sortCondition ref="B2:B183"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H191" r:id="rId1" xr:uid="{79761F97-15D2-497A-876C-4F087647F759}"/>
-    <hyperlink ref="H153" r:id="rId2" xr:uid="{135A9EAA-53A1-4C6C-86B4-EA1E459FCF29}"/>
-    <hyperlink ref="H167" r:id="rId3" display="https://playpointlab.com/&gt; &lt;/a&gt;" xr:uid="{E664F694-AC8E-4F9E-AC58-F59D21B9D99B}"/>
-    <hyperlink ref="H168" r:id="rId4" display="https://playpointlab.com/&gt; &lt;/a&gt;" xr:uid="{24D8477A-84BC-417A-A9F7-D15CF3A0F305}"/>
+    <hyperlink ref="H192" r:id="rId1" xr:uid="{79761F97-15D2-497A-876C-4F087647F759}"/>
+    <hyperlink ref="H154" r:id="rId2" xr:uid="{135A9EAA-53A1-4C6C-86B4-EA1E459FCF29}"/>
+    <hyperlink ref="H168" r:id="rId3" display="https://playpointlab.com/&gt; &lt;/a&gt;" xr:uid="{E664F694-AC8E-4F9E-AC58-F59D21B9D99B}"/>
+    <hyperlink ref="H169" r:id="rId4" display="https://playpointlab.com/&gt; &lt;/a&gt;" xr:uid="{24D8477A-84BC-417A-A9F7-D15CF3A0F305}"/>
     <hyperlink ref="H104" r:id="rId5" xr:uid="{1AB750C9-076B-44E1-A1C1-42D804ED6043}"/>
     <hyperlink ref="H94" r:id="rId6" xr:uid="{02B7B66A-8C7C-4429-9DD0-E7B36896002B}"/>
     <hyperlink ref="H91" r:id="rId7" xr:uid="{47FAF52E-8D8D-4DEF-9078-74E8499F1823}"/>
